--- a/SPX_Members.xlsx
+++ b/SPX_Members.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://wumail-my.sharepoint.com/personal/boodusami_widener_edu/Documents/Financial Data Science/Data/Bookdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{141E2E33-8D72-448C-84F0-7D97EA696A75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="8_{141E2E33-8D72-448C-84F0-7D97EA696A75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{09F3816F-C22F-42B6-8250-64451373D69E}"/>
   <bookViews>
-    <workbookView xWindow="2496" yWindow="1092" windowWidth="19176" windowHeight="10056" xr2:uid="{C23CFBCA-5CD7-4B7D-8124-0D55BA7CA5E0}"/>
+    <workbookView xWindow="-19310" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{C23CFBCA-5CD7-4B7D-8124-0D55BA7CA5E0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -3166,8 +3166,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="0.000"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -3198,9 +3199,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3507,7 +3511,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3517,16 +3521,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70E7F2B0-0F27-4A67-BF25-4CDD575B37D3}">
   <dimension ref="A1:M503"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="M1" sqref="A1:M1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="36.88671875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.21875" customWidth="1"/>
-    <col min="4" max="4" width="9.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="9" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="13" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
@@ -3540,10 +3545,10 @@
       <c r="C1" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>1025</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="F1" s="1" t="s">
@@ -3581,10 +3586,10 @@
       <c r="C2" t="s">
         <v>29</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2" s="2">
         <v>156.47999999999999</v>
       </c>
-      <c r="E2" s="1">
+      <c r="E2" s="2">
         <v>10.522150846332723</v>
       </c>
       <c r="F2" s="1">
@@ -3622,10 +3627,10 @@
       <c r="C3" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" s="2">
         <v>17.574999999999999</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E3" s="2">
         <v>-8.6019319085644081</v>
       </c>
       <c r="G3" s="1">
@@ -3657,10 +3662,10 @@
       <c r="C4" t="s">
         <v>39</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="2">
         <v>150</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4" s="2">
         <v>5.7202193104571641</v>
       </c>
       <c r="F4" s="1">
@@ -3698,10 +3703,10 @@
       <c r="C5" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="2">
         <v>137.21</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5" s="2">
         <v>17.226922104678266</v>
       </c>
       <c r="F5" s="1">
@@ -3739,10 +3744,10 @@
       <c r="C6" t="s">
         <v>29</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6" s="2">
         <v>151.86000000000001</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6" s="2">
         <v>14.969148397868404</v>
       </c>
       <c r="F6" s="1">
@@ -3780,10 +3785,10 @@
       <c r="C7" t="s">
         <v>29</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7" s="2">
         <v>164.29</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E7" s="2">
         <v>10.291107028995672</v>
       </c>
       <c r="G7" s="1">
@@ -3818,10 +3823,10 @@
       <c r="C8" t="s">
         <v>29</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D8" s="2">
         <v>113.08</v>
       </c>
-      <c r="E8" s="1">
+      <c r="E8" s="2">
         <v>11.44171224043582</v>
       </c>
       <c r="F8" s="1">
@@ -3859,10 +3864,10 @@
       <c r="C9" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D9" s="2">
         <v>63.98</v>
       </c>
-      <c r="E9" s="1">
+      <c r="E9" s="2">
         <v>13.899655315633751</v>
       </c>
       <c r="G9" s="1">
@@ -3897,10 +3902,10 @@
       <c r="C10" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="1">
+      <c r="D10" s="2">
         <v>285.10000000000002</v>
       </c>
-      <c r="E10" s="1">
+      <c r="E10" s="2">
         <v>10.4243456974769</v>
       </c>
       <c r="F10" s="1">
@@ -3938,10 +3943,10 @@
       <c r="C11" t="s">
         <v>19</v>
       </c>
-      <c r="D11" s="1">
+      <c r="D11" s="2">
         <v>345.76</v>
       </c>
-      <c r="E11" s="1">
+      <c r="E11" s="2">
         <v>20.423363067265822</v>
       </c>
       <c r="F11" s="1">
@@ -3979,10 +3984,10 @@
       <c r="C12" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="1">
+      <c r="D12" s="2">
         <v>168.62</v>
       </c>
-      <c r="E12" s="1">
+      <c r="E12" s="2">
         <v>9.4290119782086901</v>
       </c>
       <c r="F12" s="1">
@@ -4020,10 +4025,10 @@
       <c r="C13" t="s">
         <v>27</v>
       </c>
-      <c r="D13" s="1">
+      <c r="D13" s="2">
         <v>87.85</v>
       </c>
-      <c r="E13" s="1">
+      <c r="E13" s="2">
         <v>7.3484514768568321</v>
       </c>
       <c r="F13" s="1">
@@ -4061,10 +4066,10 @@
       <c r="C14" t="s">
         <v>19</v>
       </c>
-      <c r="D14" s="1">
+      <c r="D14" s="2">
         <v>237.8</v>
       </c>
-      <c r="E14" s="1">
+      <c r="E14" s="2">
         <v>7.3397542909434899</v>
       </c>
       <c r="F14" s="1">
@@ -4102,10 +4107,10 @@
       <c r="C15" t="s">
         <v>19</v>
       </c>
-      <c r="D15" s="1">
+      <c r="D15" s="2">
         <v>202.36</v>
       </c>
-      <c r="E15" s="1">
+      <c r="E15" s="2">
         <v>16.965476366524857</v>
       </c>
       <c r="G15" s="1">
@@ -4140,10 +4145,10 @@
       <c r="C16" t="s">
         <v>47</v>
       </c>
-      <c r="D16" s="1">
+      <c r="D16" s="2">
         <v>89.52</v>
       </c>
-      <c r="E16" s="1">
+      <c r="E16" s="2">
         <v>-7.8392675992844385E-2</v>
       </c>
       <c r="F16" s="1">
@@ -4181,10 +4186,10 @@
       <c r="C17" t="s">
         <v>47</v>
       </c>
-      <c r="D17" s="1">
+      <c r="D17" s="2">
         <v>95.02</v>
       </c>
-      <c r="E17" s="1">
+      <c r="E17" s="2">
         <v>0.13281191877441145</v>
       </c>
       <c r="F17" s="1">
@@ -4213,10 +4218,10 @@
       <c r="C18" t="s">
         <v>47</v>
       </c>
-      <c r="D18" s="1">
+      <c r="D18" s="2">
         <v>27.71</v>
       </c>
-      <c r="E18" s="1">
+      <c r="E18" s="2">
         <v>1.4359040672157874</v>
       </c>
       <c r="G18" s="1">
@@ -4251,10 +4256,10 @@
       <c r="C19" t="s">
         <v>14</v>
       </c>
-      <c r="D19" s="1">
+      <c r="D19" s="2">
         <v>72.34</v>
       </c>
-      <c r="E19" s="1">
+      <c r="E19" s="2">
         <v>19.079033536906344</v>
       </c>
       <c r="F19" s="1">
@@ -4292,10 +4297,10 @@
       <c r="C20" t="s">
         <v>14</v>
       </c>
-      <c r="D20" s="1">
+      <c r="D20" s="2">
         <v>63.43</v>
       </c>
-      <c r="E20" s="1">
+      <c r="E20" s="2">
         <v>4.8729340715430558</v>
       </c>
       <c r="G20" s="1">
@@ -4330,10 +4335,10 @@
       <c r="C21" t="s">
         <v>14</v>
       </c>
-      <c r="D21" s="1">
+      <c r="D21" s="2">
         <v>128.33000000000001</v>
       </c>
-      <c r="E21" s="1">
+      <c r="E21" s="2">
         <v>6.9780181189778689</v>
       </c>
       <c r="G21" s="1">
@@ -4368,10 +4373,10 @@
       <c r="C22" t="s">
         <v>14</v>
       </c>
-      <c r="D22" s="1">
+      <c r="D22" s="2">
         <v>195.24</v>
       </c>
-      <c r="E22" s="1">
+      <c r="E22" s="2">
         <v>4.8341584134245164</v>
       </c>
       <c r="F22" s="1">
@@ -4409,10 +4414,10 @@
       <c r="C23" t="s">
         <v>19</v>
       </c>
-      <c r="D23" s="1">
+      <c r="D23" s="2">
         <v>88.68</v>
       </c>
-      <c r="E23" s="1">
+      <c r="E23" s="2">
         <v>9.7257369603314778</v>
       </c>
       <c r="F23" s="1">
@@ -4450,10 +4455,10 @@
       <c r="C24" t="s">
         <v>12</v>
       </c>
-      <c r="D24" s="1">
+      <c r="D24" s="2">
         <v>245.03</v>
       </c>
-      <c r="E24" s="1">
+      <c r="E24" s="2">
         <v>3.8158953165227327</v>
       </c>
       <c r="G24" s="1">
@@ -4488,10 +4493,10 @@
       <c r="C25" t="s">
         <v>29</v>
       </c>
-      <c r="D25" s="1">
+      <c r="D25" s="2">
         <v>246.96</v>
       </c>
-      <c r="E25" s="1">
+      <c r="E25" s="2">
         <v>29.935852972240482</v>
       </c>
       <c r="F25" s="1">
@@ -4529,10 +4534,10 @@
       <c r="C26" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="1">
+      <c r="D26" s="2">
         <v>51.22</v>
       </c>
-      <c r="E26" s="1">
+      <c r="E26" s="2">
         <v>0.56887111293117965</v>
       </c>
       <c r="G26" s="1">
@@ -4567,10 +4572,10 @@
       <c r="C27" t="s">
         <v>14</v>
       </c>
-      <c r="D27" s="1">
+      <c r="D27" s="2">
         <v>134.55500000000001</v>
       </c>
-      <c r="E27" s="1">
+      <c r="E27" s="2">
         <v>11.333840097464766</v>
       </c>
       <c r="G27" s="1">
@@ -4605,10 +4610,10 @@
       <c r="C28" t="s">
         <v>21</v>
       </c>
-      <c r="D28" s="1">
+      <c r="D28" s="2">
         <v>113.13</v>
       </c>
-      <c r="E28" s="1">
+      <c r="E28" s="2">
         <v>6.425770537007125</v>
       </c>
       <c r="F28" s="1">
@@ -4643,10 +4648,10 @@
       <c r="C29" t="s">
         <v>19</v>
       </c>
-      <c r="D29" s="1">
+      <c r="D29" s="2">
         <v>111.14</v>
       </c>
-      <c r="E29" s="1">
+      <c r="E29" s="2">
         <v>16.664330184286769</v>
       </c>
       <c r="F29" s="1">
@@ -4684,10 +4689,10 @@
       <c r="C30" t="s">
         <v>12</v>
       </c>
-      <c r="D30" s="1">
+      <c r="D30" s="2">
         <v>12.16</v>
       </c>
-      <c r="E30" s="1">
+      <c r="E30" s="2">
         <v>4.1508424848302861</v>
       </c>
       <c r="G30" s="1">
@@ -4716,10 +4721,10 @@
       <c r="C31" t="s">
         <v>19</v>
       </c>
-      <c r="D31" s="1">
+      <c r="D31" s="2">
         <v>71.91</v>
       </c>
-      <c r="E31" s="1">
+      <c r="E31" s="2">
         <v>21.237549774778429</v>
       </c>
       <c r="F31" s="1">
@@ -4754,10 +4759,10 @@
       <c r="C32" t="s">
         <v>21</v>
       </c>
-      <c r="D32" s="1">
+      <c r="D32" s="2">
         <v>143.79</v>
       </c>
-      <c r="E32" s="1">
+      <c r="E32" s="2">
         <v>7.7828502976184044</v>
       </c>
       <c r="F32" s="1">
@@ -4795,10 +4800,10 @@
       <c r="C33" t="s">
         <v>29</v>
       </c>
-      <c r="D33" s="1">
+      <c r="D33" s="2">
         <v>269.45</v>
       </c>
-      <c r="E33" s="1">
+      <c r="E33" s="2">
         <v>8.197758105749875</v>
       </c>
       <c r="F33" s="1">
@@ -4836,10 +4841,10 @@
       <c r="C34" t="s">
         <v>14</v>
       </c>
-      <c r="D34" s="1">
+      <c r="D34" s="2">
         <v>335.9</v>
       </c>
-      <c r="E34" s="1">
+      <c r="E34" s="2">
         <v>9.9904763826230703</v>
       </c>
       <c r="G34" s="1">
@@ -4874,10 +4879,10 @@
       <c r="C35" t="s">
         <v>33</v>
       </c>
-      <c r="D35" s="1">
+      <c r="D35" s="2">
         <v>231.17</v>
       </c>
-      <c r="E35" s="1">
+      <c r="E35" s="2">
         <v>8.7754918770881254</v>
       </c>
       <c r="F35" s="1">
@@ -4915,10 +4920,10 @@
       <c r="C36" t="s">
         <v>39</v>
       </c>
-      <c r="D36" s="1">
+      <c r="D36" s="2">
         <v>97.63</v>
       </c>
-      <c r="E36" s="1">
+      <c r="E36" s="2">
         <v>26.477349626117007</v>
       </c>
       <c r="F36" s="1">
@@ -4956,10 +4961,10 @@
       <c r="C37" t="s">
         <v>19</v>
       </c>
-      <c r="D37" s="1">
+      <c r="D37" s="2">
         <v>116.95</v>
       </c>
-      <c r="E37" s="1">
+      <c r="E37" s="2">
         <v>18.56555001452427</v>
       </c>
       <c r="F37" s="1">
@@ -4994,10 +4999,10 @@
       <c r="C38" t="s">
         <v>19</v>
       </c>
-      <c r="D38" s="1">
+      <c r="D38" s="2">
         <v>255.64</v>
       </c>
-      <c r="E38" s="1">
+      <c r="E38" s="2">
         <v>14.075256401287618</v>
       </c>
       <c r="F38" s="1">
@@ -5035,10 +5040,10 @@
       <c r="C39" t="s">
         <v>14</v>
       </c>
-      <c r="D39" s="1">
+      <c r="D39" s="2">
         <v>316.67</v>
       </c>
-      <c r="E39" s="1">
+      <c r="E39" s="2">
         <v>9.1068881444612337</v>
       </c>
       <c r="G39" s="1">
@@ -5073,10 +5078,10 @@
       <c r="C40" t="s">
         <v>21</v>
       </c>
-      <c r="D40" s="1">
+      <c r="D40" s="2">
         <v>60.17</v>
       </c>
-      <c r="E40" s="1">
+      <c r="E40" s="2">
         <v>7.3419848682774846</v>
       </c>
       <c r="F40" s="1">
@@ -5114,10 +5119,10 @@
       <c r="C41" t="s">
         <v>25</v>
       </c>
-      <c r="D41" s="1">
+      <c r="D41" s="2">
         <v>45.68</v>
       </c>
-      <c r="E41" s="1">
+      <c r="E41" s="2">
         <v>8.9508759949543215</v>
       </c>
       <c r="G41" s="1">
@@ -5143,10 +5148,10 @@
       <c r="C42" t="s">
         <v>12</v>
       </c>
-      <c r="D42" s="1">
+      <c r="D42" s="2">
         <v>306.26</v>
       </c>
-      <c r="E42" s="1">
+      <c r="E42" s="2">
         <v>8.7778696172884363</v>
       </c>
       <c r="F42" s="1">
@@ -5184,10 +5189,10 @@
       <c r="C43" t="s">
         <v>19</v>
       </c>
-      <c r="D43" s="1">
+      <c r="D43" s="2">
         <v>80.91</v>
       </c>
-      <c r="E43" s="1">
+      <c r="E43" s="2">
         <v>12.277006930751622</v>
       </c>
       <c r="F43" s="1">
@@ -5225,10 +5230,10 @@
       <c r="C44" t="s">
         <v>39</v>
       </c>
-      <c r="D44" s="1">
+      <c r="D44" s="2">
         <v>104.13</v>
       </c>
-      <c r="E44" s="1">
+      <c r="E44" s="2">
         <v>5.1331750878028437</v>
       </c>
       <c r="F44" s="1">
@@ -5266,10 +5271,10 @@
       <c r="C45" t="s">
         <v>33</v>
       </c>
-      <c r="D45" s="1">
+      <c r="D45" s="2">
         <v>156.65</v>
       </c>
-      <c r="E45" s="1">
+      <c r="E45" s="2">
         <v>3.5075001106088743</v>
       </c>
       <c r="G45" s="1">
@@ -5304,10 +5309,10 @@
       <c r="C46" t="s">
         <v>47</v>
       </c>
-      <c r="D46" s="1">
+      <c r="D46" s="2">
         <v>113.7</v>
       </c>
-      <c r="E46" s="1">
+      <c r="E46" s="2">
         <v>3.2250428521633179</v>
       </c>
       <c r="F46" s="1">
@@ -5345,10 +5350,10 @@
       <c r="C47" t="s">
         <v>17</v>
       </c>
-      <c r="D47" s="1">
+      <c r="D47" s="2">
         <v>74.53</v>
       </c>
-      <c r="E47" s="1">
+      <c r="E47" s="2">
         <v>4.8755553794977535</v>
       </c>
       <c r="F47" s="1">
@@ -5386,10 +5391,10 @@
       <c r="C48" t="s">
         <v>33</v>
       </c>
-      <c r="D48" s="1">
+      <c r="D48" s="2">
         <v>170.31</v>
       </c>
-      <c r="E48" s="1">
+      <c r="E48" s="2">
         <v>1.9230019792686681</v>
       </c>
       <c r="F48" s="1">
@@ -5427,10 +5432,10 @@
       <c r="C49" t="s">
         <v>19</v>
       </c>
-      <c r="D49" s="1">
+      <c r="D49" s="2">
         <v>583.42999999999995</v>
       </c>
-      <c r="E49" s="1">
+      <c r="E49" s="2">
         <v>13.266580673417483</v>
       </c>
       <c r="F49" s="1">
@@ -5468,10 +5473,10 @@
       <c r="C50" t="s">
         <v>12</v>
       </c>
-      <c r="D50" s="1">
+      <c r="D50" s="2">
         <v>193.9</v>
       </c>
-      <c r="E50" s="1">
+      <c r="E50" s="2">
         <v>8.2262845303824541</v>
       </c>
       <c r="F50" s="1">
@@ -5509,10 +5514,10 @@
       <c r="C51" t="s">
         <v>47</v>
       </c>
-      <c r="D51" s="1">
+      <c r="D51" s="2">
         <v>158.46</v>
       </c>
-      <c r="E51" s="1">
+      <c r="E51" s="2">
         <v>3.0843695428574236</v>
       </c>
       <c r="F51" s="1">
@@ -5550,10 +5555,10 @@
       <c r="C52" t="s">
         <v>14</v>
       </c>
-      <c r="D52" s="1">
+      <c r="D52" s="2">
         <v>154.47</v>
       </c>
-      <c r="E52" s="1">
+      <c r="E52" s="2">
         <v>6.8090978410276337</v>
       </c>
       <c r="F52" s="1">
@@ -5591,10 +5596,10 @@
       <c r="C53" t="s">
         <v>39</v>
       </c>
-      <c r="D53" s="1">
+      <c r="D53" s="2">
         <v>2355.88</v>
       </c>
-      <c r="E53" s="1">
+      <c r="E53" s="2">
         <v>16.111034179473684</v>
       </c>
       <c r="F53" s="1">
@@ -5632,10 +5637,10 @@
       <c r="C54" t="s">
         <v>21</v>
       </c>
-      <c r="D54" s="1">
+      <c r="D54" s="2">
         <v>211.98</v>
       </c>
-      <c r="E54" s="1">
+      <c r="E54" s="2">
         <v>-6.3587660720058725</v>
       </c>
       <c r="G54" s="1">
@@ -5670,10 +5675,10 @@
       <c r="C55" t="s">
         <v>14</v>
       </c>
-      <c r="D55" s="1">
+      <c r="D55" s="2">
         <v>34.03</v>
       </c>
-      <c r="E55" s="1">
+      <c r="E55" s="2">
         <v>7.5943218709813465</v>
       </c>
       <c r="F55" s="1">
@@ -5711,10 +5716,10 @@
       <c r="C56" t="s">
         <v>12</v>
       </c>
-      <c r="D56" s="1">
+      <c r="D56" s="2">
         <v>57.3</v>
       </c>
-      <c r="E56" s="1">
+      <c r="E56" s="2">
         <v>8.1572106124750974</v>
       </c>
       <c r="F56" s="1">
@@ -5752,10 +5757,10 @@
       <c r="C57" t="s">
         <v>29</v>
       </c>
-      <c r="D57" s="1">
+      <c r="D57" s="2">
         <v>44.71</v>
       </c>
-      <c r="E57" s="1">
+      <c r="E57" s="2">
         <v>6.4698770108107651</v>
       </c>
       <c r="G57" s="1">
@@ -5790,10 +5795,10 @@
       <c r="C58" t="s">
         <v>39</v>
       </c>
-      <c r="D58" s="1">
+      <c r="D58" s="2">
         <v>46.45</v>
       </c>
-      <c r="E58" s="1">
+      <c r="E58" s="2">
         <v>-7.7539926650454394</v>
       </c>
       <c r="G58" s="1">
@@ -5828,10 +5833,10 @@
       <c r="C59" t="s">
         <v>39</v>
       </c>
-      <c r="D59" s="1">
+      <c r="D59" s="2">
         <v>85.76</v>
       </c>
-      <c r="E59" s="1">
+      <c r="E59" s="2">
         <v>11.134149479204147</v>
       </c>
       <c r="F59" s="1">
@@ -5869,10 +5874,10 @@
       <c r="C60" t="s">
         <v>29</v>
       </c>
-      <c r="D60" s="1">
+      <c r="D60" s="2">
         <v>255.02</v>
       </c>
-      <c r="E60" s="1">
+      <c r="E60" s="2">
         <v>3.6915309248696904</v>
       </c>
       <c r="G60" s="1">
@@ -5907,10 +5912,10 @@
       <c r="C61" t="s">
         <v>14</v>
       </c>
-      <c r="D61" s="1">
+      <c r="D61" s="2">
         <v>29.9</v>
       </c>
-      <c r="E61" s="1">
+      <c r="E61" s="2">
         <v>8.1607002056715228</v>
       </c>
       <c r="G61" s="1">
@@ -5945,10 +5950,10 @@
       <c r="C62" t="s">
         <v>27</v>
       </c>
-      <c r="D62" s="1">
+      <c r="D62" s="2">
         <v>67.7</v>
       </c>
-      <c r="E62" s="1">
+      <c r="E62" s="2">
         <v>10.691488595940978</v>
       </c>
       <c r="F62" s="1">
@@ -5986,10 +5991,10 @@
       <c r="C63" t="s">
         <v>29</v>
       </c>
-      <c r="D63" s="1">
+      <c r="D63" s="2">
         <v>289.60000000000002</v>
       </c>
-      <c r="E63" s="1">
+      <c r="E63" s="2">
         <v>7.0377372022018214</v>
       </c>
       <c r="F63" s="1">
@@ -6027,10 +6032,10 @@
       <c r="C64" t="s">
         <v>29</v>
       </c>
-      <c r="D64" s="1">
+      <c r="D64" s="2">
         <v>457</v>
       </c>
-      <c r="E64" s="1">
+      <c r="E64" s="2">
         <v>6.8781454403762154</v>
       </c>
       <c r="G64" s="1">
@@ -6065,10 +6070,10 @@
       <c r="C65" t="s">
         <v>14</v>
       </c>
-      <c r="D65" s="1">
+      <c r="D65" s="2">
         <v>49.68</v>
       </c>
-      <c r="E65" s="1">
+      <c r="E65" s="2">
         <v>8.9368679642444437</v>
       </c>
       <c r="F65" s="1">
@@ -6106,10 +6111,10 @@
       <c r="C66" t="s">
         <v>39</v>
       </c>
-      <c r="D66" s="1">
+      <c r="D66" s="2">
         <v>2360</v>
       </c>
-      <c r="E66" s="1">
+      <c r="E66" s="2">
         <v>4.227096158388477</v>
       </c>
       <c r="F66" s="1">
@@ -6147,10 +6152,10 @@
       <c r="C67" t="s">
         <v>25</v>
       </c>
-      <c r="D67" s="1">
+      <c r="D67" s="2">
         <v>31.99</v>
       </c>
-      <c r="E67" s="1">
+      <c r="E67" s="2">
         <v>-3.7641424919381827</v>
       </c>
       <c r="G67" s="1">
@@ -6176,10 +6181,10 @@
       <c r="C68" t="s">
         <v>14</v>
       </c>
-      <c r="D68" s="1">
+      <c r="D68" s="2">
         <v>754</v>
       </c>
-      <c r="E68" s="1">
+      <c r="E68" s="2">
         <v>7.1447142553916043</v>
       </c>
       <c r="F68" s="1">
@@ -6217,10 +6222,10 @@
       <c r="C69" t="s">
         <v>29</v>
       </c>
-      <c r="D69" s="1">
+      <c r="D69" s="2">
         <v>72.459999999999994</v>
       </c>
-      <c r="E69" s="1">
+      <c r="E69" s="2">
         <v>12.42941279946872</v>
       </c>
       <c r="F69" s="1">
@@ -6258,10 +6263,10 @@
       <c r="C70" t="s">
         <v>19</v>
       </c>
-      <c r="D70" s="1">
+      <c r="D70" s="2">
         <v>145.71</v>
       </c>
-      <c r="E70" s="1">
+      <c r="E70" s="2">
         <v>6.8614739399206703</v>
       </c>
       <c r="F70" s="1">
@@ -6299,10 +6304,10 @@
       <c r="C71" t="s">
         <v>14</v>
       </c>
-      <c r="D71" s="1">
+      <c r="D71" s="2">
         <v>314.86</v>
       </c>
-      <c r="E71" s="1">
+      <c r="E71" s="2">
         <v>11.557393402429849</v>
       </c>
       <c r="G71" s="1">
@@ -6337,10 +6342,10 @@
       <c r="C72" t="s">
         <v>14</v>
       </c>
-      <c r="D72" s="1">
+      <c r="D72" s="2">
         <v>61.26</v>
       </c>
-      <c r="E72" s="1">
+      <c r="E72" s="2">
         <v>11.245855898436474</v>
       </c>
       <c r="F72" s="1">
@@ -6378,10 +6383,10 @@
       <c r="C73" t="s">
         <v>29</v>
       </c>
-      <c r="D73" s="1">
+      <c r="D73" s="2">
         <v>45.95</v>
       </c>
-      <c r="E73" s="1">
+      <c r="E73" s="2">
         <v>6.2348261502428892</v>
       </c>
       <c r="G73" s="1">
@@ -6416,10 +6421,10 @@
       <c r="C74" t="s">
         <v>39</v>
       </c>
-      <c r="D74" s="1">
+      <c r="D74" s="2">
         <v>44.66</v>
       </c>
-      <c r="E74" s="1">
+      <c r="E74" s="2">
         <v>8.0504508072365191</v>
       </c>
       <c r="F74" s="1">
@@ -6457,10 +6462,10 @@
       <c r="C75" t="s">
         <v>33</v>
       </c>
-      <c r="D75" s="1">
+      <c r="D75" s="2">
         <v>71.77</v>
       </c>
-      <c r="E75" s="1">
+      <c r="E75" s="2">
         <v>2.2011816111715765</v>
       </c>
       <c r="F75" s="1">
@@ -6498,10 +6503,10 @@
       <c r="C76" t="s">
         <v>14</v>
       </c>
-      <c r="D76" s="1">
+      <c r="D76" s="2">
         <v>49.96</v>
       </c>
-      <c r="E76" s="1">
+      <c r="E76" s="2">
         <v>9.510332889398331</v>
       </c>
       <c r="G76" s="1">
@@ -6536,10 +6541,10 @@
       <c r="C77" t="s">
         <v>27</v>
       </c>
-      <c r="D77" s="1">
+      <c r="D77" s="2">
         <v>39.909999999999997</v>
       </c>
-      <c r="E77" s="1">
+      <c r="E77" s="2">
         <v>5.7953215777271527</v>
       </c>
       <c r="F77" s="1">
@@ -6577,10 +6582,10 @@
       <c r="C78" t="s">
         <v>29</v>
       </c>
-      <c r="D78" s="1">
+      <c r="D78" s="2">
         <v>76.239999999999995</v>
       </c>
-      <c r="E78" s="1">
+      <c r="E78" s="2">
         <v>9.6550394365000578</v>
       </c>
       <c r="G78" s="1">
@@ -6615,7 +6620,7 @@
       <c r="C79" t="s">
         <v>21</v>
       </c>
-      <c r="D79" s="1">
+      <c r="D79" s="2">
         <v>45.33</v>
       </c>
       <c r="H79" s="1">
@@ -6638,10 +6643,10 @@
       <c r="C80" t="s">
         <v>21</v>
       </c>
-      <c r="D80" s="1">
+      <c r="D80" s="2">
         <v>257.87</v>
       </c>
-      <c r="E80" s="1">
+      <c r="E80" s="2">
         <v>7.2744872921182369</v>
       </c>
       <c r="F80" s="1">
@@ -6679,10 +6684,10 @@
       <c r="C81" t="s">
         <v>14</v>
       </c>
-      <c r="D81" s="1">
+      <c r="D81" s="2">
         <v>223.92</v>
       </c>
-      <c r="E81" s="1">
+      <c r="E81" s="2">
         <v>6.4739889983399745</v>
       </c>
       <c r="G81" s="1">
@@ -6717,10 +6722,10 @@
       <c r="C82" t="s">
         <v>14</v>
       </c>
-      <c r="D82" s="1">
+      <c r="D82" s="2">
         <v>125.03</v>
       </c>
-      <c r="E82" s="1">
+      <c r="E82" s="2">
         <v>14.669160375560253</v>
       </c>
       <c r="F82" s="1">
@@ -6755,10 +6760,10 @@
       <c r="C83" t="s">
         <v>33</v>
       </c>
-      <c r="D83" s="1">
+      <c r="D83" s="2">
         <v>84.92</v>
       </c>
-      <c r="E83" s="1">
+      <c r="E83" s="2">
         <v>16.257680343789161</v>
       </c>
       <c r="F83" s="1">
@@ -6796,10 +6801,10 @@
       <c r="C84" t="s">
         <v>33</v>
       </c>
-      <c r="D84" s="1">
+      <c r="D84" s="2">
         <v>150.62</v>
       </c>
-      <c r="E84" s="1">
+      <c r="E84" s="2">
         <v>4.9594739611089844</v>
       </c>
       <c r="F84" s="1">
@@ -6837,10 +6842,10 @@
       <c r="C85" t="s">
         <v>39</v>
       </c>
-      <c r="D85" s="1">
+      <c r="D85" s="2">
         <v>11.06</v>
       </c>
-      <c r="E85" s="1">
+      <c r="E85" s="2">
         <v>-15.72133472584315</v>
       </c>
       <c r="G85" s="1">
@@ -6875,10 +6880,10 @@
       <c r="C86" t="s">
         <v>19</v>
       </c>
-      <c r="D86" s="1">
+      <c r="D86" s="2">
         <v>67.739999999999995</v>
       </c>
-      <c r="E86" s="1">
+      <c r="E86" s="2">
         <v>-8.8715616476978667</v>
       </c>
       <c r="G86" s="1">
@@ -6907,10 +6912,10 @@
       <c r="C87" t="s">
         <v>19</v>
       </c>
-      <c r="D87" s="1">
+      <c r="D87" s="2">
         <v>174.28</v>
       </c>
-      <c r="E87" s="1">
+      <c r="E87" s="2">
         <v>11.347482133005116</v>
       </c>
       <c r="F87" s="1">
@@ -6948,10 +6953,10 @@
       <c r="C88" t="s">
         <v>19</v>
       </c>
-      <c r="D88" s="1">
+      <c r="D88" s="2">
         <v>198.75</v>
       </c>
-      <c r="E88" s="1">
+      <c r="E88" s="2">
         <v>11.957437405419835</v>
       </c>
       <c r="F88" s="1">
@@ -6986,10 +6991,10 @@
       <c r="C89" t="s">
         <v>12</v>
       </c>
-      <c r="D89" s="1">
+      <c r="D89" s="2">
         <v>120.84</v>
       </c>
-      <c r="E89" s="1">
+      <c r="E89" s="2">
         <v>15.599782228852611</v>
       </c>
       <c r="F89" s="1">
@@ -7027,7 +7032,7 @@
       <c r="C90" t="s">
         <v>47</v>
       </c>
-      <c r="D90" s="1">
+      <c r="D90" s="2">
         <v>83.26</v>
       </c>
       <c r="H90" s="1">
@@ -7047,10 +7052,10 @@
       <c r="C91" t="s">
         <v>12</v>
       </c>
-      <c r="D91" s="1">
+      <c r="D91" s="2">
         <v>86.52</v>
       </c>
-      <c r="E91" s="1">
+      <c r="E91" s="2">
         <v>13.978319000727879</v>
       </c>
       <c r="G91" s="1">
@@ -7085,10 +7090,10 @@
       <c r="C92" t="s">
         <v>14</v>
       </c>
-      <c r="D92" s="1">
+      <c r="D92" s="2">
         <v>40.29</v>
       </c>
-      <c r="E92" s="1">
+      <c r="E92" s="2">
         <v>8.1932112328713345</v>
       </c>
       <c r="F92" s="1">
@@ -7123,10 +7128,10 @@
       <c r="C93" t="s">
         <v>27</v>
       </c>
-      <c r="D93" s="1">
+      <c r="D93" s="2">
         <v>84.51</v>
       </c>
-      <c r="E93" s="1">
+      <c r="E93" s="2">
         <v>9.3413309731379179</v>
       </c>
       <c r="F93" s="1">
@@ -7164,10 +7169,10 @@
       <c r="C94" t="s">
         <v>21</v>
       </c>
-      <c r="D94" s="1">
+      <c r="D94" s="2">
         <v>94.48</v>
       </c>
-      <c r="E94" s="1">
+      <c r="E94" s="2">
         <v>13.615940269482628</v>
       </c>
       <c r="F94" s="1">
@@ -7205,10 +7210,10 @@
       <c r="C95" t="s">
         <v>17</v>
       </c>
-      <c r="D95" s="1">
+      <c r="D95" s="2">
         <v>389.74</v>
       </c>
-      <c r="E95" s="1">
+      <c r="E95" s="2">
         <v>14.913853139293298</v>
       </c>
       <c r="F95" s="1">
@@ -7246,10 +7251,10 @@
       <c r="C96" t="s">
         <v>29</v>
       </c>
-      <c r="D96" s="1">
+      <c r="D96" s="2">
         <v>314.42</v>
       </c>
-      <c r="E96" s="1">
+      <c r="E96" s="2">
         <v>26.983201367192521</v>
       </c>
       <c r="F96" s="1">
@@ -7287,10 +7292,10 @@
       <c r="C97" t="s">
         <v>14</v>
       </c>
-      <c r="D97" s="1">
+      <c r="D97" s="2">
         <v>106.01</v>
       </c>
-      <c r="E97" s="1">
+      <c r="E97" s="2">
         <v>12.545957695431476</v>
       </c>
       <c r="G97" s="1">
@@ -7325,10 +7330,10 @@
       <c r="C98" t="s">
         <v>27</v>
       </c>
-      <c r="D98" s="1">
+      <c r="D98" s="2">
         <v>78.31</v>
       </c>
-      <c r="E98" s="1">
+      <c r="E98" s="2">
         <v>3.8859049042518468</v>
       </c>
       <c r="F98" s="1">
@@ -7366,10 +7371,10 @@
       <c r="C99" t="s">
         <v>27</v>
       </c>
-      <c r="D99" s="1">
+      <c r="D99" s="2">
         <v>146.79</v>
       </c>
-      <c r="E99" s="1">
+      <c r="E99" s="2">
         <v>4.501919412707589</v>
       </c>
       <c r="F99" s="1">
@@ -7407,10 +7412,10 @@
       <c r="C100" t="s">
         <v>14</v>
       </c>
-      <c r="D100" s="1">
+      <c r="D100" s="2">
         <v>67</v>
       </c>
-      <c r="E100" s="1">
+      <c r="E100" s="2">
         <v>5.4136741709302827</v>
       </c>
       <c r="F100" s="1">
@@ -7448,10 +7453,10 @@
       <c r="C101" t="s">
         <v>17</v>
       </c>
-      <c r="D101" s="1">
+      <c r="D101" s="2">
         <v>38.97</v>
       </c>
-      <c r="E101" s="1">
+      <c r="E101" s="2">
         <v>8.6696879299355878</v>
       </c>
       <c r="G101" s="1">
@@ -7486,10 +7491,10 @@
       <c r="C102" t="s">
         <v>14</v>
       </c>
-      <c r="D102" s="1">
+      <c r="D102" s="2">
         <v>175.74</v>
       </c>
-      <c r="E102" s="1">
+      <c r="E102" s="2">
         <v>4.2027233534659869</v>
       </c>
       <c r="F102" s="1">
@@ -7527,10 +7532,10 @@
       <c r="C103" t="s">
         <v>39</v>
       </c>
-      <c r="D103" s="1">
+      <c r="D103" s="2">
         <v>1558.69</v>
       </c>
-      <c r="E103" s="1">
+      <c r="E103" s="2">
         <v>14.993859716025559</v>
       </c>
       <c r="F103" s="1">
@@ -7568,10 +7573,10 @@
       <c r="C104" t="s">
         <v>21</v>
       </c>
-      <c r="D104" s="1">
+      <c r="D104" s="2">
         <v>249.86</v>
       </c>
-      <c r="E104" s="1">
+      <c r="E104" s="2">
         <v>9.9080162596102852</v>
       </c>
       <c r="F104" s="1">
@@ -7609,10 +7614,10 @@
       <c r="C105" t="s">
         <v>47</v>
       </c>
-      <c r="D105" s="1">
+      <c r="D105" s="2">
         <v>63.45</v>
       </c>
-      <c r="E105" s="1">
+      <c r="E105" s="2">
         <v>1.949397401033548</v>
       </c>
       <c r="F105" s="1">
@@ -7650,10 +7655,10 @@
       <c r="C106" t="s">
         <v>29</v>
       </c>
-      <c r="D106" s="1">
+      <c r="D106" s="2">
         <v>76.47</v>
       </c>
-      <c r="E106" s="1">
+      <c r="E106" s="2">
         <v>11.180285900564947</v>
       </c>
       <c r="F106" s="1">
@@ -7691,10 +7696,10 @@
       <c r="C107" t="s">
         <v>47</v>
       </c>
-      <c r="D107" s="1">
+      <c r="D107" s="2">
         <v>31.09</v>
       </c>
-      <c r="E107" s="1">
+      <c r="E107" s="2">
         <v>-4.2129737940515888</v>
       </c>
       <c r="F107" s="1">
@@ -7732,10 +7737,10 @@
       <c r="C108" t="s">
         <v>14</v>
       </c>
-      <c r="D108" s="1">
+      <c r="D108" s="2">
         <v>103.85</v>
       </c>
-      <c r="E108" s="1">
+      <c r="E108" s="2">
         <v>5.8403853123844662</v>
       </c>
       <c r="F108" s="1">
@@ -7773,10 +7778,10 @@
       <c r="C109" t="s">
         <v>29</v>
       </c>
-      <c r="D109" s="1">
+      <c r="D109" s="2">
         <v>345.94</v>
       </c>
-      <c r="E109" s="1">
+      <c r="E109" s="2">
         <v>8.9366042695941736</v>
       </c>
       <c r="F109" s="1">
@@ -7814,10 +7819,10 @@
       <c r="C110" t="s">
         <v>25</v>
       </c>
-      <c r="D110" s="1">
+      <c r="D110" s="2">
         <v>122</v>
       </c>
-      <c r="E110" s="1">
+      <c r="E110" s="2">
         <v>12.713622772045508</v>
       </c>
       <c r="G110" s="1">
@@ -7852,10 +7857,10 @@
       <c r="C111" t="s">
         <v>27</v>
       </c>
-      <c r="D111" s="1">
+      <c r="D111" s="2">
         <v>486.5</v>
       </c>
-      <c r="E111" s="1">
+      <c r="E111" s="2">
         <v>11.692996224769846</v>
       </c>
       <c r="F111" s="1">
@@ -7893,10 +7898,10 @@
       <c r="C112" t="s">
         <v>27</v>
       </c>
-      <c r="D112" s="1">
+      <c r="D112" s="2">
         <v>54.25</v>
       </c>
-      <c r="E112" s="1">
+      <c r="E112" s="2">
         <v>8.2489705233009367</v>
       </c>
       <c r="F112" s="1">
@@ -7934,10 +7939,10 @@
       <c r="C113" t="s">
         <v>21</v>
       </c>
-      <c r="D113" s="1">
+      <c r="D113" s="2">
         <v>63.66</v>
       </c>
-      <c r="E113" s="1">
+      <c r="E113" s="2">
         <v>18.420996384047349</v>
       </c>
       <c r="F113" s="1">
@@ -7975,10 +7980,10 @@
       <c r="C114" t="s">
         <v>33</v>
       </c>
-      <c r="D114" s="1">
+      <c r="D114" s="2">
         <v>117.92</v>
       </c>
-      <c r="E114" s="1">
+      <c r="E114" s="2">
         <v>2.7898586169283313</v>
       </c>
       <c r="F114" s="1">
@@ -8016,10 +8021,10 @@
       <c r="C115" t="s">
         <v>29</v>
       </c>
-      <c r="D115" s="1">
+      <c r="D115" s="2">
         <v>237.7</v>
       </c>
-      <c r="E115" s="1">
+      <c r="E115" s="2">
         <v>14.501888230949845</v>
       </c>
       <c r="F115" s="1">
@@ -8057,10 +8062,10 @@
       <c r="C116" t="s">
         <v>19</v>
       </c>
-      <c r="D116" s="1">
+      <c r="D116" s="2">
         <v>148.54</v>
       </c>
-      <c r="E116" s="1">
+      <c r="E116" s="2">
         <v>17.734122915142294</v>
       </c>
       <c r="G116" s="1">
@@ -8095,10 +8100,10 @@
       <c r="C117" t="s">
         <v>19</v>
       </c>
-      <c r="D117" s="1">
+      <c r="D117" s="2">
         <v>48.145000000000003</v>
       </c>
-      <c r="E117" s="1">
+      <c r="E117" s="2">
         <v>5.2302415042271733</v>
       </c>
       <c r="F117" s="1">
@@ -8136,10 +8141,10 @@
       <c r="C118" t="s">
         <v>21</v>
       </c>
-      <c r="D118" s="1">
+      <c r="D118" s="2">
         <v>80.14</v>
       </c>
-      <c r="E118" s="1">
+      <c r="E118" s="2">
         <v>13.739998222126481</v>
       </c>
       <c r="F118" s="1">
@@ -8177,10 +8182,10 @@
       <c r="C119" t="s">
         <v>21</v>
       </c>
-      <c r="D119" s="1">
+      <c r="D119" s="2">
         <v>32.54</v>
       </c>
-      <c r="E119" s="1">
+      <c r="E119" s="2">
         <v>7.3917211825944795</v>
       </c>
       <c r="F119" s="1">
@@ -8215,10 +8220,10 @@
       <c r="C120" t="s">
         <v>21</v>
       </c>
-      <c r="D120" s="1">
+      <c r="D120" s="2">
         <v>449.71</v>
       </c>
-      <c r="E120" s="1">
+      <c r="E120" s="2">
         <v>8.4629594125922516</v>
       </c>
       <c r="F120" s="1">
@@ -8256,10 +8261,10 @@
       <c r="C121" t="s">
         <v>29</v>
       </c>
-      <c r="D121" s="1">
+      <c r="D121" s="2">
         <v>48.49</v>
       </c>
-      <c r="E121" s="1">
+      <c r="E121" s="2">
         <v>10.555603915634659</v>
       </c>
       <c r="G121" s="1">
@@ -8291,10 +8296,10 @@
       <c r="C122" t="s">
         <v>25</v>
       </c>
-      <c r="D122" s="1">
+      <c r="D122" s="2">
         <v>25.31</v>
       </c>
-      <c r="E122" s="1">
+      <c r="E122" s="2">
         <v>22.070831633038157</v>
       </c>
       <c r="G122" s="1">
@@ -8329,10 +8334,10 @@
       <c r="C123" t="s">
         <v>19</v>
       </c>
-      <c r="D123" s="1">
+      <c r="D123" s="2">
         <v>63.05</v>
       </c>
-      <c r="E123" s="1">
+      <c r="E123" s="2">
         <v>9.5871793090001276</v>
       </c>
       <c r="F123" s="1">
@@ -8370,7 +8375,7 @@
       <c r="C124" t="s">
         <v>12</v>
       </c>
-      <c r="D124" s="1">
+      <c r="D124" s="2">
         <v>62.82</v>
       </c>
       <c r="H124" s="1">
@@ -8396,10 +8401,10 @@
       <c r="C125" t="s">
         <v>29</v>
       </c>
-      <c r="D125" s="1">
+      <c r="D125" s="2">
         <v>89.67</v>
       </c>
-      <c r="E125" s="1">
+      <c r="E125" s="2">
         <v>6.0030567882097374</v>
       </c>
       <c r="G125" s="1">
@@ -8434,10 +8439,10 @@
       <c r="C126" t="s">
         <v>25</v>
       </c>
-      <c r="D126" s="1">
+      <c r="D126" s="2">
         <v>181.35</v>
       </c>
-      <c r="E126" s="1">
+      <c r="E126" s="2">
         <v>8.0451433403145867</v>
       </c>
       <c r="G126" s="1">
@@ -8472,10 +8477,10 @@
       <c r="C127" t="s">
         <v>39</v>
       </c>
-      <c r="D127" s="1">
+      <c r="D127" s="2">
         <v>49.18</v>
       </c>
-      <c r="E127" s="1">
+      <c r="E127" s="2">
         <v>19.027368338504335</v>
       </c>
       <c r="G127" s="1">
@@ -8507,10 +8512,10 @@
       <c r="C128" t="s">
         <v>47</v>
       </c>
-      <c r="D128" s="1">
+      <c r="D128" s="2">
         <v>62.53</v>
       </c>
-      <c r="E128" s="1">
+      <c r="E128" s="2">
         <v>-1.9150661882228914</v>
       </c>
       <c r="F128" s="1">
@@ -8548,10 +8553,10 @@
       <c r="C129" t="s">
         <v>21</v>
       </c>
-      <c r="D129" s="1">
+      <c r="D129" s="2">
         <v>38.979999999999997</v>
       </c>
-      <c r="E129" s="1">
+      <c r="E129" s="2">
         <v>6.7709060728454507</v>
       </c>
       <c r="G129" s="1">
@@ -8586,10 +8591,10 @@
       <c r="C130" t="s">
         <v>12</v>
       </c>
-      <c r="D130" s="1">
+      <c r="D130" s="2">
         <v>74.989999999999995</v>
       </c>
-      <c r="E130" s="1">
+      <c r="E130" s="2">
         <v>-20.354409126843453</v>
       </c>
       <c r="G130" s="1">
@@ -8624,10 +8629,10 @@
       <c r="C131" t="s">
         <v>21</v>
       </c>
-      <c r="D131" s="1">
+      <c r="D131" s="2">
         <v>440.19</v>
       </c>
-      <c r="E131" s="1">
+      <c r="E131" s="2">
         <v>13.154940886229905</v>
       </c>
       <c r="F131" s="1">
@@ -8665,10 +8670,10 @@
       <c r="C132" t="s">
         <v>14</v>
       </c>
-      <c r="D132" s="1">
+      <c r="D132" s="2">
         <v>105.59</v>
       </c>
-      <c r="E132" s="1">
+      <c r="E132" s="2">
         <v>11.200457828749366</v>
       </c>
       <c r="F132" s="1">
@@ -8706,10 +8711,10 @@
       <c r="C133" t="s">
         <v>39</v>
       </c>
-      <c r="D133" s="1">
+      <c r="D133" s="2">
         <v>232.11</v>
       </c>
-      <c r="E133" s="1">
+      <c r="E133" s="2">
         <v>13.324739765955984</v>
       </c>
       <c r="F133" s="1">
@@ -8747,10 +8752,10 @@
       <c r="C134" t="s">
         <v>29</v>
       </c>
-      <c r="D134" s="1">
+      <c r="D134" s="2">
         <v>146.99</v>
       </c>
-      <c r="E134" s="1">
+      <c r="E134" s="2">
         <v>9.962851977903032</v>
       </c>
       <c r="F134" s="1">
@@ -8788,10 +8793,10 @@
       <c r="C135" t="s">
         <v>39</v>
       </c>
-      <c r="D135" s="1">
+      <c r="D135" s="2">
         <v>97.11</v>
       </c>
-      <c r="E135" s="1">
+      <c r="E135" s="2">
         <v>20.386619268600214</v>
       </c>
       <c r="F135" s="1">
@@ -8829,10 +8834,10 @@
       <c r="C136" t="s">
         <v>29</v>
       </c>
-      <c r="D136" s="1">
+      <c r="D136" s="2">
         <v>274.77999999999997</v>
       </c>
-      <c r="E136" s="1">
+      <c r="E136" s="2">
         <v>11.031757393100804</v>
       </c>
       <c r="F136" s="1">
@@ -8870,10 +8875,10 @@
       <c r="C137" t="s">
         <v>17</v>
       </c>
-      <c r="D137" s="1">
+      <c r="D137" s="2">
         <v>99.76</v>
       </c>
-      <c r="E137" s="1">
+      <c r="E137" s="2">
         <v>5.2434595784749405</v>
       </c>
       <c r="G137" s="1">
@@ -8908,10 +8913,10 @@
       <c r="C138" t="s">
         <v>17</v>
       </c>
-      <c r="D138" s="1">
+      <c r="D138" s="2">
         <v>14.65</v>
       </c>
-      <c r="E138" s="1">
+      <c r="E138" s="2">
         <v>0.77197652525096139</v>
       </c>
       <c r="F138" s="1">
@@ -8949,10 +8954,10 @@
       <c r="C139" t="s">
         <v>33</v>
       </c>
-      <c r="D139" s="1">
+      <c r="D139" s="2">
         <v>106.68</v>
       </c>
-      <c r="E139" s="1">
+      <c r="E139" s="2">
         <v>1.8737075175162099</v>
       </c>
       <c r="G139" s="1">
@@ -8987,10 +8992,10 @@
       <c r="C140" t="s">
         <v>39</v>
       </c>
-      <c r="D140" s="1">
+      <c r="D140" s="2">
         <v>148.46</v>
       </c>
-      <c r="E140" s="1">
+      <c r="E140" s="2">
         <v>5.611106299157731</v>
       </c>
       <c r="F140" s="1">
@@ -9028,10 +9033,10 @@
       <c r="C141" t="s">
         <v>21</v>
       </c>
-      <c r="D141" s="1">
+      <c r="D141" s="2">
         <v>144.66999999999999</v>
       </c>
-      <c r="E141" s="1">
+      <c r="E141" s="2">
         <v>4.6510059284979199</v>
       </c>
       <c r="F141" s="1">
@@ -9069,10 +9074,10 @@
       <c r="C142" t="s">
         <v>12</v>
       </c>
-      <c r="D142" s="1">
+      <c r="D142" s="2">
         <v>58.18</v>
       </c>
-      <c r="E142" s="1">
+      <c r="E142" s="2">
         <v>6.7813919732024885</v>
       </c>
       <c r="H142" s="1">
@@ -9098,10 +9103,10 @@
       <c r="C143" t="s">
         <v>39</v>
       </c>
-      <c r="D143" s="1">
+      <c r="D143" s="2">
         <v>347.32</v>
       </c>
-      <c r="E143" s="1">
+      <c r="E143" s="2">
         <v>18.173500963390232</v>
       </c>
       <c r="F143" s="1">
@@ -9139,10 +9144,10 @@
       <c r="C144" t="s">
         <v>39</v>
       </c>
-      <c r="D144" s="1">
+      <c r="D144" s="2">
         <v>149.69</v>
       </c>
-      <c r="E144" s="1">
+      <c r="E144" s="2">
         <v>5.4889715962914032</v>
       </c>
       <c r="F144" s="1">
@@ -9180,10 +9185,10 @@
       <c r="C145" t="s">
         <v>47</v>
       </c>
-      <c r="D145" s="1">
+      <c r="D145" s="2">
         <v>117.25</v>
       </c>
-      <c r="E145" s="1">
+      <c r="E145" s="2">
         <v>5.478035212445076</v>
       </c>
       <c r="F145" s="1">
@@ -9221,10 +9226,10 @@
       <c r="C146" t="s">
         <v>47</v>
       </c>
-      <c r="D146" s="1">
+      <c r="D146" s="2">
         <v>104.4</v>
       </c>
-      <c r="E146" s="1">
+      <c r="E146" s="2">
         <v>-0.16906161753670323</v>
       </c>
       <c r="F146" s="1">
@@ -9262,10 +9267,10 @@
       <c r="C147" t="s">
         <v>29</v>
       </c>
-      <c r="D147" s="1">
+      <c r="D147" s="2">
         <v>79.33</v>
       </c>
-      <c r="E147" s="1">
+      <c r="E147" s="2">
         <v>15.766475869189467</v>
       </c>
       <c r="G147" s="1">
@@ -9300,10 +9305,10 @@
       <c r="C148" t="s">
         <v>25</v>
       </c>
-      <c r="D148" s="1">
+      <c r="D148" s="2">
         <v>64.45</v>
       </c>
-      <c r="E148" s="1">
+      <c r="E148" s="2">
         <v>6.6876648131554139</v>
       </c>
       <c r="G148" s="1">
@@ -9338,10 +9343,10 @@
       <c r="C149" t="s">
         <v>19</v>
       </c>
-      <c r="D149" s="1">
+      <c r="D149" s="2">
         <v>29.17</v>
       </c>
-      <c r="E149" s="1">
+      <c r="E149" s="2">
         <v>3.7242766674676187</v>
       </c>
       <c r="G149" s="1">
@@ -9373,10 +9378,10 @@
       <c r="C150" t="s">
         <v>29</v>
       </c>
-      <c r="D150" s="1">
+      <c r="D150" s="2">
         <v>109.57</v>
       </c>
-      <c r="E150" s="1">
+      <c r="E150" s="2">
         <v>29.855274309125534</v>
       </c>
       <c r="G150" s="1">
@@ -9411,10 +9416,10 @@
       <c r="C151" t="s">
         <v>17</v>
       </c>
-      <c r="D151" s="1">
+      <c r="D151" s="2">
         <v>123.77</v>
       </c>
-      <c r="E151" s="1">
+      <c r="E151" s="2">
         <v>9.0119132245787483</v>
       </c>
       <c r="G151" s="1">
@@ -9449,10 +9454,10 @@
       <c r="C152" t="s">
         <v>39</v>
       </c>
-      <c r="D152" s="1">
+      <c r="D152" s="2">
         <v>47.13</v>
       </c>
-      <c r="E152" s="1">
+      <c r="E152" s="2">
         <v>14.259441855364186</v>
       </c>
       <c r="G152" s="1">
@@ -9487,10 +9492,10 @@
       <c r="C153" t="s">
         <v>12</v>
       </c>
-      <c r="D153" s="1">
+      <c r="D153" s="2">
         <v>153.19999999999999</v>
       </c>
-      <c r="E153" s="1">
+      <c r="E153" s="2">
         <v>-0.21986408361247545</v>
       </c>
       <c r="F153" s="1">
@@ -9528,10 +9533,10 @@
       <c r="C154" t="s">
         <v>47</v>
       </c>
-      <c r="D154" s="1">
+      <c r="D154" s="2">
         <v>95.39</v>
       </c>
-      <c r="E154" s="1">
+      <c r="E154" s="2">
         <v>-0.47349651107428947</v>
       </c>
       <c r="F154" s="1">
@@ -9569,10 +9574,10 @@
       <c r="C155" t="s">
         <v>21</v>
       </c>
-      <c r="D155" s="1">
+      <c r="D155" s="2">
         <v>219.09</v>
       </c>
-      <c r="E155" s="1">
+      <c r="E155" s="2">
         <v>8.9100166283471616</v>
       </c>
       <c r="F155" s="1">
@@ -9610,10 +9615,10 @@
       <c r="C156" t="s">
         <v>47</v>
       </c>
-      <c r="D156" s="1">
+      <c r="D156" s="2">
         <v>68.83</v>
       </c>
-      <c r="E156" s="1">
+      <c r="E156" s="2">
         <v>1.5010116399751583</v>
       </c>
       <c r="G156" s="1">
@@ -9648,10 +9653,10 @@
       <c r="C157" t="s">
         <v>27</v>
       </c>
-      <c r="D157" s="1">
+      <c r="D157" s="2">
         <v>267.25</v>
       </c>
-      <c r="E157" s="1">
+      <c r="E157" s="2">
         <v>8.8728334558154653</v>
       </c>
       <c r="F157" s="1">
@@ -9689,10 +9694,10 @@
       <c r="C158" t="s">
         <v>29</v>
       </c>
-      <c r="D158" s="1">
+      <c r="D158" s="2">
         <v>483.59</v>
       </c>
-      <c r="E158" s="1">
+      <c r="E158" s="2">
         <v>11.991428500188439</v>
       </c>
       <c r="F158" s="1">
@@ -9730,10 +9735,10 @@
       <c r="C159" t="s">
         <v>12</v>
       </c>
-      <c r="D159" s="1">
+      <c r="D159" s="2">
         <v>90</v>
       </c>
-      <c r="E159" s="1">
+      <c r="E159" s="2">
         <v>4.8942258006333006</v>
       </c>
       <c r="F159" s="1">
@@ -9771,10 +9776,10 @@
       <c r="C160" t="s">
         <v>21</v>
       </c>
-      <c r="D160" s="1">
+      <c r="D160" s="2">
         <v>91.03</v>
       </c>
-      <c r="E160" s="1">
+      <c r="E160" s="2">
         <v>6.8489373831266187</v>
       </c>
       <c r="F160" s="1">
@@ -9812,10 +9817,10 @@
       <c r="C161" t="s">
         <v>19</v>
       </c>
-      <c r="D161" s="1">
+      <c r="D161" s="2">
         <v>254.74</v>
       </c>
-      <c r="E161" s="1">
+      <c r="E161" s="2">
         <v>10.059623987223798</v>
       </c>
       <c r="G161" s="1">
@@ -9850,10 +9855,10 @@
       <c r="C162" t="s">
         <v>25</v>
       </c>
-      <c r="D162" s="1">
+      <c r="D162" s="2">
         <v>131.49</v>
       </c>
-      <c r="E162" s="1">
+      <c r="E162" s="2">
         <v>19.367233349568046</v>
       </c>
       <c r="G162" s="1">
@@ -9888,10 +9893,10 @@
       <c r="C163" t="s">
         <v>19</v>
       </c>
-      <c r="D163" s="1">
+      <c r="D163" s="2">
         <v>357.63</v>
       </c>
-      <c r="E163" s="1">
+      <c r="E163" s="2">
         <v>23.593531184071747</v>
       </c>
       <c r="F163" s="1">
@@ -9929,10 +9934,10 @@
       <c r="C164" t="s">
         <v>33</v>
       </c>
-      <c r="D164" s="1">
+      <c r="D164" s="2">
         <v>715.85</v>
       </c>
-      <c r="E164" s="1">
+      <c r="E164" s="2">
         <v>7.4886024558739939</v>
       </c>
       <c r="F164" s="1">
@@ -9970,10 +9975,10 @@
       <c r="C165" t="s">
         <v>33</v>
       </c>
-      <c r="D165" s="1">
+      <c r="D165" s="2">
         <v>61.56</v>
       </c>
-      <c r="E165" s="1">
+      <c r="E165" s="2">
         <v>-0.16552045083196854</v>
       </c>
       <c r="F165" s="1">
@@ -10011,10 +10016,10 @@
       <c r="C166" t="s">
         <v>25</v>
       </c>
-      <c r="D166" s="1">
+      <c r="D166" s="2">
         <v>34.659999999999997</v>
       </c>
-      <c r="E166" s="1">
+      <c r="E166" s="2">
         <v>4.7963264134266881</v>
       </c>
       <c r="G166" s="1">
@@ -10049,10 +10054,10 @@
       <c r="C167" t="s">
         <v>47</v>
       </c>
-      <c r="D167" s="1">
+      <c r="D167" s="2">
         <v>84.04</v>
       </c>
-      <c r="E167" s="1">
+      <c r="E167" s="2">
         <v>3.5806794270823783</v>
       </c>
       <c r="F167" s="1">
@@ -10090,10 +10095,10 @@
       <c r="C168" t="s">
         <v>33</v>
       </c>
-      <c r="D168" s="1">
+      <c r="D168" s="2">
         <v>220.08</v>
       </c>
-      <c r="E168" s="1">
+      <c r="E168" s="2">
         <v>2.300604901927672</v>
       </c>
       <c r="F168" s="1">
@@ -10131,10 +10136,10 @@
       <c r="C169" t="s">
         <v>21</v>
       </c>
-      <c r="D169" s="1">
+      <c r="D169" s="2">
         <v>162.70500000000001</v>
       </c>
-      <c r="E169" s="1">
+      <c r="E169" s="2">
         <v>2.5529167493942628</v>
       </c>
       <c r="F169" s="1">
@@ -10172,10 +10177,10 @@
       <c r="C170" t="s">
         <v>47</v>
       </c>
-      <c r="D170" s="1">
+      <c r="D170" s="2">
         <v>106.96</v>
       </c>
-      <c r="E170" s="1">
+      <c r="E170" s="2">
         <v>-0.73294475838366901</v>
       </c>
       <c r="F170" s="1">
@@ -10213,10 +10218,10 @@
       <c r="C171" t="s">
         <v>39</v>
       </c>
-      <c r="D171" s="1">
+      <c r="D171" s="2">
         <v>134.9</v>
       </c>
-      <c r="E171" s="1">
+      <c r="E171" s="2">
         <v>41.618544460423699</v>
       </c>
       <c r="G171" s="1">
@@ -10248,7 +10253,7 @@
       <c r="C172" t="s">
         <v>47</v>
       </c>
-      <c r="D172" s="1">
+      <c r="D172" s="2">
         <v>62.87</v>
       </c>
       <c r="H172" s="1">
@@ -10268,10 +10273,10 @@
       <c r="C173" t="s">
         <v>29</v>
       </c>
-      <c r="D173" s="1">
+      <c r="D173" s="2">
         <v>78.75</v>
       </c>
-      <c r="E173" s="1">
+      <c r="E173" s="2">
         <v>12.599313587414663</v>
       </c>
       <c r="F173" s="1">
@@ -10309,10 +10314,10 @@
       <c r="C174" t="s">
         <v>47</v>
       </c>
-      <c r="D174" s="1">
+      <c r="D174" s="2">
         <v>43.15</v>
       </c>
-      <c r="E174" s="1">
+      <c r="E174" s="2">
         <v>1.8699267391270924</v>
       </c>
       <c r="F174" s="1">
@@ -10344,10 +10349,10 @@
       <c r="C175" t="s">
         <v>21</v>
       </c>
-      <c r="D175" s="1">
+      <c r="D175" s="2">
         <v>108.24</v>
       </c>
-      <c r="E175" s="1">
+      <c r="E175" s="2">
         <v>23.766067261199343</v>
       </c>
       <c r="F175" s="1">
@@ -10385,10 +10390,10 @@
       <c r="C176" t="s">
         <v>39</v>
       </c>
-      <c r="D176" s="1">
+      <c r="D176" s="2">
         <v>108.65</v>
       </c>
-      <c r="E176" s="1">
+      <c r="E176" s="2">
         <v>-0.32037766535452095</v>
       </c>
       <c r="G176" s="1">
@@ -10423,10 +10428,10 @@
       <c r="C177" t="s">
         <v>33</v>
       </c>
-      <c r="D177" s="1">
+      <c r="D177" s="2">
         <v>153</v>
       </c>
-      <c r="E177" s="1">
+      <c r="E177" s="2">
         <v>8.3235439111096774</v>
       </c>
       <c r="F177" s="1">
@@ -10464,10 +10469,10 @@
       <c r="C178" t="s">
         <v>39</v>
       </c>
-      <c r="D178" s="1">
+      <c r="D178" s="2">
         <v>12.8</v>
       </c>
-      <c r="E178" s="1">
+      <c r="E178" s="2">
         <v>-2.2136337182104282</v>
       </c>
       <c r="G178" s="1">
@@ -10502,10 +10507,10 @@
       <c r="C179" t="s">
         <v>25</v>
       </c>
-      <c r="D179" s="1">
+      <c r="D179" s="2">
         <v>147.375</v>
       </c>
-      <c r="E179" s="1">
+      <c r="E179" s="2">
         <v>34.968632748133956</v>
       </c>
       <c r="G179" s="1">
@@ -10540,10 +10545,10 @@
       <c r="C180" t="s">
         <v>21</v>
       </c>
-      <c r="D180" s="1">
+      <c r="D180" s="2">
         <v>48.23</v>
       </c>
-      <c r="E180" s="1">
+      <c r="E180" s="2">
         <v>8.807081611925959</v>
       </c>
       <c r="F180" s="1">
@@ -10581,10 +10586,10 @@
       <c r="C181" t="s">
         <v>12</v>
       </c>
-      <c r="D181" s="1">
+      <c r="D181" s="2">
         <v>45.3</v>
       </c>
-      <c r="E181" s="1">
+      <c r="E181" s="2">
         <v>6.7299461396228555</v>
       </c>
       <c r="G181" s="1">
@@ -10619,10 +10624,10 @@
       <c r="C182" t="s">
         <v>14</v>
       </c>
-      <c r="D182" s="1">
+      <c r="D182" s="2">
         <v>429.52</v>
       </c>
-      <c r="E182" s="1">
+      <c r="E182" s="2">
         <v>9.4818487059116219</v>
       </c>
       <c r="F182" s="1">
@@ -10660,10 +10665,10 @@
       <c r="C183" t="s">
         <v>21</v>
       </c>
-      <c r="D183" s="1">
+      <c r="D183" s="2">
         <v>188.59</v>
       </c>
-      <c r="E183" s="1">
+      <c r="E183" s="2">
         <v>9.4127213689362286</v>
       </c>
       <c r="F183" s="1">
@@ -10701,10 +10706,10 @@
       <c r="C184" t="s">
         <v>47</v>
       </c>
-      <c r="D184" s="1">
+      <c r="D184" s="2">
         <v>42.954999999999998</v>
       </c>
-      <c r="E184" s="1">
+      <c r="E184" s="2">
         <v>-4.0509888273220547</v>
       </c>
       <c r="G184" s="1">
@@ -10739,10 +10744,10 @@
       <c r="C185" t="s">
         <v>19</v>
       </c>
-      <c r="D185" s="1">
+      <c r="D185" s="2">
         <v>148.13999999999999</v>
       </c>
-      <c r="E185" s="1">
+      <c r="E185" s="2">
         <v>6.5497630588123856</v>
       </c>
       <c r="F185" s="1">
@@ -10780,10 +10785,10 @@
       <c r="C186" t="s">
         <v>19</v>
       </c>
-      <c r="D186" s="1">
+      <c r="D186" s="2">
         <v>71.680000000000007</v>
       </c>
-      <c r="E186" s="1">
+      <c r="E186" s="2">
         <v>-3.620533430694628</v>
       </c>
       <c r="F186" s="1">
@@ -10821,10 +10826,10 @@
       <c r="C187" t="s">
         <v>19</v>
       </c>
-      <c r="D187" s="1">
+      <c r="D187" s="2">
         <v>104.72</v>
       </c>
-      <c r="E187" s="1">
+      <c r="E187" s="2">
         <v>14.406168694678033</v>
       </c>
       <c r="F187" s="1">
@@ -10862,10 +10867,10 @@
       <c r="C188" t="s">
         <v>14</v>
       </c>
-      <c r="D188" s="1">
+      <c r="D188" s="2">
         <v>33.35</v>
       </c>
-      <c r="E188" s="1">
+      <c r="E188" s="2">
         <v>5.4545565439037658</v>
       </c>
       <c r="F188" s="1">
@@ -10903,10 +10908,10 @@
       <c r="C189" t="s">
         <v>19</v>
       </c>
-      <c r="D189" s="1">
+      <c r="D189" s="2">
         <v>195.98</v>
       </c>
-      <c r="E189" s="1">
+      <c r="E189" s="2">
         <v>11.789597415095511</v>
       </c>
       <c r="F189" s="1">
@@ -10944,10 +10949,10 @@
       <c r="C190" t="s">
         <v>12</v>
       </c>
-      <c r="D190" s="1">
+      <c r="D190" s="2">
         <v>129.63</v>
       </c>
-      <c r="E190" s="1">
+      <c r="E190" s="2">
         <v>15.686633138165407</v>
       </c>
       <c r="F190" s="1">
@@ -10985,7 +10990,7 @@
       <c r="C191" t="s">
         <v>17</v>
       </c>
-      <c r="D191" s="1">
+      <c r="D191" s="2">
         <v>29.9</v>
       </c>
       <c r="F191" s="1">
@@ -11017,7 +11022,7 @@
       <c r="C192" t="s">
         <v>17</v>
       </c>
-      <c r="D192" s="1">
+      <c r="D192" s="2">
         <v>31.83</v>
       </c>
       <c r="F192" s="1">
@@ -11049,10 +11054,10 @@
       <c r="C193" t="s">
         <v>14</v>
       </c>
-      <c r="D193" s="1">
+      <c r="D193" s="2">
         <v>130.45500000000001</v>
       </c>
-      <c r="E193" s="1">
+      <c r="E193" s="2">
         <v>15.092619141487052</v>
       </c>
       <c r="F193" s="1">
@@ -11090,10 +11095,10 @@
       <c r="C194" t="s">
         <v>33</v>
       </c>
-      <c r="D194" s="1">
+      <c r="D194" s="2">
         <v>111.49</v>
       </c>
-      <c r="E194" s="1">
+      <c r="E194" s="2">
         <v>1.6929199630901115</v>
       </c>
       <c r="G194" s="1">
@@ -11128,10 +11133,10 @@
       <c r="C195" t="s">
         <v>19</v>
       </c>
-      <c r="D195" s="1">
+      <c r="D195" s="2">
         <v>180.63499999999999</v>
       </c>
-      <c r="E195" s="1">
+      <c r="E195" s="2">
         <v>-0.51931639980286048</v>
       </c>
       <c r="G195" s="1">
@@ -11166,10 +11171,10 @@
       <c r="C196" t="s">
         <v>19</v>
       </c>
-      <c r="D196" s="1">
+      <c r="D196" s="2">
         <v>50.46</v>
       </c>
-      <c r="E196" s="1">
+      <c r="E196" s="2">
         <v>22.616515658187318</v>
       </c>
       <c r="F196" s="1">
@@ -11207,10 +11212,10 @@
       <c r="C197" t="s">
         <v>21</v>
       </c>
-      <c r="D197" s="1">
+      <c r="D197" s="2">
         <v>67.239999999999995</v>
       </c>
-      <c r="E197" s="1">
+      <c r="E197" s="2">
         <v>-0.65249011320759331</v>
       </c>
       <c r="F197" s="1">
@@ -11245,10 +11250,10 @@
       <c r="C198" t="s">
         <v>21</v>
       </c>
-      <c r="D198" s="1">
+      <c r="D198" s="2">
         <v>241.11</v>
       </c>
-      <c r="E198" s="1">
+      <c r="E198" s="2">
         <v>6.4656602256132123</v>
       </c>
       <c r="F198" s="1">
@@ -11286,10 +11291,10 @@
       <c r="C199" t="s">
         <v>21</v>
       </c>
-      <c r="D199" s="1">
+      <c r="D199" s="2">
         <v>80.86</v>
       </c>
-      <c r="E199" s="1">
+      <c r="E199" s="2">
         <v>-8.6270431662653912</v>
       </c>
       <c r="G199" s="1">
@@ -11324,7 +11329,7 @@
       <c r="C200" t="s">
         <v>29</v>
       </c>
-      <c r="D200" s="1">
+      <c r="D200" s="2">
         <v>62.56</v>
       </c>
       <c r="H200" s="1">
@@ -11344,10 +11349,10 @@
       <c r="C201" t="s">
         <v>19</v>
       </c>
-      <c r="D201" s="1">
+      <c r="D201" s="2">
         <v>22.52</v>
       </c>
-      <c r="E201" s="1">
+      <c r="E201" s="2">
         <v>-5.8443684576878425</v>
       </c>
       <c r="G201" s="1">
@@ -11382,10 +11387,10 @@
       <c r="C202" t="s">
         <v>29</v>
       </c>
-      <c r="D202" s="1">
+      <c r="D202" s="2">
         <v>84.814999999999998</v>
       </c>
-      <c r="E202" s="1">
+      <c r="E202" s="2">
         <v>-0.85735898791062803</v>
       </c>
       <c r="G202" s="1">
@@ -11420,10 +11425,10 @@
       <c r="C203" t="s">
         <v>27</v>
       </c>
-      <c r="D203" s="1">
+      <c r="D203" s="2">
         <v>80.944999999999993</v>
       </c>
-      <c r="E203" s="1">
+      <c r="E203" s="2">
         <v>3.2799133450390983</v>
       </c>
       <c r="F203" s="1">
@@ -11461,10 +11466,10 @@
       <c r="C204" t="s">
         <v>14</v>
       </c>
-      <c r="D204" s="1">
+      <c r="D204" s="2">
         <v>120.39</v>
       </c>
-      <c r="E204" s="1">
+      <c r="E204" s="2">
         <v>8.8453424496532929</v>
       </c>
       <c r="F204" s="1">
@@ -11502,10 +11507,10 @@
       <c r="C205" t="s">
         <v>19</v>
       </c>
-      <c r="D205" s="1">
+      <c r="D205" s="2">
         <v>36.32</v>
       </c>
-      <c r="E205" s="1">
+      <c r="E205" s="2">
         <v>13.061232778467669</v>
       </c>
       <c r="F205" s="1">
@@ -11543,10 +11548,10 @@
       <c r="C206" t="s">
         <v>39</v>
       </c>
-      <c r="D206" s="1">
+      <c r="D206" s="2">
         <v>37.22</v>
       </c>
-      <c r="E206" s="1">
+      <c r="E206" s="2">
         <v>-2.0082097487250206</v>
       </c>
       <c r="G206" s="1">
@@ -11581,10 +11586,10 @@
       <c r="C207" t="s">
         <v>21</v>
       </c>
-      <c r="D207" s="1">
+      <c r="D207" s="2">
         <v>115.09</v>
       </c>
-      <c r="E207" s="1">
+      <c r="E207" s="2">
         <v>21.784156409058397</v>
       </c>
       <c r="F207" s="1">
@@ -11622,10 +11627,10 @@
       <c r="C208" t="s">
         <v>17</v>
       </c>
-      <c r="D208" s="1">
+      <c r="D208" s="2">
         <v>92.9</v>
       </c>
-      <c r="E208" s="1">
+      <c r="E208" s="2">
         <v>24.227047211816831</v>
       </c>
       <c r="F208" s="1">
@@ -11660,10 +11665,10 @@
       <c r="C209" t="s">
         <v>17</v>
       </c>
-      <c r="D209" s="1">
+      <c r="D209" s="2">
         <v>92.06</v>
       </c>
-      <c r="E209" s="1">
+      <c r="E209" s="2">
         <v>24.227047211816831</v>
       </c>
       <c r="F209" s="1">
@@ -11701,10 +11706,10 @@
       <c r="C210" t="s">
         <v>39</v>
       </c>
-      <c r="D210" s="1">
+      <c r="D210" s="2">
         <v>168.84</v>
       </c>
-      <c r="E210" s="1">
+      <c r="E210" s="2">
         <v>5.0338372288156519</v>
       </c>
       <c r="F210" s="1">
@@ -11742,10 +11747,10 @@
       <c r="C211" t="s">
         <v>19</v>
       </c>
-      <c r="D211" s="1">
+      <c r="D211" s="2">
         <v>112.68</v>
       </c>
-      <c r="E211" s="1">
+      <c r="E211" s="2">
         <v>5.8601158908826001</v>
       </c>
       <c r="F211" s="1">
@@ -11783,10 +11788,10 @@
       <c r="C212" t="s">
         <v>39</v>
       </c>
-      <c r="D212" s="1">
+      <c r="D212" s="2">
         <v>98.32</v>
       </c>
-      <c r="E212" s="1">
+      <c r="E212" s="2">
         <v>9.9566383512193379</v>
       </c>
       <c r="F212" s="1">
@@ -11818,10 +11823,10 @@
       <c r="C213" t="s">
         <v>14</v>
       </c>
-      <c r="D213" s="1">
+      <c r="D213" s="2">
         <v>349.15</v>
       </c>
-      <c r="E213" s="1">
+      <c r="E213" s="2">
         <v>12.802068237950248</v>
       </c>
       <c r="G213" s="1">
@@ -11856,10 +11861,10 @@
       <c r="C214" t="s">
         <v>21</v>
       </c>
-      <c r="D214" s="1">
+      <c r="D214" s="2">
         <v>573.02</v>
       </c>
-      <c r="E214" s="1">
+      <c r="E214" s="2">
         <v>8.385261641680497</v>
       </c>
       <c r="F214" s="1">
@@ -11897,10 +11902,10 @@
       <c r="C215" t="s">
         <v>25</v>
       </c>
-      <c r="D215" s="1">
+      <c r="D215" s="2">
         <v>43.3</v>
       </c>
-      <c r="E215" s="1">
+      <c r="E215" s="2">
         <v>-1.4562292144625233</v>
       </c>
       <c r="G215" s="1">
@@ -11935,10 +11940,10 @@
       <c r="C216" t="s">
         <v>39</v>
       </c>
-      <c r="D216" s="1">
+      <c r="D216" s="2">
         <v>65.25</v>
       </c>
-      <c r="E216" s="1">
+      <c r="E216" s="2">
         <v>3.0347222666206042</v>
       </c>
       <c r="F216" s="1">
@@ -11976,10 +11981,10 @@
       <c r="C217" t="s">
         <v>14</v>
       </c>
-      <c r="D217" s="1">
+      <c r="D217" s="2">
         <v>14.34</v>
       </c>
-      <c r="E217" s="1">
+      <c r="E217" s="2">
         <v>2.8656479014307346</v>
       </c>
       <c r="F217" s="1">
@@ -12017,10 +12022,10 @@
       <c r="C218" t="s">
         <v>29</v>
       </c>
-      <c r="D218" s="1">
+      <c r="D218" s="2">
         <v>258.68</v>
       </c>
-      <c r="E218" s="1">
+      <c r="E218" s="2">
         <v>10.933918836634081</v>
       </c>
       <c r="F218" s="1">
@@ -12058,10 +12063,10 @@
       <c r="C219" t="s">
         <v>39</v>
       </c>
-      <c r="D219" s="1">
+      <c r="D219" s="2">
         <v>331.17</v>
       </c>
-      <c r="E219" s="1">
+      <c r="E219" s="2">
         <v>13.254188058250559</v>
       </c>
       <c r="F219" s="1">
@@ -12099,10 +12104,10 @@
       <c r="C220" t="s">
         <v>25</v>
       </c>
-      <c r="D220" s="1">
+      <c r="D220" s="2">
         <v>154.5</v>
       </c>
-      <c r="E220" s="1">
+      <c r="E220" s="2">
         <v>9.6086076193122594</v>
       </c>
       <c r="G220" s="1">
@@ -12137,10 +12142,10 @@
       <c r="C221" t="s">
         <v>14</v>
       </c>
-      <c r="D221" s="1">
+      <c r="D221" s="2">
         <v>75.62</v>
       </c>
-      <c r="E221" s="1">
+      <c r="E221" s="2">
         <v>8.8254471811519473</v>
       </c>
       <c r="F221" s="1">
@@ -12178,10 +12183,10 @@
       <c r="C222" t="s">
         <v>21</v>
       </c>
-      <c r="D222" s="1">
+      <c r="D222" s="2">
         <v>221.61</v>
       </c>
-      <c r="E222" s="1">
+      <c r="E222" s="2">
         <v>9.3686195699466559</v>
       </c>
       <c r="F222" s="1">
@@ -12219,10 +12224,10 @@
       <c r="C223" t="s">
         <v>39</v>
       </c>
-      <c r="D223" s="1">
+      <c r="D223" s="2">
         <v>138.22</v>
       </c>
-      <c r="E223" s="1">
+      <c r="E223" s="2">
         <v>-19.126294572266332</v>
       </c>
       <c r="G223" s="1">
@@ -12254,10 +12259,10 @@
       <c r="C224" t="s">
         <v>29</v>
       </c>
-      <c r="D224" s="1">
+      <c r="D224" s="2">
         <v>79.34</v>
       </c>
-      <c r="E224" s="1">
+      <c r="E224" s="2">
         <v>12.078703845335138</v>
       </c>
       <c r="G224" s="1">
@@ -12292,10 +12297,10 @@
       <c r="C225" t="s">
         <v>21</v>
       </c>
-      <c r="D225" s="1">
+      <c r="D225" s="2">
         <v>210.39</v>
       </c>
-      <c r="E225" s="1">
+      <c r="E225" s="2">
         <v>-0.68783221864513466</v>
       </c>
       <c r="F225" s="1">
@@ -12324,10 +12329,10 @@
       <c r="C226" t="s">
         <v>19</v>
       </c>
-      <c r="D226" s="1">
+      <c r="D226" s="2">
         <v>16.305</v>
       </c>
-      <c r="E226" s="1">
+      <c r="E226" s="2">
         <v>4.5108784407660085</v>
       </c>
       <c r="G226" s="1">
@@ -12359,10 +12364,10 @@
       <c r="C227" t="s">
         <v>19</v>
       </c>
-      <c r="D227" s="1">
+      <c r="D227" s="2">
         <v>27.78</v>
       </c>
-      <c r="E227" s="1">
+      <c r="E227" s="2">
         <v>14.494737996653706</v>
       </c>
       <c r="G227" s="1">
@@ -12397,10 +12402,10 @@
       <c r="C228" t="s">
         <v>27</v>
       </c>
-      <c r="D228" s="1">
+      <c r="D228" s="2">
         <v>45.97</v>
       </c>
-      <c r="E228" s="1">
+      <c r="E228" s="2">
         <v>5.6732755916093058</v>
       </c>
       <c r="F228" s="1">
@@ -12438,10 +12443,10 @@
       <c r="C229" t="s">
         <v>29</v>
       </c>
-      <c r="D229" s="1">
+      <c r="D229" s="2">
         <v>80.83</v>
       </c>
-      <c r="E229" s="1">
+      <c r="E229" s="2">
         <v>19.852349864366793</v>
       </c>
       <c r="F229" s="1">
@@ -12479,10 +12484,10 @@
       <c r="C230" t="s">
         <v>33</v>
       </c>
-      <c r="D230" s="1">
+      <c r="D230" s="2">
         <v>17.309999999999999</v>
       </c>
-      <c r="E230" s="1">
+      <c r="E230" s="2">
         <v>-11.053471539145033</v>
       </c>
       <c r="G230" s="1">
@@ -12508,10 +12513,10 @@
       <c r="C231" t="s">
         <v>27</v>
       </c>
-      <c r="D231" s="1">
+      <c r="D231" s="2">
         <v>224.86</v>
       </c>
-      <c r="E231" s="1">
+      <c r="E231" s="2">
         <v>4.5469834736461934</v>
       </c>
       <c r="F231" s="1">
@@ -12549,10 +12554,10 @@
       <c r="C232" t="s">
         <v>29</v>
       </c>
-      <c r="D232" s="1">
+      <c r="D232" s="2">
         <v>491.27</v>
       </c>
-      <c r="E232" s="1">
+      <c r="E232" s="2">
         <v>12.135803218095308</v>
       </c>
       <c r="F232" s="1">
@@ -12590,10 +12595,10 @@
       <c r="C233" t="s">
         <v>21</v>
       </c>
-      <c r="D233" s="1">
+      <c r="D233" s="2">
         <v>40.78</v>
       </c>
-      <c r="E233" s="1">
+      <c r="E233" s="2">
         <v>-16.378184954495101</v>
       </c>
       <c r="F233" s="1">
@@ -12628,10 +12633,10 @@
       <c r="C234" t="s">
         <v>19</v>
       </c>
-      <c r="D234" s="1">
+      <c r="D234" s="2">
         <v>144.44</v>
       </c>
-      <c r="E234" s="1">
+      <c r="E234" s="2">
         <v>-5.2112973665674911</v>
       </c>
       <c r="G234" s="1">
@@ -12666,10 +12671,10 @@
       <c r="C235" t="s">
         <v>14</v>
       </c>
-      <c r="D235" s="1">
+      <c r="D235" s="2">
         <v>108.09</v>
       </c>
-      <c r="E235" s="1">
+      <c r="E235" s="2">
         <v>10.890646183910512</v>
       </c>
       <c r="G235" s="1">
@@ -12704,10 +12709,10 @@
       <c r="C236" t="s">
         <v>29</v>
       </c>
-      <c r="D236" s="1">
+      <c r="D236" s="2">
         <v>486.98</v>
       </c>
-      <c r="E236" s="1">
+      <c r="E236" s="2">
         <v>13.785547405990473</v>
       </c>
       <c r="F236" s="1">
@@ -12745,10 +12750,10 @@
       <c r="C237" t="s">
         <v>21</v>
       </c>
-      <c r="D237" s="1">
+      <c r="D237" s="2">
         <v>238.8</v>
       </c>
-      <c r="E237" s="1">
+      <c r="E237" s="2">
         <v>5.4691965094149531</v>
       </c>
       <c r="F237" s="1">
@@ -12786,10 +12791,10 @@
       <c r="C238" t="s">
         <v>12</v>
       </c>
-      <c r="D238" s="1">
+      <c r="D238" s="2">
         <v>117</v>
       </c>
-      <c r="E238" s="1">
+      <c r="E238" s="2">
         <v>4.1584197836352921</v>
       </c>
       <c r="G238" s="1">
@@ -12824,10 +12829,10 @@
       <c r="C239" t="s">
         <v>29</v>
       </c>
-      <c r="D239" s="1">
+      <c r="D239" s="2">
         <v>207.39</v>
       </c>
-      <c r="E239" s="1">
+      <c r="E239" s="2">
         <v>13.084942041183623</v>
       </c>
       <c r="G239" s="1">
@@ -12862,10 +12867,10 @@
       <c r="C240" t="s">
         <v>29</v>
       </c>
-      <c r="D240" s="1">
+      <c r="D240" s="2">
         <v>81.06</v>
       </c>
-      <c r="E240" s="1">
+      <c r="E240" s="2">
         <v>18.145257879353572</v>
       </c>
       <c r="G240" s="1">
@@ -12900,10 +12905,10 @@
       <c r="C241" t="s">
         <v>19</v>
       </c>
-      <c r="D241" s="1">
+      <c r="D241" s="2">
         <v>29.715</v>
       </c>
-      <c r="E241" s="1">
+      <c r="E241" s="2">
         <v>9.1696561090912176</v>
       </c>
       <c r="F241" s="1">
@@ -12941,10 +12946,10 @@
       <c r="C242" t="s">
         <v>19</v>
       </c>
-      <c r="D242" s="1">
+      <c r="D242" s="2">
         <v>392.11</v>
       </c>
-      <c r="E242" s="1">
+      <c r="E242" s="2">
         <v>17.587071304467727</v>
       </c>
       <c r="G242" s="1">
@@ -12979,7 +12984,7 @@
       <c r="C243" t="s">
         <v>33</v>
       </c>
-      <c r="D243" s="1">
+      <c r="D243" s="2">
         <v>31.8</v>
       </c>
       <c r="G243" s="1">
@@ -13011,10 +13016,10 @@
       <c r="C244" t="s">
         <v>12</v>
       </c>
-      <c r="D244" s="1">
+      <c r="D244" s="2">
         <v>37.64</v>
       </c>
-      <c r="E244" s="1">
+      <c r="E244" s="2">
         <v>0.79838568184420478</v>
       </c>
       <c r="F244" s="1">
@@ -13052,10 +13057,10 @@
       <c r="C245" t="s">
         <v>17</v>
       </c>
-      <c r="D245" s="1">
+      <c r="D245" s="2">
         <v>35.64</v>
       </c>
-      <c r="E245" s="1">
+      <c r="E245" s="2">
         <v>5.7318676625254916</v>
       </c>
       <c r="F245" s="1">
@@ -13093,10 +13098,10 @@
       <c r="C246" t="s">
         <v>29</v>
       </c>
-      <c r="D246" s="1">
+      <c r="D246" s="2">
         <v>222.51</v>
       </c>
-      <c r="E246" s="1">
+      <c r="E246" s="2">
         <v>9.6615317992025496</v>
       </c>
       <c r="F246" s="1">
@@ -13131,10 +13136,10 @@
       <c r="C247" t="s">
         <v>21</v>
       </c>
-      <c r="D247" s="1">
+      <c r="D247" s="2">
         <v>57.04</v>
       </c>
-      <c r="E247" s="1">
+      <c r="E247" s="2">
         <v>9.306521866559736</v>
       </c>
       <c r="F247" s="1">
@@ -13169,10 +13174,10 @@
       <c r="C248" t="s">
         <v>33</v>
       </c>
-      <c r="D248" s="1">
+      <c r="D248" s="2">
         <v>52.61</v>
       </c>
-      <c r="E248" s="1">
+      <c r="E248" s="2">
         <v>1.6984994032860801</v>
       </c>
       <c r="F248" s="1">
@@ -13210,10 +13215,10 @@
       <c r="C249" t="s">
         <v>29</v>
       </c>
-      <c r="D249" s="1">
+      <c r="D249" s="2">
         <v>259.97000000000003</v>
       </c>
-      <c r="E249" s="1">
+      <c r="E249" s="2">
         <v>15.368811497793033</v>
       </c>
       <c r="F249" s="1">
@@ -13251,10 +13256,10 @@
       <c r="C250" t="s">
         <v>19</v>
       </c>
-      <c r="D250" s="1">
+      <c r="D250" s="2">
         <v>335.32</v>
       </c>
-      <c r="E250" s="1">
+      <c r="E250" s="2">
         <v>13.464677496798538</v>
       </c>
       <c r="G250" s="1">
@@ -13289,10 +13294,10 @@
       <c r="C251" t="s">
         <v>21</v>
       </c>
-      <c r="D251" s="1">
+      <c r="D251" s="2">
         <v>232.91</v>
       </c>
-      <c r="E251" s="1">
+      <c r="E251" s="2">
         <v>3.6712212153065193</v>
       </c>
       <c r="F251" s="1">
@@ -13330,10 +13335,10 @@
       <c r="C252" t="s">
         <v>14</v>
       </c>
-      <c r="D252" s="1">
+      <c r="D252" s="2">
         <v>19.25</v>
       </c>
-      <c r="E252" s="1">
+      <c r="E252" s="2">
         <v>5.4667838482598041</v>
       </c>
       <c r="F252" s="1">
@@ -13371,10 +13376,10 @@
       <c r="C253" t="s">
         <v>21</v>
       </c>
-      <c r="D253" s="1">
+      <c r="D253" s="2">
         <v>124.5</v>
       </c>
-      <c r="E253" s="1">
+      <c r="E253" s="2">
         <v>16.94312422970803</v>
       </c>
       <c r="G253" s="1">
@@ -13409,10 +13414,10 @@
       <c r="C254" t="s">
         <v>21</v>
       </c>
-      <c r="D254" s="1">
+      <c r="D254" s="2">
         <v>180.54</v>
       </c>
-      <c r="E254" s="1">
+      <c r="E254" s="2">
         <v>16.572550694827591</v>
       </c>
       <c r="F254" s="1">
@@ -13450,10 +13455,10 @@
       <c r="C255" t="s">
         <v>21</v>
       </c>
-      <c r="D255" s="1">
+      <c r="D255" s="2">
         <v>67.930000000000007</v>
       </c>
-      <c r="E255" s="1">
+      <c r="E255" s="2">
         <v>8.2738146240215258</v>
       </c>
       <c r="F255" s="1">
@@ -13491,10 +13496,10 @@
       <c r="C256" t="s">
         <v>19</v>
       </c>
-      <c r="D256" s="1">
+      <c r="D256" s="2">
         <v>181.99</v>
       </c>
-      <c r="E256" s="1">
+      <c r="E256" s="2">
         <v>7.5879255887757013</v>
       </c>
       <c r="F256" s="1">
@@ -13532,10 +13537,10 @@
       <c r="C257" t="s">
         <v>29</v>
       </c>
-      <c r="D257" s="1">
+      <c r="D257" s="2">
         <v>171.56</v>
       </c>
-      <c r="E257" s="1">
+      <c r="E257" s="2">
         <v>6.2888529592832532</v>
       </c>
       <c r="F257" s="1">
@@ -13573,10 +13578,10 @@
       <c r="C258" t="s">
         <v>19</v>
       </c>
-      <c r="D258" s="1">
+      <c r="D258" s="2">
         <v>32.42</v>
       </c>
-      <c r="E258" s="1">
+      <c r="E258" s="2">
         <v>2.2298555354080207</v>
       </c>
       <c r="F258" s="1">
@@ -13614,10 +13619,10 @@
       <c r="C259" t="s">
         <v>14</v>
       </c>
-      <c r="D259" s="1">
+      <c r="D259" s="2">
         <v>139.6</v>
       </c>
-      <c r="E259" s="1">
+      <c r="E259" s="2">
         <v>10.022542995573126</v>
       </c>
       <c r="F259" s="1">
@@ -13655,10 +13660,10 @@
       <c r="C260" t="s">
         <v>27</v>
       </c>
-      <c r="D260" s="1">
+      <c r="D260" s="2">
         <v>69.3</v>
       </c>
-      <c r="E260" s="1">
+      <c r="E260" s="2">
         <v>2.3409868027388869</v>
       </c>
       <c r="F260" s="1">
@@ -13696,10 +13701,10 @@
       <c r="C261" t="s">
         <v>27</v>
       </c>
-      <c r="D261" s="1">
+      <c r="D261" s="2">
         <v>35.729999999999997</v>
       </c>
-      <c r="E261" s="1">
+      <c r="E261" s="2">
         <v>-23.740329480714294</v>
       </c>
       <c r="F261" s="1">
@@ -13728,10 +13733,10 @@
       <c r="C262" t="s">
         <v>14</v>
       </c>
-      <c r="D262" s="1">
+      <c r="D262" s="2">
         <v>17.72</v>
       </c>
-      <c r="E262" s="1">
+      <c r="E262" s="2">
         <v>6.5649802249552858</v>
       </c>
       <c r="F262" s="1">
@@ -13769,10 +13774,10 @@
       <c r="C263" t="s">
         <v>19</v>
       </c>
-      <c r="D263" s="1">
+      <c r="D263" s="2">
         <v>186.18</v>
       </c>
-      <c r="E263" s="1">
+      <c r="E263" s="2">
         <v>11.190825228296575</v>
       </c>
       <c r="G263" s="1">
@@ -13804,10 +13809,10 @@
       <c r="C264" t="s">
         <v>27</v>
       </c>
-      <c r="D264" s="1">
+      <c r="D264" s="2">
         <v>41.98</v>
       </c>
-      <c r="E264" s="1">
+      <c r="E264" s="2">
         <v>-0.31138797808613061</v>
       </c>
       <c r="F264" s="1">
@@ -13842,10 +13847,10 @@
       <c r="C265" t="s">
         <v>33</v>
       </c>
-      <c r="D265" s="1">
+      <c r="D265" s="2">
         <v>21.99</v>
       </c>
-      <c r="E265" s="1">
+      <c r="E265" s="2">
         <v>-0.7454886397525895</v>
       </c>
       <c r="G265" s="1">
@@ -13880,10 +13885,10 @@
       <c r="C266" t="s">
         <v>19</v>
       </c>
-      <c r="D266" s="1">
+      <c r="D266" s="2">
         <v>423.95</v>
       </c>
-      <c r="E266" s="1">
+      <c r="E266" s="2">
         <v>22.443223245675583</v>
       </c>
       <c r="F266" s="1">
@@ -13921,10 +13926,10 @@
       <c r="C267" t="s">
         <v>27</v>
       </c>
-      <c r="D267" s="1">
+      <c r="D267" s="2">
         <v>136.33000000000001</v>
       </c>
-      <c r="E267" s="1">
+      <c r="E267" s="2">
         <v>2.5234248174160534</v>
       </c>
       <c r="F267" s="1">
@@ -13962,10 +13967,10 @@
       <c r="C268" t="s">
         <v>25</v>
       </c>
-      <c r="D268" s="1">
+      <c r="D268" s="2">
         <v>18.82</v>
       </c>
-      <c r="E268" s="1">
+      <c r="E268" s="2">
         <v>4.5941958131798799</v>
       </c>
       <c r="F268" s="1">
@@ -14003,10 +14008,10 @@
       <c r="C269" t="s">
         <v>39</v>
       </c>
-      <c r="D269" s="1">
+      <c r="D269" s="2">
         <v>68.52</v>
       </c>
-      <c r="E269" s="1">
+      <c r="E269" s="2">
         <v>18.6863283210416</v>
       </c>
       <c r="F269" s="1">
@@ -14044,10 +14049,10 @@
       <c r="C270" t="s">
         <v>27</v>
       </c>
-      <c r="D270" s="1">
+      <c r="D270" s="2">
         <v>61.49</v>
       </c>
-      <c r="E270" s="1">
+      <c r="E270" s="2">
         <v>-1.5727580756241033</v>
       </c>
       <c r="F270" s="1">
@@ -14085,10 +14090,10 @@
       <c r="C271" t="s">
         <v>27</v>
       </c>
-      <c r="D271" s="1">
+      <c r="D271" s="2">
         <v>46.18</v>
       </c>
-      <c r="E271" s="1">
+      <c r="E271" s="2">
         <v>8.6443529502974172</v>
       </c>
       <c r="F271" s="1">
@@ -14126,10 +14131,10 @@
       <c r="C272" t="s">
         <v>14</v>
       </c>
-      <c r="D272" s="1">
+      <c r="D272" s="2">
         <v>59.13</v>
       </c>
-      <c r="E272" s="1">
+      <c r="E272" s="2">
         <v>7.7972662113875657</v>
       </c>
       <c r="F272" s="1">
@@ -14167,10 +14172,10 @@
       <c r="C273" t="s">
         <v>21</v>
       </c>
-      <c r="D273" s="1">
+      <c r="D273" s="2">
         <v>97.234999999999999</v>
       </c>
-      <c r="E273" s="1">
+      <c r="E273" s="2">
         <v>7.1280140007741188</v>
       </c>
       <c r="F273" s="1">
@@ -14208,10 +14213,10 @@
       <c r="C274" t="s">
         <v>39</v>
       </c>
-      <c r="D274" s="1">
+      <c r="D274" s="2">
         <v>100.8</v>
       </c>
-      <c r="E274" s="1">
+      <c r="E274" s="2">
         <v>16.852410085991032</v>
       </c>
       <c r="F274" s="1">
@@ -14249,10 +14254,10 @@
       <c r="C275" t="s">
         <v>29</v>
       </c>
-      <c r="D275" s="1">
+      <c r="D275" s="2">
         <v>255.24</v>
       </c>
-      <c r="E275" s="1">
+      <c r="E275" s="2">
         <v>12.333758203666223</v>
       </c>
       <c r="F275" s="1">
@@ -14290,10 +14295,10 @@
       <c r="C276" t="s">
         <v>21</v>
       </c>
-      <c r="D276" s="1">
+      <c r="D276" s="2">
         <v>194.25</v>
       </c>
-      <c r="E276" s="1">
+      <c r="E276" s="2">
         <v>12.827068050987966</v>
       </c>
       <c r="G276" s="1">
@@ -14328,7 +14333,7 @@
       <c r="C277" t="s">
         <v>12</v>
       </c>
-      <c r="D277" s="1">
+      <c r="D277" s="2">
         <v>333.02</v>
       </c>
       <c r="H277" s="1">
@@ -14360,10 +14365,10 @@
       <c r="C278" t="s">
         <v>39</v>
       </c>
-      <c r="D278" s="1">
+      <c r="D278" s="2">
         <v>57.9</v>
       </c>
-      <c r="E278" s="1">
+      <c r="E278" s="2">
         <v>9.5304724677717658</v>
       </c>
       <c r="F278" s="1">
@@ -14401,10 +14406,10 @@
       <c r="C279" t="s">
         <v>29</v>
       </c>
-      <c r="D279" s="1">
+      <c r="D279" s="2">
         <v>356.42</v>
       </c>
-      <c r="E279" s="1">
+      <c r="E279" s="2">
         <v>9.2601735463255341</v>
       </c>
       <c r="F279" s="1">
@@ -14442,10 +14447,10 @@
       <c r="C280" t="s">
         <v>21</v>
       </c>
-      <c r="D280" s="1">
+      <c r="D280" s="2">
         <v>445.93</v>
       </c>
-      <c r="E280" s="1">
+      <c r="E280" s="2">
         <v>8.9511594425183194</v>
       </c>
       <c r="F280" s="1">
@@ -14483,10 +14488,10 @@
       <c r="C281" t="s">
         <v>14</v>
       </c>
-      <c r="D281" s="1">
+      <c r="D281" s="2">
         <v>31.35</v>
       </c>
-      <c r="E281" s="1">
+      <c r="E281" s="2">
         <v>12.51362117182946</v>
       </c>
       <c r="G281" s="1">
@@ -14521,10 +14526,10 @@
       <c r="C282" t="s">
         <v>47</v>
       </c>
-      <c r="D282" s="1">
+      <c r="D282" s="2">
         <v>54.87</v>
       </c>
-      <c r="E282" s="1">
+      <c r="E282" s="2">
         <v>6.170329912746908E-2</v>
       </c>
       <c r="F282" s="1">
@@ -14556,10 +14561,10 @@
       <c r="C283" t="s">
         <v>39</v>
       </c>
-      <c r="D283" s="1">
+      <c r="D283" s="2">
         <v>212.04</v>
       </c>
-      <c r="E283" s="1">
+      <c r="E283" s="2">
         <v>13.357288442460513</v>
       </c>
       <c r="F283" s="1">
@@ -14597,10 +14602,10 @@
       <c r="C284" t="s">
         <v>19</v>
       </c>
-      <c r="D284" s="1">
+      <c r="D284" s="2">
         <v>478.29</v>
       </c>
-      <c r="E284" s="1">
+      <c r="E284" s="2">
         <v>20.042603724143369</v>
       </c>
       <c r="F284" s="1">
@@ -14638,10 +14643,10 @@
       <c r="C285" t="s">
         <v>17</v>
       </c>
-      <c r="D285" s="1">
+      <c r="D285" s="2">
         <v>5.5949999999999998</v>
       </c>
-      <c r="E285" s="1">
+      <c r="E285" s="2">
         <v>-10.512999292786141</v>
       </c>
       <c r="F285" s="1">
@@ -14679,10 +14684,10 @@
       <c r="C286" t="s">
         <v>21</v>
       </c>
-      <c r="D286" s="1">
+      <c r="D286" s="2">
         <v>37.33</v>
       </c>
-      <c r="E286" s="1">
+      <c r="E286" s="2">
         <v>-4.4624582015712182</v>
       </c>
       <c r="G286" s="1">
@@ -14717,10 +14722,10 @@
       <c r="C287" t="s">
         <v>39</v>
       </c>
-      <c r="D287" s="1">
+      <c r="D287" s="2">
         <v>55</v>
       </c>
-      <c r="E287" s="1">
+      <c r="E287" s="2">
         <v>-17.33002698440891</v>
       </c>
       <c r="G287" s="1">
@@ -14755,10 +14760,10 @@
       <c r="C288" t="s">
         <v>27</v>
       </c>
-      <c r="D288" s="1">
+      <c r="D288" s="2">
         <v>99.53</v>
       </c>
-      <c r="E288" s="1">
+      <c r="E288" s="2">
         <v>5.3740990803455402</v>
       </c>
       <c r="F288" s="1">
@@ -14793,10 +14798,10 @@
       <c r="C289" t="s">
         <v>12</v>
       </c>
-      <c r="D289" s="1">
+      <c r="D289" s="2">
         <v>92.91</v>
       </c>
-      <c r="E289" s="1">
+      <c r="E289" s="2">
         <v>14.695173523742655</v>
       </c>
       <c r="F289" s="1">
@@ -14834,10 +14839,10 @@
       <c r="C290" t="s">
         <v>17</v>
       </c>
-      <c r="D290" s="1">
+      <c r="D290" s="2">
         <v>76.37</v>
       </c>
-      <c r="E290" s="1">
+      <c r="E290" s="2">
         <v>-6.9367684670513015</v>
       </c>
       <c r="G290" s="1">
@@ -14872,10 +14877,10 @@
       <c r="C291" t="s">
         <v>19</v>
       </c>
-      <c r="D291" s="1">
+      <c r="D291" s="2">
         <v>375.59</v>
       </c>
-      <c r="E291" s="1">
+      <c r="E291" s="2">
         <v>14.260563334186527</v>
       </c>
       <c r="F291" s="1">
@@ -14913,10 +14918,10 @@
       <c r="C292" t="s">
         <v>33</v>
       </c>
-      <c r="D292" s="1">
+      <c r="D292" s="2">
         <v>161.54</v>
       </c>
-      <c r="E292" s="1">
+      <c r="E292" s="2">
         <v>1.5742388194646573</v>
       </c>
       <c r="F292" s="1">
@@ -14954,10 +14959,10 @@
       <c r="C293" t="s">
         <v>39</v>
       </c>
-      <c r="D293" s="1">
+      <c r="D293" s="2">
         <v>162.30000000000001</v>
       </c>
-      <c r="E293" s="1">
+      <c r="E293" s="2">
         <v>-6.3165127940948862</v>
       </c>
       <c r="F293" s="1">
@@ -14992,10 +14997,10 @@
       <c r="C294" t="s">
         <v>21</v>
       </c>
-      <c r="D294" s="1">
+      <c r="D294" s="2">
         <v>51.61</v>
       </c>
-      <c r="E294" s="1">
+      <c r="E294" s="2">
         <v>8.2962080381065562</v>
       </c>
       <c r="F294" s="1">
@@ -15033,10 +15038,10 @@
       <c r="C295" t="s">
         <v>39</v>
       </c>
-      <c r="D295" s="1">
+      <c r="D295" s="2">
         <v>273.83</v>
       </c>
-      <c r="E295" s="1">
+      <c r="E295" s="2">
         <v>1.547336660205878</v>
       </c>
       <c r="F295" s="1">
@@ -15074,10 +15079,10 @@
       <c r="C296" t="s">
         <v>19</v>
       </c>
-      <c r="D296" s="1">
+      <c r="D296" s="2">
         <v>75.41</v>
       </c>
-      <c r="E296" s="1">
+      <c r="E296" s="2">
         <v>9.5005930871006061</v>
       </c>
       <c r="F296" s="1">
@@ -15115,10 +15120,10 @@
       <c r="C297" t="s">
         <v>29</v>
       </c>
-      <c r="D297" s="1">
+      <c r="D297" s="2">
         <v>384.27</v>
       </c>
-      <c r="E297" s="1">
+      <c r="E297" s="2">
         <v>14.046386992408433</v>
       </c>
       <c r="G297" s="1">
@@ -15153,10 +15158,10 @@
       <c r="C298" t="s">
         <v>14</v>
       </c>
-      <c r="D298" s="1">
+      <c r="D298" s="2">
         <v>316.73</v>
       </c>
-      <c r="E298" s="1">
+      <c r="E298" s="2">
         <v>12.267881716143968</v>
       </c>
       <c r="F298" s="1">
@@ -15194,10 +15199,10 @@
       <c r="C299" t="s">
         <v>27</v>
       </c>
-      <c r="D299" s="1">
+      <c r="D299" s="2">
         <v>66.739999999999995</v>
       </c>
-      <c r="E299" s="1">
+      <c r="E299" s="2">
         <v>4.205398671674021</v>
       </c>
       <c r="F299" s="1">
@@ -15235,10 +15240,10 @@
       <c r="C300" t="s">
         <v>29</v>
       </c>
-      <c r="D300" s="1">
+      <c r="D300" s="2">
         <v>79.83</v>
       </c>
-      <c r="E300" s="1">
+      <c r="E300" s="2">
         <v>1.8411087443845453</v>
       </c>
       <c r="F300" s="1">
@@ -15276,10 +15281,10 @@
       <c r="C301" t="s">
         <v>14</v>
       </c>
-      <c r="D301" s="1">
+      <c r="D301" s="2">
         <v>71.239999999999995</v>
       </c>
-      <c r="E301" s="1">
+      <c r="E301" s="2">
         <v>8.3261707755657444</v>
       </c>
       <c r="G301" s="1">
@@ -15314,10 +15319,10 @@
       <c r="C302" t="s">
         <v>17</v>
       </c>
-      <c r="D302" s="1">
+      <c r="D302" s="2">
         <v>136.54</v>
       </c>
-      <c r="E302" s="1">
+      <c r="E302" s="2">
         <v>34.119334700804529</v>
       </c>
       <c r="F302" s="1">
@@ -15355,10 +15360,10 @@
       <c r="C303" t="s">
         <v>39</v>
       </c>
-      <c r="D303" s="1">
+      <c r="D303" s="2">
         <v>39.39</v>
       </c>
-      <c r="E303" s="1">
+      <c r="E303" s="2">
         <v>3.7824419862607206</v>
       </c>
       <c r="G303" s="1">
@@ -15393,10 +15398,10 @@
       <c r="C304" t="s">
         <v>39</v>
       </c>
-      <c r="D304" s="1">
+      <c r="D304" s="2">
         <v>112.29</v>
       </c>
-      <c r="E304" s="1">
+      <c r="E304" s="2">
         <v>6.1159400667095687</v>
       </c>
       <c r="G304" s="1">
@@ -15431,10 +15436,10 @@
       <c r="C305" t="s">
         <v>27</v>
       </c>
-      <c r="D305" s="1">
+      <c r="D305" s="2">
         <v>81.040000000000006</v>
       </c>
-      <c r="E305" s="1">
+      <c r="E305" s="2">
         <v>6.2894699568826651</v>
       </c>
       <c r="F305" s="1">
@@ -15472,10 +15477,10 @@
       <c r="C306" t="s">
         <v>14</v>
       </c>
-      <c r="D306" s="1">
+      <c r="D306" s="2">
         <v>329.62</v>
       </c>
-      <c r="E306" s="1">
+      <c r="E306" s="2">
         <v>13.30057320297513</v>
       </c>
       <c r="F306" s="1">
@@ -15513,10 +15518,10 @@
       <c r="C307" t="s">
         <v>12</v>
       </c>
-      <c r="D307" s="1">
+      <c r="D307" s="2">
         <v>355</v>
       </c>
-      <c r="E307" s="1">
+      <c r="E307" s="2">
         <v>7.6434450751041272</v>
       </c>
       <c r="F307" s="1">
@@ -15554,10 +15559,10 @@
       <c r="C308" t="s">
         <v>14</v>
       </c>
-      <c r="D308" s="1">
+      <c r="D308" s="2">
         <v>171.32</v>
       </c>
-      <c r="E308" s="1">
+      <c r="E308" s="2">
         <v>8.9595927194991987</v>
       </c>
       <c r="F308" s="1">
@@ -15595,10 +15600,10 @@
       <c r="C309" t="s">
         <v>21</v>
       </c>
-      <c r="D309" s="1">
+      <c r="D309" s="2">
         <v>126.93</v>
       </c>
-      <c r="E309" s="1">
+      <c r="E309" s="2">
         <v>4.1653273372894262</v>
       </c>
       <c r="F309" s="1">
@@ -15636,10 +15641,10 @@
       <c r="C310" t="s">
         <v>27</v>
       </c>
-      <c r="D310" s="1">
+      <c r="D310" s="2">
         <v>102.73</v>
       </c>
-      <c r="E310" s="1">
+      <c r="E310" s="2">
         <v>15.102592865352161</v>
       </c>
       <c r="F310" s="1">
@@ -15677,10 +15682,10 @@
       <c r="C311" t="s">
         <v>27</v>
       </c>
-      <c r="D311" s="1">
+      <c r="D311" s="2">
         <v>45.05</v>
       </c>
-      <c r="E311" s="1">
+      <c r="E311" s="2">
         <v>2.9249418421029683</v>
       </c>
       <c r="G311" s="1">
@@ -15715,10 +15720,10 @@
       <c r="C312" t="s">
         <v>12</v>
       </c>
-      <c r="D312" s="1">
+      <c r="D312" s="2">
         <v>47.81</v>
       </c>
-      <c r="E312" s="1">
+      <c r="E312" s="2">
         <v>9.8399534001993416</v>
       </c>
       <c r="G312" s="1">
@@ -15753,10 +15758,10 @@
       <c r="C313" t="s">
         <v>25</v>
       </c>
-      <c r="D313" s="1">
+      <c r="D313" s="2">
         <v>123.35</v>
       </c>
-      <c r="E313" s="1">
+      <c r="E313" s="2">
         <v>9.546532620073588</v>
       </c>
       <c r="G313" s="1">
@@ -15791,10 +15796,10 @@
       <c r="C314" t="s">
         <v>19</v>
       </c>
-      <c r="D314" s="1">
+      <c r="D314" s="2">
         <v>407.99</v>
       </c>
-      <c r="E314" s="1">
+      <c r="E314" s="2">
         <v>22.33976719565247</v>
       </c>
       <c r="F314" s="1">
@@ -15832,10 +15837,10 @@
       <c r="C315" t="s">
         <v>29</v>
       </c>
-      <c r="D315" s="1">
+      <c r="D315" s="2">
         <v>109.93</v>
       </c>
-      <c r="E315" s="1">
+      <c r="E315" s="2">
         <v>5.9906040655381076</v>
       </c>
       <c r="G315" s="1">
@@ -15870,10 +15875,10 @@
       <c r="C316" t="s">
         <v>29</v>
       </c>
-      <c r="D316" s="1">
+      <c r="D316" s="2">
         <v>204.93</v>
       </c>
-      <c r="E316" s="1">
+      <c r="E316" s="2">
         <v>63.810133515009348</v>
       </c>
       <c r="G316" s="1">
@@ -15902,10 +15907,10 @@
       <c r="C317" t="s">
         <v>25</v>
       </c>
-      <c r="D317" s="1">
+      <c r="D317" s="2">
         <v>27.16</v>
       </c>
-      <c r="E317" s="1">
+      <c r="E317" s="2">
         <v>12.640661586622581</v>
       </c>
       <c r="G317" s="1">
@@ -15940,10 +15945,10 @@
       <c r="C318" t="s">
         <v>14</v>
       </c>
-      <c r="D318" s="1">
+      <c r="D318" s="2">
         <v>96.93</v>
       </c>
-      <c r="E318" s="1">
+      <c r="E318" s="2">
         <v>9.7233021641255579</v>
       </c>
       <c r="F318" s="1">
@@ -15981,10 +15986,10 @@
       <c r="C319" t="s">
         <v>14</v>
       </c>
-      <c r="D319" s="1">
+      <c r="D319" s="2">
         <v>514.59</v>
       </c>
-      <c r="E319" s="1">
+      <c r="E319" s="2">
         <v>15.618966453101347</v>
       </c>
       <c r="F319" s="1">
@@ -16022,10 +16027,10 @@
       <c r="C320" t="s">
         <v>19</v>
       </c>
-      <c r="D320" s="1">
+      <c r="D320" s="2">
         <v>240.66</v>
       </c>
-      <c r="E320" s="1">
+      <c r="E320" s="2">
         <v>16.233586491480633</v>
       </c>
       <c r="F320" s="1">
@@ -16063,10 +16068,10 @@
       <c r="C321" t="s">
         <v>19</v>
       </c>
-      <c r="D321" s="1">
+      <c r="D321" s="2">
         <v>263.87</v>
       </c>
-      <c r="E321" s="1">
+      <c r="E321" s="2">
         <v>6.2873350777363335</v>
       </c>
       <c r="F321" s="1">
@@ -16104,10 +16109,10 @@
       <c r="C322" t="s">
         <v>14</v>
       </c>
-      <c r="D322" s="1">
+      <c r="D322" s="2">
         <v>148.9</v>
       </c>
-      <c r="E322" s="1">
+      <c r="E322" s="2">
         <v>5.3943911349677354</v>
       </c>
       <c r="F322" s="1">
@@ -16145,10 +16150,10 @@
       <c r="C323" t="s">
         <v>17</v>
       </c>
-      <c r="D323" s="1">
+      <c r="D323" s="2">
         <v>47.85</v>
       </c>
-      <c r="E323" s="1">
+      <c r="E323" s="2">
         <v>-22.668739332662913</v>
       </c>
       <c r="F323" s="1">
@@ -16177,10 +16182,10 @@
       <c r="C324" t="s">
         <v>29</v>
       </c>
-      <c r="D324" s="1">
+      <c r="D324" s="2">
         <v>1540</v>
       </c>
-      <c r="E324" s="1">
+      <c r="E324" s="2">
         <v>11.188179667414055</v>
       </c>
       <c r="F324" s="1">
@@ -16218,10 +16223,10 @@
       <c r="C325" t="s">
         <v>19</v>
       </c>
-      <c r="D325" s="1">
+      <c r="D325" s="2">
         <v>57.68</v>
       </c>
-      <c r="E325" s="1">
+      <c r="E325" s="2">
         <v>8.1889603968882341</v>
       </c>
       <c r="G325" s="1">
@@ -16256,10 +16261,10 @@
       <c r="C326" t="s">
         <v>39</v>
       </c>
-      <c r="D326" s="1">
+      <c r="D326" s="2">
         <v>16.23</v>
       </c>
-      <c r="E326" s="1">
+      <c r="E326" s="2">
         <v>-39.268197883703969</v>
       </c>
       <c r="G326" s="1">
@@ -16291,10 +16296,10 @@
       <c r="C327" t="s">
         <v>14</v>
       </c>
-      <c r="D327" s="1">
+      <c r="D327" s="2">
         <v>63.36</v>
       </c>
-      <c r="E327" s="1">
+      <c r="E327" s="2">
         <v>8.3912410805512483</v>
       </c>
       <c r="F327" s="1">
@@ -16332,10 +16337,10 @@
       <c r="C328" t="s">
         <v>21</v>
       </c>
-      <c r="D328" s="1">
+      <c r="D328" s="2">
         <v>243.05</v>
       </c>
-      <c r="E328" s="1">
+      <c r="E328" s="2">
         <v>4.5820435677066396</v>
       </c>
       <c r="F328" s="1">
@@ -16373,10 +16378,10 @@
       <c r="C329" t="s">
         <v>47</v>
       </c>
-      <c r="D329" s="1">
+      <c r="D329" s="2">
         <v>85.85</v>
       </c>
-      <c r="E329" s="1">
+      <c r="E329" s="2">
         <v>-3.299179039324418E-2</v>
       </c>
       <c r="F329" s="1">
@@ -16414,10 +16419,10 @@
       <c r="C330" t="s">
         <v>12</v>
       </c>
-      <c r="D330" s="1">
+      <c r="D330" s="2">
         <v>53.15</v>
       </c>
-      <c r="E330" s="1">
+      <c r="E330" s="2">
         <v>3.8524690507707682</v>
       </c>
       <c r="G330" s="1">
@@ -16452,10 +16457,10 @@
       <c r="C331" t="s">
         <v>17</v>
       </c>
-      <c r="D331" s="1">
+      <c r="D331" s="2">
         <v>324.13</v>
       </c>
-      <c r="E331" s="1">
+      <c r="E331" s="2">
         <v>26.616569839372929</v>
       </c>
       <c r="F331" s="1">
@@ -16493,10 +16498,10 @@
       <c r="C332" t="s">
         <v>47</v>
       </c>
-      <c r="D332" s="1">
+      <c r="D332" s="2">
         <v>27.7</v>
       </c>
-      <c r="E332" s="1">
+      <c r="E332" s="2">
         <v>-2.2671197171908242</v>
       </c>
       <c r="G332" s="1">
@@ -16531,10 +16536,10 @@
       <c r="C333" t="s">
         <v>39</v>
       </c>
-      <c r="D333" s="1">
+      <c r="D333" s="2">
         <v>128.18</v>
       </c>
-      <c r="E333" s="1">
+      <c r="E333" s="2">
         <v>7.383518216926821</v>
       </c>
       <c r="F333" s="1">
@@ -16572,10 +16577,10 @@
       <c r="C334" t="s">
         <v>21</v>
       </c>
-      <c r="D334" s="1">
+      <c r="D334" s="2">
         <v>452.32</v>
       </c>
-      <c r="E334" s="1">
+      <c r="E334" s="2">
         <v>10.008993842421777</v>
       </c>
       <c r="F334" s="1">
@@ -16613,10 +16618,10 @@
       <c r="C335" t="s">
         <v>19</v>
       </c>
-      <c r="D335" s="1">
+      <c r="D335" s="2">
         <v>420.38</v>
       </c>
-      <c r="E335" s="1">
+      <c r="E335" s="2">
         <v>28.633254510640469</v>
       </c>
       <c r="G335" s="1">
@@ -16651,10 +16656,10 @@
       <c r="C336" t="s">
         <v>47</v>
       </c>
-      <c r="D336" s="1">
+      <c r="D336" s="2">
         <v>32.35</v>
       </c>
-      <c r="E336" s="1">
+      <c r="E336" s="2">
         <v>27.058723501487414</v>
       </c>
       <c r="G336" s="1">
@@ -16689,10 +16694,10 @@
       <c r="C337" t="s">
         <v>21</v>
       </c>
-      <c r="D337" s="1">
+      <c r="D337" s="2">
         <v>256.89</v>
       </c>
-      <c r="E337" s="1">
+      <c r="E337" s="2">
         <v>6.0490148603975058</v>
       </c>
       <c r="F337" s="1">
@@ -16730,10 +16735,10 @@
       <c r="C338" t="s">
         <v>19</v>
       </c>
-      <c r="D338" s="1">
+      <c r="D338" s="2">
         <v>65.385000000000005</v>
       </c>
-      <c r="E338" s="1">
+      <c r="E338" s="2">
         <v>7.1394497690583147</v>
       </c>
       <c r="F338" s="1">
@@ -16771,10 +16776,10 @@
       <c r="C339" t="s">
         <v>14</v>
       </c>
-      <c r="D339" s="1">
+      <c r="D339" s="2">
         <v>99.02</v>
       </c>
-      <c r="E339" s="1">
+      <c r="E339" s="2">
         <v>6.6478765150027153</v>
       </c>
       <c r="F339" s="1">
@@ -16812,10 +16817,10 @@
       <c r="C340" t="s">
         <v>12</v>
       </c>
-      <c r="D340" s="1">
+      <c r="D340" s="2">
         <v>156.57</v>
       </c>
-      <c r="E340" s="1">
+      <c r="E340" s="2">
         <v>19.718867867282587</v>
       </c>
       <c r="F340" s="1">
@@ -16853,10 +16858,10 @@
       <c r="C341" t="s">
         <v>19</v>
       </c>
-      <c r="D341" s="1">
+      <c r="D341" s="2">
         <v>175.18</v>
       </c>
-      <c r="E341" s="1">
+      <c r="E341" s="2">
         <v>27.556494425065491</v>
       </c>
       <c r="F341" s="1">
@@ -16894,10 +16899,10 @@
       <c r="C342" t="s">
         <v>39</v>
       </c>
-      <c r="D342" s="1">
+      <c r="D342" s="2">
         <v>5038.8</v>
       </c>
-      <c r="E342" s="1">
+      <c r="E342" s="2">
         <v>10.554282732619068</v>
       </c>
       <c r="F342" s="1">
@@ -16935,10 +16940,10 @@
       <c r="C343" t="s">
         <v>39</v>
       </c>
-      <c r="D343" s="1">
+      <c r="D343" s="2">
         <v>15.61</v>
       </c>
-      <c r="E343" s="1">
+      <c r="E343" s="2">
         <v>-4.5852971079772935</v>
       </c>
       <c r="G343" s="1">
@@ -16967,10 +16972,10 @@
       <c r="C344" t="s">
         <v>17</v>
       </c>
-      <c r="D344" s="1">
+      <c r="D344" s="2">
         <v>19.73</v>
       </c>
-      <c r="E344" s="1">
+      <c r="E344" s="2">
         <v>4.7044968294035261</v>
       </c>
       <c r="G344" s="1">
@@ -17002,10 +17007,10 @@
       <c r="C345" t="s">
         <v>17</v>
       </c>
-      <c r="D345" s="1">
+      <c r="D345" s="2">
         <v>19.335000000000001</v>
       </c>
-      <c r="E345" s="1">
+      <c r="E345" s="2">
         <v>4.7044968294035261</v>
       </c>
       <c r="G345" s="1">
@@ -17037,10 +17042,10 @@
       <c r="C346" t="s">
         <v>19</v>
       </c>
-      <c r="D346" s="1">
+      <c r="D346" s="2">
         <v>172.6</v>
       </c>
-      <c r="E346" s="1">
+      <c r="E346" s="2">
         <v>7.810361498448759</v>
       </c>
       <c r="G346" s="1">
@@ -17075,10 +17080,10 @@
       <c r="C347" t="s">
         <v>33</v>
       </c>
-      <c r="D347" s="1">
+      <c r="D347" s="2">
         <v>67.069999999999993</v>
       </c>
-      <c r="E347" s="1">
+      <c r="E347" s="2">
         <v>3.02004554665396</v>
       </c>
       <c r="F347" s="1">
@@ -17116,10 +17121,10 @@
       <c r="C348" t="s">
         <v>21</v>
       </c>
-      <c r="D348" s="1">
+      <c r="D348" s="2">
         <v>316.52999999999997</v>
       </c>
-      <c r="E348" s="1">
+      <c r="E348" s="2">
         <v>13.626339969520473</v>
       </c>
       <c r="F348" s="1">
@@ -17157,7 +17162,7 @@
       <c r="C349" t="s">
         <v>29</v>
       </c>
-      <c r="D349" s="1">
+      <c r="D349" s="2">
         <v>32.229999999999997</v>
       </c>
       <c r="H349" s="1">
@@ -17180,10 +17185,10 @@
       <c r="C350" t="s">
         <v>25</v>
       </c>
-      <c r="D350" s="1">
+      <c r="D350" s="2">
         <v>70.86</v>
       </c>
-      <c r="E350" s="1">
+      <c r="E350" s="2">
         <v>-2.5929469791786675</v>
       </c>
       <c r="F350" s="1">
@@ -17221,10 +17226,10 @@
       <c r="C351" t="s">
         <v>17</v>
       </c>
-      <c r="D351" s="1">
+      <c r="D351" s="2">
         <v>83.43</v>
       </c>
-      <c r="E351" s="1">
+      <c r="E351" s="2">
         <v>0.57217486653022842</v>
       </c>
       <c r="F351" s="1">
@@ -17262,10 +17267,10 @@
       <c r="C352" t="s">
         <v>19</v>
       </c>
-      <c r="D352" s="1">
+      <c r="D352" s="2">
         <v>67.45</v>
       </c>
-      <c r="E352" s="1">
+      <c r="E352" s="2">
         <v>10.966958279182659</v>
       </c>
       <c r="G352" s="1">
@@ -17300,10 +17305,10 @@
       <c r="C353" t="s">
         <v>19</v>
       </c>
-      <c r="D353" s="1">
+      <c r="D353" s="2">
         <v>88.04</v>
       </c>
-      <c r="E353" s="1">
+      <c r="E353" s="2">
         <v>11.384185508315326</v>
       </c>
       <c r="G353" s="1">
@@ -17335,10 +17340,10 @@
       <c r="C354" t="s">
         <v>39</v>
       </c>
-      <c r="D354" s="1">
+      <c r="D354" s="2">
         <v>808.61</v>
       </c>
-      <c r="E354" s="1">
+      <c r="E354" s="2">
         <v>16.50495745578413</v>
       </c>
       <c r="F354" s="1">
@@ -17376,7 +17381,7 @@
       <c r="C355" t="s">
         <v>21</v>
       </c>
-      <c r="D355" s="1">
+      <c r="D355" s="2">
         <v>83.17</v>
       </c>
       <c r="H355" s="1">
@@ -17399,10 +17404,10 @@
       <c r="C356" t="s">
         <v>25</v>
       </c>
-      <c r="D356" s="1">
+      <c r="D356" s="2">
         <v>65.58</v>
       </c>
-      <c r="E356" s="1">
+      <c r="E356" s="2">
         <v>16.012003890519932</v>
       </c>
       <c r="G356" s="1">
@@ -17437,10 +17442,10 @@
       <c r="C357" t="s">
         <v>17</v>
       </c>
-      <c r="D357" s="1">
+      <c r="D357" s="2">
         <v>20.7</v>
       </c>
-      <c r="E357" s="1">
+      <c r="E357" s="2">
         <v>8.5037869111823419</v>
       </c>
       <c r="F357" s="1">
@@ -17472,10 +17477,10 @@
       <c r="C358" t="s">
         <v>19</v>
       </c>
-      <c r="D358" s="1">
+      <c r="D358" s="2">
         <v>314.36</v>
       </c>
-      <c r="E358" s="1">
+      <c r="E358" s="2">
         <v>26.099507858359061</v>
       </c>
       <c r="F358" s="1">
@@ -17510,10 +17515,10 @@
       <c r="C359" t="s">
         <v>19</v>
       </c>
-      <c r="D359" s="1">
+      <c r="D359" s="2">
         <v>119.14</v>
       </c>
-      <c r="E359" s="1">
+      <c r="E359" s="2">
         <v>7.865198494447978</v>
       </c>
       <c r="F359" s="1">
@@ -17551,10 +17556,10 @@
       <c r="C360" t="s">
         <v>21</v>
       </c>
-      <c r="D360" s="1">
+      <c r="D360" s="2">
         <v>102.07</v>
       </c>
-      <c r="E360" s="1">
+      <c r="E360" s="2">
         <v>6.8701571905645187</v>
       </c>
       <c r="F360" s="1">
@@ -17592,10 +17597,10 @@
       <c r="C361" t="s">
         <v>47</v>
       </c>
-      <c r="D361" s="1">
+      <c r="D361" s="2">
         <v>15.87</v>
       </c>
-      <c r="E361" s="1">
+      <c r="E361" s="2">
         <v>-21.730832157398726</v>
       </c>
       <c r="G361" s="1">
@@ -17630,10 +17635,10 @@
       <c r="C362" t="s">
         <v>33</v>
       </c>
-      <c r="D362" s="1">
+      <c r="D362" s="2">
         <v>27.14</v>
       </c>
-      <c r="E362" s="1">
+      <c r="E362" s="2">
         <v>-5.0440605613848888</v>
       </c>
       <c r="G362" s="1">
@@ -17668,10 +17673,10 @@
       <c r="C363" t="s">
         <v>47</v>
       </c>
-      <c r="D363" s="1">
+      <c r="D363" s="2">
         <v>62.89</v>
       </c>
-      <c r="E363" s="1">
+      <c r="E363" s="2">
         <v>1.4584131746622431</v>
       </c>
       <c r="G363" s="1">
@@ -17706,10 +17711,10 @@
       <c r="C364" t="s">
         <v>27</v>
       </c>
-      <c r="D364" s="1">
+      <c r="D364" s="2">
         <v>175.53</v>
       </c>
-      <c r="E364" s="1">
+      <c r="E364" s="2">
         <v>5.6732389323455701</v>
       </c>
       <c r="F364" s="1">
@@ -17744,10 +17749,10 @@
       <c r="C365" t="s">
         <v>29</v>
       </c>
-      <c r="D365" s="1">
+      <c r="D365" s="2">
         <v>45.8</v>
       </c>
-      <c r="E365" s="1">
+      <c r="E365" s="2">
         <v>10.839641159552826</v>
       </c>
       <c r="F365" s="1">
@@ -17785,10 +17790,10 @@
       <c r="C366" t="s">
         <v>14</v>
       </c>
-      <c r="D366" s="1">
+      <c r="D366" s="2">
         <v>89.47</v>
       </c>
-      <c r="E366" s="1">
+      <c r="E366" s="2">
         <v>4.363010790664279</v>
       </c>
       <c r="F366" s="1">
@@ -17823,10 +17828,10 @@
       <c r="C367" t="s">
         <v>27</v>
       </c>
-      <c r="D367" s="1">
+      <c r="D367" s="2">
         <v>149.75</v>
       </c>
-      <c r="E367" s="1">
+      <c r="E367" s="2">
         <v>5.4413099638583873</v>
       </c>
       <c r="F367" s="1">
@@ -17864,10 +17869,10 @@
       <c r="C368" t="s">
         <v>14</v>
       </c>
-      <c r="D368" s="1">
+      <c r="D368" s="2">
         <v>130.54</v>
       </c>
-      <c r="E368" s="1">
+      <c r="E368" s="2">
         <v>15.29792035721842</v>
       </c>
       <c r="F368" s="1">
@@ -17905,10 +17910,10 @@
       <c r="C369" t="s">
         <v>21</v>
       </c>
-      <c r="D369" s="1">
+      <c r="D369" s="2">
         <v>315.7</v>
       </c>
-      <c r="E369" s="1">
+      <c r="E369" s="2">
         <v>6.4708165961470998</v>
       </c>
       <c r="F369" s="1">
@@ -17946,10 +17951,10 @@
       <c r="C370" t="s">
         <v>39</v>
       </c>
-      <c r="D370" s="1">
+      <c r="D370" s="2">
         <v>51.74</v>
       </c>
-      <c r="E370" s="1">
+      <c r="E370" s="2">
         <v>18.908646692715394</v>
       </c>
       <c r="F370" s="1">
@@ -17987,10 +17992,10 @@
       <c r="C371" t="s">
         <v>12</v>
       </c>
-      <c r="D371" s="1">
+      <c r="D371" s="2">
         <v>134.16999999999999</v>
       </c>
-      <c r="E371" s="1">
+      <c r="E371" s="2">
         <v>5.8545899701351267</v>
       </c>
       <c r="F371" s="1">
@@ -18028,10 +18033,10 @@
       <c r="C372" t="s">
         <v>29</v>
       </c>
-      <c r="D372" s="1">
+      <c r="D372" s="2">
         <v>132.47999999999999</v>
       </c>
-      <c r="E372" s="1">
+      <c r="E372" s="2">
         <v>17.684721934394677</v>
       </c>
       <c r="F372" s="1">
@@ -18069,10 +18074,10 @@
       <c r="C373" t="s">
         <v>33</v>
       </c>
-      <c r="D373" s="1">
+      <c r="D373" s="2">
         <v>121.42</v>
       </c>
-      <c r="E373" s="1">
+      <c r="E373" s="2">
         <v>9.0240491030075365</v>
       </c>
       <c r="F373" s="1">
@@ -18110,10 +18115,10 @@
       <c r="C374" t="s">
         <v>27</v>
       </c>
-      <c r="D374" s="1">
+      <c r="D374" s="2">
         <v>101.14</v>
       </c>
-      <c r="E374" s="1">
+      <c r="E374" s="2">
         <v>3.2179399393615027</v>
       </c>
       <c r="F374" s="1">
@@ -18151,7 +18156,7 @@
       <c r="C375" t="s">
         <v>14</v>
       </c>
-      <c r="D375" s="1">
+      <c r="D375" s="2">
         <v>152.66</v>
       </c>
       <c r="F375" s="1">
@@ -18189,10 +18194,10 @@
       <c r="C376" t="s">
         <v>21</v>
       </c>
-      <c r="D376" s="1">
+      <c r="D376" s="2">
         <v>50.85</v>
       </c>
-      <c r="E376" s="1">
+      <c r="E376" s="2">
         <v>-3.3839527424192939</v>
       </c>
       <c r="F376" s="1">
@@ -18230,10 +18235,10 @@
       <c r="C377" t="s">
         <v>47</v>
       </c>
-      <c r="D377" s="1">
+      <c r="D377" s="2">
         <v>75</v>
       </c>
-      <c r="E377" s="1">
+      <c r="E377" s="2">
         <v>1.4147241327601812</v>
       </c>
       <c r="F377" s="1">
@@ -18271,10 +18276,10 @@
       <c r="C378" t="s">
         <v>39</v>
       </c>
-      <c r="D378" s="1">
+      <c r="D378" s="2">
         <v>358.55</v>
       </c>
-      <c r="E378" s="1">
+      <c r="E378" s="2">
         <v>16.531885118193969</v>
       </c>
       <c r="F378" s="1">
@@ -18312,10 +18317,10 @@
       <c r="C379" t="s">
         <v>12</v>
       </c>
-      <c r="D379" s="1">
+      <c r="D379" s="2">
         <v>131.06</v>
       </c>
-      <c r="E379" s="1">
+      <c r="E379" s="2">
         <v>5.6485956080643884</v>
       </c>
       <c r="F379" s="1">
@@ -18353,10 +18358,10 @@
       <c r="C380" t="s">
         <v>47</v>
       </c>
-      <c r="D380" s="1">
+      <c r="D380" s="2">
         <v>30.56</v>
       </c>
-      <c r="E380" s="1">
+      <c r="E380" s="2">
         <v>-7.3337407686267504</v>
       </c>
       <c r="F380" s="1">
@@ -18394,10 +18399,10 @@
       <c r="C381" t="s">
         <v>14</v>
       </c>
-      <c r="D381" s="1">
+      <c r="D381" s="2">
         <v>100.38</v>
       </c>
-      <c r="E381" s="1">
+      <c r="E381" s="2">
         <v>6.4324002455643514</v>
       </c>
       <c r="G381" s="1">
@@ -18432,10 +18437,10 @@
       <c r="C382" t="s">
         <v>33</v>
       </c>
-      <c r="D382" s="1">
+      <c r="D382" s="2">
         <v>291.14999999999998</v>
       </c>
-      <c r="E382" s="1">
+      <c r="E382" s="2">
         <v>5.7183253404489154</v>
       </c>
       <c r="F382" s="1">
@@ -18473,10 +18478,10 @@
       <c r="C383" t="s">
         <v>25</v>
       </c>
-      <c r="D383" s="1">
+      <c r="D383" s="2">
         <v>103.5</v>
       </c>
-      <c r="E383" s="1">
+      <c r="E383" s="2">
         <v>13.517551003270857</v>
       </c>
       <c r="G383" s="1">
@@ -18511,10 +18516,10 @@
       <c r="C384" t="s">
         <v>19</v>
       </c>
-      <c r="D384" s="1">
+      <c r="D384" s="2">
         <v>131.24</v>
       </c>
-      <c r="E384" s="1">
+      <c r="E384" s="2">
         <v>10.362383584561673</v>
       </c>
       <c r="F384" s="1">
@@ -18552,10 +18557,10 @@
       <c r="C385" t="s">
         <v>21</v>
       </c>
-      <c r="D385" s="1">
+      <c r="D385" s="2">
         <v>149.16999999999999</v>
       </c>
-      <c r="E385" s="1">
+      <c r="E385" s="2">
         <v>13.635056608735741</v>
       </c>
       <c r="F385" s="1">
@@ -18593,10 +18598,10 @@
       <c r="C386" t="s">
         <v>25</v>
       </c>
-      <c r="D386" s="1">
+      <c r="D386" s="2">
         <v>241.46</v>
       </c>
-      <c r="E386" s="1">
+      <c r="E386" s="2">
         <v>20.919251799882765</v>
       </c>
       <c r="G386" s="1">
@@ -18631,10 +18636,10 @@
       <c r="C387" t="s">
         <v>19</v>
       </c>
-      <c r="D387" s="1">
+      <c r="D387" s="2">
         <v>79.760000000000005</v>
       </c>
-      <c r="E387" s="1">
+      <c r="E387" s="2">
         <v>19.252939022371109</v>
       </c>
       <c r="F387" s="1">
@@ -18669,10 +18674,10 @@
       <c r="C388" t="s">
         <v>19</v>
       </c>
-      <c r="D388" s="1">
+      <c r="D388" s="2">
         <v>122</v>
       </c>
-      <c r="E388" s="1">
+      <c r="E388" s="2">
         <v>21.131945172388789</v>
       </c>
       <c r="G388" s="1">
@@ -18707,10 +18712,10 @@
       <c r="C389" t="s">
         <v>19</v>
       </c>
-      <c r="D389" s="1">
+      <c r="D389" s="2">
         <v>102.7</v>
       </c>
-      <c r="E389" s="1">
+      <c r="E389" s="2">
         <v>12.062035473920641</v>
       </c>
       <c r="F389" s="1">
@@ -18745,10 +18750,10 @@
       <c r="C390" t="s">
         <v>39</v>
       </c>
-      <c r="D390" s="1">
+      <c r="D390" s="2">
         <v>64.78</v>
       </c>
-      <c r="E390" s="1">
+      <c r="E390" s="2">
         <v>-31.191304306745238</v>
       </c>
       <c r="G390" s="1">
@@ -18783,10 +18788,10 @@
       <c r="C391" t="s">
         <v>14</v>
       </c>
-      <c r="D391" s="1">
+      <c r="D391" s="2">
         <v>344.67</v>
       </c>
-      <c r="E391" s="1">
+      <c r="E391" s="2">
         <v>16.604736638962937</v>
       </c>
       <c r="G391" s="1">
@@ -18821,10 +18826,10 @@
       <c r="C392" t="s">
         <v>33</v>
       </c>
-      <c r="D392" s="1">
+      <c r="D392" s="2">
         <v>66.14</v>
       </c>
-      <c r="E392" s="1">
+      <c r="E392" s="2">
         <v>2.3768248695943406</v>
       </c>
       <c r="F392" s="1">
@@ -18856,10 +18861,10 @@
       <c r="C393" t="s">
         <v>29</v>
       </c>
-      <c r="D393" s="1">
+      <c r="D393" s="2">
         <v>725.95</v>
       </c>
-      <c r="E393" s="1">
+      <c r="E393" s="2">
         <v>26.780453187172192</v>
       </c>
       <c r="F393" s="1">
@@ -18897,10 +18902,10 @@
       <c r="C394" t="s">
         <v>14</v>
       </c>
-      <c r="D394" s="1">
+      <c r="D394" s="2">
         <v>22.11</v>
       </c>
-      <c r="E394" s="1">
+      <c r="E394" s="2">
         <v>8.2810716144988916</v>
       </c>
       <c r="F394" s="1">
@@ -18938,10 +18943,10 @@
       <c r="C395" t="s">
         <v>21</v>
       </c>
-      <c r="D395" s="1">
+      <c r="D395" s="2">
         <v>77.5</v>
       </c>
-      <c r="E395" s="1">
+      <c r="E395" s="2">
         <v>7.3507384420306909</v>
       </c>
       <c r="F395" s="1">
@@ -18979,10 +18984,10 @@
       <c r="C396" t="s">
         <v>14</v>
       </c>
-      <c r="D396" s="1">
+      <c r="D396" s="2">
         <v>117</v>
       </c>
-      <c r="E396" s="1">
+      <c r="E396" s="2">
         <v>12.156915338353279</v>
       </c>
       <c r="F396" s="1">
@@ -19020,10 +19025,10 @@
       <c r="C397" t="s">
         <v>39</v>
       </c>
-      <c r="D397" s="1">
+      <c r="D397" s="2">
         <v>120.29</v>
       </c>
-      <c r="E397" s="1">
+      <c r="E397" s="2">
         <v>1.1516017064042705</v>
       </c>
       <c r="G397" s="1">
@@ -19058,10 +19063,10 @@
       <c r="C398" t="s">
         <v>29</v>
       </c>
-      <c r="D398" s="1">
+      <c r="D398" s="2">
         <v>230</v>
       </c>
-      <c r="E398" s="1">
+      <c r="E398" s="2">
         <v>10.873967193780153</v>
       </c>
       <c r="F398" s="1">
@@ -19099,10 +19104,10 @@
       <c r="C399" t="s">
         <v>21</v>
       </c>
-      <c r="D399" s="1">
+      <c r="D399" s="2">
         <v>282.94</v>
       </c>
-      <c r="E399" s="1">
+      <c r="E399" s="2">
         <v>6.3774006581097886</v>
       </c>
       <c r="F399" s="1">
@@ -19140,10 +19145,10 @@
       <c r="C400" t="s">
         <v>21</v>
       </c>
-      <c r="D400" s="1">
+      <c r="D400" s="2">
         <v>37.47</v>
       </c>
-      <c r="E400" s="1">
+      <c r="E400" s="2">
         <v>8.9852198725576926</v>
       </c>
       <c r="F400" s="1">
@@ -19181,10 +19186,10 @@
       <c r="C401" t="s">
         <v>19</v>
       </c>
-      <c r="D401" s="1">
+      <c r="D401" s="2">
         <v>445.06</v>
       </c>
-      <c r="E401" s="1">
+      <c r="E401" s="2">
         <v>7.9580111739246284</v>
       </c>
       <c r="F401" s="1">
@@ -19222,10 +19227,10 @@
       <c r="C402" t="s">
         <v>39</v>
       </c>
-      <c r="D402" s="1">
+      <c r="D402" s="2">
         <v>120</v>
       </c>
-      <c r="E402" s="1">
+      <c r="E402" s="2">
         <v>10.401193672643739</v>
       </c>
       <c r="F402" s="1">
@@ -19263,10 +19268,10 @@
       <c r="C403" t="s">
         <v>21</v>
       </c>
-      <c r="D403" s="1">
+      <c r="D403" s="2">
         <v>126.05</v>
       </c>
-      <c r="E403" s="1">
+      <c r="E403" s="2">
         <v>5.2981080417863868</v>
       </c>
       <c r="F403" s="1">
@@ -19304,10 +19309,10 @@
       <c r="C404" t="s">
         <v>21</v>
       </c>
-      <c r="D404" s="1">
+      <c r="D404" s="2">
         <v>98.13</v>
       </c>
-      <c r="E404" s="1">
+      <c r="E404" s="2">
         <v>-9.3274070045864637</v>
       </c>
       <c r="F404" s="1">
@@ -19345,10 +19350,10 @@
       <c r="C405" t="s">
         <v>33</v>
       </c>
-      <c r="D405" s="1">
+      <c r="D405" s="2">
         <v>302.06</v>
       </c>
-      <c r="E405" s="1">
+      <c r="E405" s="2">
         <v>9.9831008721411827</v>
       </c>
       <c r="F405" s="1">
@@ -19386,10 +19391,10 @@
       <c r="C406" t="s">
         <v>14</v>
       </c>
-      <c r="D406" s="1">
+      <c r="D406" s="2">
         <v>117.75</v>
       </c>
-      <c r="E406" s="1">
+      <c r="E406" s="2">
         <v>16.407866102714163</v>
       </c>
       <c r="F406" s="1">
@@ -19427,10 +19432,10 @@
       <c r="C407" t="s">
         <v>39</v>
       </c>
-      <c r="D407" s="1">
+      <c r="D407" s="2">
         <v>107.17</v>
       </c>
-      <c r="E407" s="1">
+      <c r="E407" s="2">
         <v>12.606519021953289</v>
       </c>
       <c r="F407" s="1">
@@ -19468,10 +19473,10 @@
       <c r="C408" t="s">
         <v>14</v>
       </c>
-      <c r="D408" s="1">
+      <c r="D408" s="2">
         <v>80.400000000000006</v>
       </c>
-      <c r="E408" s="1">
+      <c r="E408" s="2">
         <v>10.48061418275401</v>
       </c>
       <c r="F408" s="1">
@@ -19509,10 +19514,10 @@
       <c r="C409" t="s">
         <v>19</v>
       </c>
-      <c r="D409" s="1">
+      <c r="D409" s="2">
         <v>323.39999999999998</v>
       </c>
-      <c r="E409" s="1">
+      <c r="E409" s="2">
         <v>25.796143957474737</v>
       </c>
       <c r="F409" s="1">
@@ -19547,10 +19552,10 @@
       <c r="C410" t="s">
         <v>12</v>
       </c>
-      <c r="D410" s="1">
+      <c r="D410" s="2">
         <v>54.11</v>
       </c>
-      <c r="E410" s="1">
+      <c r="E410" s="2">
         <v>11.090818835010264</v>
       </c>
       <c r="F410" s="1">
@@ -19588,10 +19593,10 @@
       <c r="C411" t="s">
         <v>12</v>
       </c>
-      <c r="D411" s="1">
+      <c r="D411" s="2">
         <v>249.3</v>
       </c>
-      <c r="E411" s="1">
+      <c r="E411" s="2">
         <v>12.042756387055986</v>
       </c>
       <c r="F411" s="1">
@@ -19629,10 +19634,10 @@
       <c r="C412" t="s">
         <v>14</v>
       </c>
-      <c r="D412" s="1">
+      <c r="D412" s="2">
         <v>257</v>
       </c>
-      <c r="E412" s="1">
+      <c r="E412" s="2">
         <v>27.736906095550928</v>
       </c>
       <c r="F412" s="1">
@@ -19670,10 +19675,10 @@
       <c r="C413" t="s">
         <v>27</v>
       </c>
-      <c r="D413" s="1">
+      <c r="D413" s="2">
         <v>153.685</v>
       </c>
-      <c r="E413" s="1">
+      <c r="E413" s="2">
         <v>3.0140074646665127</v>
       </c>
       <c r="F413" s="1">
@@ -19711,10 +19716,10 @@
       <c r="C414" t="s">
         <v>25</v>
       </c>
-      <c r="D414" s="1">
+      <c r="D414" s="2">
         <v>59.31</v>
       </c>
-      <c r="E414" s="1">
+      <c r="E414" s="2">
         <v>-4.3847450273414079</v>
       </c>
       <c r="G414" s="1">
@@ -19749,10 +19754,10 @@
       <c r="C415" t="s">
         <v>21</v>
       </c>
-      <c r="D415" s="1">
+      <c r="D415" s="2">
         <v>246.14</v>
       </c>
-      <c r="E415" s="1">
+      <c r="E415" s="2">
         <v>5.9703138036527381</v>
       </c>
       <c r="F415" s="1">
@@ -19790,10 +19795,10 @@
       <c r="C416" t="s">
         <v>19</v>
       </c>
-      <c r="D416" s="1">
+      <c r="D416" s="2">
         <v>340.64</v>
       </c>
-      <c r="E416" s="1">
+      <c r="E416" s="2">
         <v>12.894474322136841</v>
       </c>
       <c r="G416" s="1">
@@ -19828,10 +19833,10 @@
       <c r="C417" t="s">
         <v>47</v>
       </c>
-      <c r="D417" s="1">
+      <c r="D417" s="2">
         <v>70.02</v>
       </c>
-      <c r="E417" s="1">
+      <c r="E417" s="2">
         <v>0.81174587971653001</v>
       </c>
       <c r="F417" s="1">
@@ -19869,10 +19874,10 @@
       <c r="C418" t="s">
         <v>33</v>
       </c>
-      <c r="D418" s="1">
+      <c r="D418" s="2">
         <v>125.86</v>
       </c>
-      <c r="E418" s="1">
+      <c r="E418" s="2">
         <v>-2.1752080000199681</v>
       </c>
       <c r="F418" s="1">
@@ -19910,10 +19915,10 @@
       <c r="C419" t="s">
         <v>14</v>
       </c>
-      <c r="D419" s="1">
+      <c r="D419" s="2">
         <v>369.17</v>
       </c>
-      <c r="E419" s="1">
+      <c r="E419" s="2">
         <v>9.8498233084114428</v>
       </c>
       <c r="F419" s="1">
@@ -19951,10 +19956,10 @@
       <c r="C420" t="s">
         <v>47</v>
       </c>
-      <c r="D420" s="1">
+      <c r="D420" s="2">
         <v>161.93</v>
       </c>
-      <c r="E420" s="1">
+      <c r="E420" s="2">
         <v>0.26594631861507345</v>
       </c>
       <c r="G420" s="1">
@@ -19989,10 +19994,10 @@
       <c r="C421" t="s">
         <v>29</v>
       </c>
-      <c r="D421" s="1">
+      <c r="D421" s="2">
         <v>199.93</v>
       </c>
-      <c r="E421" s="1">
+      <c r="E421" s="2">
         <v>8.9890837322287087</v>
       </c>
       <c r="G421" s="1">
@@ -20027,10 +20032,10 @@
       <c r="C422" t="s">
         <v>12</v>
       </c>
-      <c r="D422" s="1">
+      <c r="D422" s="2">
         <v>110.91500000000001</v>
       </c>
-      <c r="E422" s="1">
+      <c r="E422" s="2">
         <v>22.961487753294762</v>
       </c>
       <c r="F422" s="1">
@@ -20068,10 +20073,10 @@
       <c r="C423" t="s">
         <v>14</v>
       </c>
-      <c r="D423" s="1">
+      <c r="D423" s="2">
         <v>82.57</v>
       </c>
-      <c r="E423" s="1">
+      <c r="E423" s="2">
         <v>4.6648396878122389</v>
       </c>
       <c r="F423" s="1">
@@ -20109,10 +20114,10 @@
       <c r="C424" t="s">
         <v>19</v>
       </c>
-      <c r="D424" s="1">
+      <c r="D424" s="2">
         <v>59.42</v>
       </c>
-      <c r="E424" s="1">
+      <c r="E424" s="2">
         <v>7.8126596694242822</v>
       </c>
       <c r="F424" s="1">
@@ -20150,10 +20155,10 @@
       <c r="C425" t="s">
         <v>27</v>
       </c>
-      <c r="D425" s="1">
+      <c r="D425" s="2">
         <v>221.5</v>
       </c>
-      <c r="E425" s="1">
+      <c r="E425" s="2">
         <v>4.6906125743764626</v>
       </c>
       <c r="F425" s="1">
@@ -20191,10 +20196,10 @@
       <c r="C426" t="s">
         <v>21</v>
       </c>
-      <c r="D426" s="1">
+      <c r="D426" s="2">
         <v>90</v>
       </c>
-      <c r="E426" s="1">
+      <c r="E426" s="2">
         <v>4.3817233259398902</v>
       </c>
       <c r="F426" s="1">
@@ -20232,10 +20237,10 @@
       <c r="C427" t="s">
         <v>19</v>
       </c>
-      <c r="D427" s="1">
+      <c r="D427" s="2">
         <v>103.65</v>
       </c>
-      <c r="E427" s="1">
+      <c r="E427" s="2">
         <v>11.260043062769798</v>
       </c>
       <c r="F427" s="1">
@@ -20273,10 +20278,10 @@
       <c r="C428" t="s">
         <v>14</v>
       </c>
-      <c r="D428" s="1">
+      <c r="D428" s="2">
         <v>33.880000000000003</v>
       </c>
-      <c r="E428" s="1">
+      <c r="E428" s="2">
         <v>8.8752030089520382</v>
       </c>
       <c r="F428" s="1">
@@ -20311,10 +20316,10 @@
       <c r="C429" t="s">
         <v>29</v>
       </c>
-      <c r="D429" s="1">
+      <c r="D429" s="2">
         <v>252.14</v>
       </c>
-      <c r="E429" s="1">
+      <c r="E429" s="2">
         <v>8.4330010677842857</v>
       </c>
       <c r="F429" s="1">
@@ -20352,10 +20357,10 @@
       <c r="C430" t="s">
         <v>27</v>
       </c>
-      <c r="D430" s="1">
+      <c r="D430" s="2">
         <v>80.12</v>
       </c>
-      <c r="E430" s="1">
+      <c r="E430" s="2">
         <v>5.6992515916951536</v>
       </c>
       <c r="F430" s="1">
@@ -20393,10 +20398,10 @@
       <c r="C431" t="s">
         <v>17</v>
       </c>
-      <c r="D431" s="1">
+      <c r="D431" s="2">
         <v>19.29</v>
       </c>
-      <c r="E431" s="1">
+      <c r="E431" s="2">
         <v>-2.3659437039285525</v>
       </c>
       <c r="F431" s="1">
@@ -20434,10 +20439,10 @@
       <c r="C432" t="s">
         <v>27</v>
       </c>
-      <c r="D432" s="1">
+      <c r="D432" s="2">
         <v>50.21</v>
       </c>
-      <c r="E432" s="1">
+      <c r="E432" s="2">
         <v>15.49372318783564</v>
       </c>
       <c r="G432" s="1">
@@ -20472,10 +20477,10 @@
       <c r="C433" t="s">
         <v>21</v>
       </c>
-      <c r="D433" s="1">
+      <c r="D433" s="2">
         <v>685.35</v>
       </c>
-      <c r="E433" s="1">
+      <c r="E433" s="2">
         <v>8.1296998281795929</v>
       </c>
       <c r="F433" s="1">
@@ -20513,10 +20518,10 @@
       <c r="C434" t="s">
         <v>19</v>
       </c>
-      <c r="D434" s="1">
+      <c r="D434" s="2">
         <v>419.17</v>
       </c>
-      <c r="E434" s="1">
+      <c r="E434" s="2">
         <v>11.44381838116475</v>
       </c>
       <c r="F434" s="1">
@@ -20554,10 +20559,10 @@
       <c r="C435" t="s">
         <v>29</v>
       </c>
-      <c r="D435" s="1">
+      <c r="D435" s="2">
         <v>80.41</v>
       </c>
-      <c r="E435" s="1">
+      <c r="E435" s="2">
         <v>13.31570786154046</v>
       </c>
       <c r="F435" s="1">
@@ -20595,10 +20600,10 @@
       <c r="C436" t="s">
         <v>19</v>
       </c>
-      <c r="D436" s="1">
+      <c r="D436" s="2">
         <v>125</v>
       </c>
-      <c r="E436" s="1">
+      <c r="E436" s="2">
         <v>7.9881931619014468</v>
       </c>
       <c r="F436" s="1">
@@ -20636,10 +20641,10 @@
       <c r="C437" t="s">
         <v>19</v>
       </c>
-      <c r="D437" s="1">
+      <c r="D437" s="2">
         <v>97.45</v>
       </c>
-      <c r="E437" s="1">
+      <c r="E437" s="2">
         <v>20.999035298178814</v>
       </c>
       <c r="F437" s="1">
@@ -20671,10 +20676,10 @@
       <c r="C438" t="s">
         <v>14</v>
       </c>
-      <c r="D438" s="1">
+      <c r="D438" s="2">
         <v>46.43</v>
       </c>
-      <c r="E438" s="1">
+      <c r="E438" s="2">
         <v>3.7647453053284874</v>
       </c>
       <c r="F438" s="1">
@@ -20712,10 +20717,10 @@
       <c r="C439" t="s">
         <v>29</v>
       </c>
-      <c r="D439" s="1">
+      <c r="D439" s="2">
         <v>241.4</v>
       </c>
-      <c r="E439" s="1">
+      <c r="E439" s="2">
         <v>6.8557599109116074</v>
       </c>
       <c r="F439" s="1">
@@ -20753,10 +20758,10 @@
       <c r="C440" t="s">
         <v>39</v>
       </c>
-      <c r="D440" s="1">
+      <c r="D440" s="2">
         <v>164.1</v>
       </c>
-      <c r="E440" s="1">
+      <c r="E440" s="2">
         <v>12.537751470438451</v>
       </c>
       <c r="F440" s="1">
@@ -20794,10 +20799,10 @@
       <c r="C441" t="s">
         <v>39</v>
       </c>
-      <c r="D441" s="1">
+      <c r="D441" s="2">
         <v>81.760000000000005</v>
       </c>
-      <c r="E441" s="1">
+      <c r="E441" s="2">
         <v>9.8391661347497781</v>
       </c>
       <c r="F441" s="1">
@@ -20835,10 +20840,10 @@
       <c r="C442" t="s">
         <v>29</v>
       </c>
-      <c r="D442" s="1">
+      <c r="D442" s="2">
         <v>592.62</v>
       </c>
-      <c r="E442" s="1">
+      <c r="E442" s="2">
         <v>16.556107222321991</v>
       </c>
       <c r="F442" s="1">
@@ -20876,10 +20881,10 @@
       <c r="C443" t="s">
         <v>17</v>
       </c>
-      <c r="D443" s="1">
+      <c r="D443" s="2">
         <v>145.71</v>
       </c>
-      <c r="E443" s="1">
+      <c r="E443" s="2">
         <v>7.142959624075651</v>
       </c>
       <c r="F443" s="1">
@@ -20914,10 +20919,10 @@
       <c r="C444" t="s">
         <v>39</v>
       </c>
-      <c r="D444" s="1">
+      <c r="D444" s="2">
         <v>43.72</v>
       </c>
-      <c r="E444" s="1">
+      <c r="E444" s="2">
         <v>9.596203652479085</v>
       </c>
       <c r="G444" s="1">
@@ -20952,10 +20957,10 @@
       <c r="C445" t="s">
         <v>25</v>
       </c>
-      <c r="D445" s="1">
+      <c r="D445" s="2">
         <v>75.849999999999994</v>
       </c>
-      <c r="E445" s="1">
+      <c r="E445" s="2">
         <v>11.339744864694467</v>
       </c>
       <c r="G445" s="1">
@@ -20990,10 +20995,10 @@
       <c r="C446" t="s">
         <v>19</v>
       </c>
-      <c r="D446" s="1">
+      <c r="D446" s="2">
         <v>55.86</v>
       </c>
-      <c r="E446" s="1">
+      <c r="E446" s="2">
         <v>9.0695926517878398</v>
       </c>
       <c r="F446" s="1">
@@ -21031,10 +21036,10 @@
       <c r="C447" t="s">
         <v>14</v>
       </c>
-      <c r="D447" s="1">
+      <c r="D447" s="2">
         <v>119.27</v>
       </c>
-      <c r="E447" s="1">
+      <c r="E447" s="2">
         <v>14.502968356445024</v>
       </c>
       <c r="F447" s="1">
@@ -21072,10 +21077,10 @@
       <c r="C448" t="s">
         <v>14</v>
       </c>
-      <c r="D448" s="1">
+      <c r="D448" s="2">
         <v>184.24</v>
       </c>
-      <c r="E448" s="1">
+      <c r="E448" s="2">
         <v>7.8794417555024809</v>
       </c>
       <c r="F448" s="1">
@@ -21113,10 +21118,10 @@
       <c r="C449" t="s">
         <v>39</v>
       </c>
-      <c r="D449" s="1">
+      <c r="D449" s="2">
         <v>219.52</v>
       </c>
-      <c r="E449" s="1">
+      <c r="E449" s="2">
         <v>16.803834689723686</v>
       </c>
       <c r="F449" s="1">
@@ -21154,10 +21159,10 @@
       <c r="C450" t="s">
         <v>39</v>
       </c>
-      <c r="D450" s="1">
+      <c r="D450" s="2">
         <v>134.86000000000001</v>
       </c>
-      <c r="E450" s="1">
+      <c r="E450" s="2">
         <v>41.250902335130782</v>
       </c>
       <c r="G450" s="1">
@@ -21192,10 +21197,10 @@
       <c r="C451" t="s">
         <v>27</v>
       </c>
-      <c r="D451" s="1">
+      <c r="D451" s="2">
         <v>65.41</v>
       </c>
-      <c r="E451" s="1">
+      <c r="E451" s="2">
         <v>2.7460069040482926</v>
       </c>
       <c r="F451" s="1">
@@ -21233,10 +21238,10 @@
       <c r="C452" t="s">
         <v>21</v>
       </c>
-      <c r="D452" s="1">
+      <c r="D452" s="2">
         <v>179.74</v>
       </c>
-      <c r="E452" s="1">
+      <c r="E452" s="2">
         <v>2.2822055520264284</v>
       </c>
       <c r="F452" s="1">
@@ -21274,10 +21279,10 @@
       <c r="C453" t="s">
         <v>17</v>
       </c>
-      <c r="D453" s="1">
+      <c r="D453" s="2">
         <v>104.89</v>
       </c>
-      <c r="E453" s="1">
+      <c r="E453" s="2">
         <v>8.9877974062647858</v>
       </c>
       <c r="G453" s="1">
@@ -21312,10 +21317,10 @@
       <c r="C454" t="s">
         <v>19</v>
       </c>
-      <c r="D454" s="1">
+      <c r="D454" s="2">
         <v>176.44</v>
       </c>
-      <c r="E454" s="1">
+      <c r="E454" s="2">
         <v>8.315940069639872</v>
       </c>
       <c r="F454" s="1">
@@ -21353,10 +21358,10 @@
       <c r="C455" t="s">
         <v>21</v>
       </c>
-      <c r="D455" s="1">
+      <c r="D455" s="2">
         <v>69.36</v>
       </c>
-      <c r="E455" s="1">
+      <c r="E455" s="2">
         <v>1.6456038629358849</v>
       </c>
       <c r="F455" s="1">
@@ -21394,10 +21399,10 @@
       <c r="C456" t="s">
         <v>19</v>
       </c>
-      <c r="D456" s="1">
+      <c r="D456" s="2">
         <v>321.25</v>
       </c>
-      <c r="E456" s="1">
+      <c r="E456" s="2">
         <v>13.447662369733337</v>
       </c>
       <c r="F456" s="1">
@@ -21435,10 +21440,10 @@
       <c r="C457" t="s">
         <v>21</v>
       </c>
-      <c r="D457" s="1">
+      <c r="D457" s="2">
         <v>52.3</v>
       </c>
-      <c r="E457" s="1">
+      <c r="E457" s="2">
         <v>1.7577260148945673</v>
       </c>
       <c r="G457" s="1">
@@ -21467,10 +21472,10 @@
       <c r="C458" t="s">
         <v>33</v>
       </c>
-      <c r="D458" s="1">
+      <c r="D458" s="2">
         <v>40.479999999999997</v>
       </c>
-      <c r="E458" s="1">
+      <c r="E458" s="2">
         <v>3.5106216534069867</v>
       </c>
       <c r="G458" s="1">
@@ -21505,10 +21510,10 @@
       <c r="C459" t="s">
         <v>29</v>
       </c>
-      <c r="D459" s="1">
+      <c r="D459" s="2">
         <v>146.75</v>
       </c>
-      <c r="E459" s="1">
+      <c r="E459" s="2">
         <v>8.804876326642507</v>
       </c>
       <c r="F459" s="1">
@@ -21546,10 +21551,10 @@
       <c r="C460" t="s">
         <v>39</v>
       </c>
-      <c r="D460" s="1">
+      <c r="D460" s="2">
         <v>497.96</v>
       </c>
-      <c r="E460" s="1">
+      <c r="E460" s="2">
         <v>15.326672330624902</v>
       </c>
       <c r="F460" s="1">
@@ -21587,10 +21592,10 @@
       <c r="C461" t="s">
         <v>29</v>
       </c>
-      <c r="D461" s="1">
+      <c r="D461" s="2">
         <v>488.74</v>
       </c>
-      <c r="E461" s="1">
+      <c r="E461" s="2">
         <v>10.335486114815229</v>
       </c>
       <c r="F461" s="1">
@@ -21628,10 +21633,10 @@
       <c r="C462" t="s">
         <v>21</v>
       </c>
-      <c r="D462" s="1">
+      <c r="D462" s="2">
         <v>213.58</v>
       </c>
-      <c r="E462" s="1">
+      <c r="E462" s="2">
         <v>6.8403443338127534</v>
       </c>
       <c r="F462" s="1">
@@ -21669,10 +21674,10 @@
       <c r="C463" t="s">
         <v>21</v>
       </c>
-      <c r="D463" s="1">
+      <c r="D463" s="2">
         <v>179.34</v>
       </c>
-      <c r="E463" s="1">
+      <c r="E463" s="2">
         <v>10.044616394610673</v>
       </c>
       <c r="F463" s="1">
@@ -21710,10 +21715,10 @@
       <c r="C464" t="s">
         <v>21</v>
       </c>
-      <c r="D464" s="1">
+      <c r="D464" s="2">
         <v>391.25</v>
       </c>
-      <c r="E464" s="1">
+      <c r="E464" s="2">
         <v>15.227294798686163</v>
       </c>
       <c r="F464" s="1">
@@ -21751,10 +21756,10 @@
       <c r="C465" t="s">
         <v>14</v>
       </c>
-      <c r="D465" s="1">
+      <c r="D465" s="2">
         <v>46.87</v>
       </c>
-      <c r="E465" s="1">
+      <c r="E465" s="2">
         <v>4.0600519813805969</v>
       </c>
       <c r="F465" s="1">
@@ -21792,10 +21797,10 @@
       <c r="C466" t="s">
         <v>19</v>
       </c>
-      <c r="D466" s="1">
+      <c r="D466" s="2">
         <v>224.57</v>
       </c>
-      <c r="E466" s="1">
+      <c r="E466" s="2">
         <v>12.001195517549789</v>
       </c>
       <c r="F466" s="1">
@@ -21833,10 +21838,10 @@
       <c r="C467" t="s">
         <v>39</v>
       </c>
-      <c r="D467" s="1">
+      <c r="D467" s="2">
         <v>30.8</v>
       </c>
-      <c r="E467" s="1">
+      <c r="E467" s="2">
         <v>0.50567985683351857</v>
       </c>
       <c r="G467" s="1">
@@ -21871,7 +21876,7 @@
       <c r="C468" t="s">
         <v>33</v>
       </c>
-      <c r="D468" s="1">
+      <c r="D468" s="2">
         <v>33.795000000000002</v>
       </c>
       <c r="H468" s="1">
@@ -21897,10 +21902,10 @@
       <c r="C469" t="s">
         <v>25</v>
       </c>
-      <c r="D469" s="1">
+      <c r="D469" s="2">
         <v>139.26</v>
       </c>
-      <c r="E469" s="1">
+      <c r="E469" s="2">
         <v>11.278849837628924</v>
       </c>
       <c r="G469" s="1">
@@ -21935,10 +21940,10 @@
       <c r="C470" t="s">
         <v>12</v>
       </c>
-      <c r="D470" s="1">
+      <c r="D470" s="2">
         <v>182.37</v>
       </c>
-      <c r="E470" s="1">
+      <c r="E470" s="2">
         <v>9.1626620218064438</v>
       </c>
       <c r="F470" s="1">
@@ -21976,10 +21981,10 @@
       <c r="C471" t="s">
         <v>21</v>
       </c>
-      <c r="D471" s="1">
+      <c r="D471" s="2">
         <v>181.95</v>
       </c>
-      <c r="E471" s="1">
+      <c r="E471" s="2">
         <v>9.3348495797402684</v>
       </c>
       <c r="F471" s="1">
@@ -22017,10 +22022,10 @@
       <c r="C472" t="s">
         <v>19</v>
       </c>
-      <c r="D472" s="1">
+      <c r="D472" s="2">
         <v>215.19</v>
       </c>
-      <c r="E472" s="1">
+      <c r="E472" s="2">
         <v>2.1147051159153607</v>
       </c>
       <c r="F472" s="1">
@@ -22058,10 +22063,10 @@
       <c r="C473" t="s">
         <v>29</v>
       </c>
-      <c r="D473" s="1">
+      <c r="D473" s="2">
         <v>311.07</v>
       </c>
-      <c r="E473" s="1">
+      <c r="E473" s="2">
         <v>33.403520050566904</v>
       </c>
       <c r="G473" s="1">
@@ -22096,10 +22101,10 @@
       <c r="C474" t="s">
         <v>33</v>
       </c>
-      <c r="D474" s="1">
+      <c r="D474" s="2">
         <v>49.36</v>
       </c>
-      <c r="E474" s="1">
+      <c r="E474" s="2">
         <v>2.1186648783078077E-2</v>
       </c>
       <c r="F474" s="1">
@@ -22137,10 +22142,10 @@
       <c r="C475" t="s">
         <v>29</v>
       </c>
-      <c r="D475" s="1">
+      <c r="D475" s="2">
         <v>11.73</v>
       </c>
-      <c r="E475" s="1">
+      <c r="E475" s="2">
         <v>-7.2800822074704179</v>
       </c>
       <c r="F475" s="1">
@@ -22178,10 +22183,10 @@
       <c r="C476" t="s">
         <v>17</v>
       </c>
-      <c r="D476" s="1">
+      <c r="D476" s="2">
         <v>40.630000000000003</v>
       </c>
-      <c r="E476" s="1">
+      <c r="E476" s="2">
         <v>0.84948977193985975</v>
       </c>
       <c r="F476" s="1">
@@ -22219,10 +22224,10 @@
       <c r="C477" t="s">
         <v>21</v>
       </c>
-      <c r="D477" s="1">
+      <c r="D477" s="2">
         <v>103.23</v>
       </c>
-      <c r="E477" s="1">
+      <c r="E477" s="2">
         <v>5.1371635464611654</v>
       </c>
       <c r="F477" s="1">
@@ -22260,10 +22265,10 @@
       <c r="C478" t="s">
         <v>29</v>
       </c>
-      <c r="D478" s="1">
+      <c r="D478" s="2">
         <v>332.99</v>
       </c>
-      <c r="E478" s="1">
+      <c r="E478" s="2">
         <v>11.017104342458239</v>
       </c>
       <c r="F478" s="1">
@@ -22301,10 +22306,10 @@
       <c r="C479" t="s">
         <v>27</v>
       </c>
-      <c r="D479" s="1">
+      <c r="D479" s="2">
         <v>36.26</v>
       </c>
-      <c r="E479" s="1">
+      <c r="E479" s="2">
         <v>6.8709878496235444</v>
       </c>
       <c r="G479" s="1">
@@ -22336,10 +22341,10 @@
       <c r="C480" t="s">
         <v>17</v>
       </c>
-      <c r="D480" s="1">
+      <c r="D480" s="2">
         <v>13.17</v>
       </c>
-      <c r="E480" s="1">
+      <c r="E480" s="2">
         <v>8.3878422083946358</v>
       </c>
       <c r="G480" s="1">
@@ -22362,10 +22367,10 @@
       <c r="C481" t="s">
         <v>19</v>
       </c>
-      <c r="D481" s="1">
+      <c r="D481" s="2">
         <v>38.07</v>
       </c>
-      <c r="E481" s="1">
+      <c r="E481" s="2">
         <v>-1.8993314706789888</v>
       </c>
       <c r="G481" s="1">
@@ -22400,10 +22405,10 @@
       <c r="C482" t="s">
         <v>47</v>
       </c>
-      <c r="D482" s="1">
+      <c r="D482" s="2">
         <v>95.05</v>
       </c>
-      <c r="E482" s="1">
+      <c r="E482" s="2">
         <v>2.1755766183477521</v>
       </c>
       <c r="F482" s="1">
@@ -22441,10 +22446,10 @@
       <c r="C483" t="s">
         <v>33</v>
       </c>
-      <c r="D483" s="1">
+      <c r="D483" s="2">
         <v>72.459999999999994</v>
       </c>
-      <c r="E483" s="1">
+      <c r="E483" s="2">
         <v>-1.3601178811855741</v>
       </c>
       <c r="G483" s="1">
@@ -22479,10 +22484,10 @@
       <c r="C484" t="s">
         <v>14</v>
       </c>
-      <c r="D484" s="1">
+      <c r="D484" s="2">
         <v>43.89</v>
       </c>
-      <c r="E484" s="1">
+      <c r="E484" s="2">
         <v>2.0361202382272792</v>
       </c>
       <c r="F484" s="1">
@@ -22520,10 +22525,10 @@
       <c r="C485" t="s">
         <v>39</v>
       </c>
-      <c r="D485" s="1">
+      <c r="D485" s="2">
         <v>154</v>
       </c>
-      <c r="E485" s="1">
+      <c r="E485" s="2">
         <v>5.3936243429797637</v>
       </c>
       <c r="F485" s="1">
@@ -22561,10 +22566,10 @@
       <c r="C486" t="s">
         <v>21</v>
       </c>
-      <c r="D486" s="1">
+      <c r="D486" s="2">
         <v>154.78</v>
       </c>
-      <c r="E486" s="1">
+      <c r="E486" s="2">
         <v>6.8075228294981249</v>
       </c>
       <c r="F486" s="1">
@@ -22602,10 +22607,10 @@
       <c r="C487" t="s">
         <v>25</v>
       </c>
-      <c r="D487" s="1">
+      <c r="D487" s="2">
         <v>32.79</v>
       </c>
-      <c r="E487" s="1">
+      <c r="E487" s="2">
         <v>-2.6265469196847691</v>
       </c>
       <c r="F487" s="1">
@@ -22643,10 +22648,10 @@
       <c r="C488" t="s">
         <v>27</v>
       </c>
-      <c r="D488" s="1">
+      <c r="D488" s="2">
         <v>143.88</v>
       </c>
-      <c r="E488" s="1">
+      <c r="E488" s="2">
         <v>5.5373884988617617</v>
       </c>
       <c r="G488" s="1">
@@ -22681,10 +22686,10 @@
       <c r="C489" t="s">
         <v>14</v>
       </c>
-      <c r="D489" s="1">
+      <c r="D489" s="2">
         <v>71.709999999999994</v>
       </c>
-      <c r="E489" s="1">
+      <c r="E489" s="2">
         <v>4.2070250455144231</v>
       </c>
       <c r="F489" s="1">
@@ -22722,10 +22727,10 @@
       <c r="C490" t="s">
         <v>12</v>
       </c>
-      <c r="D490" s="1">
+      <c r="D490" s="2">
         <v>37.32</v>
       </c>
-      <c r="E490" s="1">
+      <c r="E490" s="2">
         <v>6.8114687682445219</v>
       </c>
       <c r="G490" s="1">
@@ -22757,10 +22762,10 @@
       <c r="C491" t="s">
         <v>29</v>
       </c>
-      <c r="D491" s="1">
+      <c r="D491" s="2">
         <v>253.04</v>
       </c>
-      <c r="E491" s="1">
+      <c r="E491" s="2">
         <v>13.075621833926832</v>
       </c>
       <c r="F491" s="1">
@@ -22798,10 +22803,10 @@
       <c r="C492" t="s">
         <v>14</v>
       </c>
-      <c r="D492" s="1">
+      <c r="D492" s="2">
         <v>254.12</v>
       </c>
-      <c r="E492" s="1">
+      <c r="E492" s="2">
         <v>4.0756061854974934</v>
       </c>
       <c r="G492" s="1">
@@ -22833,10 +22838,10 @@
       <c r="C493" t="s">
         <v>33</v>
       </c>
-      <c r="D493" s="1">
+      <c r="D493" s="2">
         <v>31.61</v>
       </c>
-      <c r="E493" s="1">
+      <c r="E493" s="2">
         <v>8.9701657737847995</v>
       </c>
       <c r="F493" s="1">
@@ -22874,10 +22879,10 @@
       <c r="C494" t="s">
         <v>39</v>
       </c>
-      <c r="D494" s="1">
+      <c r="D494" s="2">
         <v>98.98</v>
       </c>
-      <c r="E494" s="1">
+      <c r="E494" s="2">
         <v>-5.5545888140424822</v>
       </c>
       <c r="G494" s="1">
@@ -22912,10 +22917,10 @@
       <c r="C495" t="s">
         <v>47</v>
       </c>
-      <c r="D495" s="1">
+      <c r="D495" s="2">
         <v>71</v>
       </c>
-      <c r="E495" s="1">
+      <c r="E495" s="2">
         <v>2.6899917287915631</v>
       </c>
       <c r="F495" s="1">
@@ -22950,10 +22955,10 @@
       <c r="C496" t="s">
         <v>25</v>
       </c>
-      <c r="D496" s="1">
+      <c r="D496" s="2">
         <v>113.39</v>
       </c>
-      <c r="E496" s="1">
+      <c r="E496" s="2">
         <v>6.1467454796954479</v>
       </c>
       <c r="G496" s="1">
@@ -22988,10 +22993,10 @@
       <c r="C497" t="s">
         <v>29</v>
       </c>
-      <c r="D497" s="1">
+      <c r="D497" s="2">
         <v>37.090000000000003</v>
       </c>
-      <c r="E497" s="1">
+      <c r="E497" s="2">
         <v>2.5278076091848511</v>
       </c>
       <c r="G497" s="1">
@@ -23026,10 +23031,10 @@
       <c r="C498" t="s">
         <v>21</v>
       </c>
-      <c r="D498" s="1">
+      <c r="D498" s="2">
         <v>116.19</v>
       </c>
-      <c r="E498" s="1">
+      <c r="E498" s="2">
         <v>6.486355547994993</v>
       </c>
       <c r="F498" s="1">
@@ -23067,10 +23072,10 @@
       <c r="C499" t="s">
         <v>39</v>
       </c>
-      <c r="D499" s="1">
+      <c r="D499" s="2">
         <v>131.08000000000001</v>
       </c>
-      <c r="E499" s="1">
+      <c r="E499" s="2">
         <v>6.5636631945773516</v>
       </c>
       <c r="F499" s="1">
@@ -23108,10 +23113,10 @@
       <c r="C500" t="s">
         <v>29</v>
       </c>
-      <c r="D500" s="1">
+      <c r="D500" s="2">
         <v>123.19</v>
       </c>
-      <c r="E500" s="1">
+      <c r="E500" s="2">
         <v>-0.40826714834255595</v>
       </c>
       <c r="F500" s="1">
@@ -23149,10 +23154,10 @@
       <c r="C501" t="s">
         <v>19</v>
       </c>
-      <c r="D501" s="1">
+      <c r="D501" s="2">
         <v>295.8</v>
       </c>
-      <c r="E501" s="1">
+      <c r="E501" s="2">
         <v>8.7265369852844277</v>
       </c>
       <c r="G501" s="1">
@@ -23187,10 +23192,10 @@
       <c r="C502" t="s">
         <v>14</v>
       </c>
-      <c r="D502" s="1">
+      <c r="D502" s="2">
         <v>49.79</v>
       </c>
-      <c r="E502" s="1">
+      <c r="E502" s="2">
         <v>8.9179399619927491</v>
       </c>
       <c r="F502" s="1">
@@ -23228,10 +23233,10 @@
       <c r="C503" t="s">
         <v>29</v>
       </c>
-      <c r="D503" s="1">
+      <c r="D503" s="2">
         <v>161.03</v>
       </c>
-      <c r="E503" s="1">
+      <c r="E503" s="2">
         <v>10.701118339758665</v>
       </c>
       <c r="F503" s="1">

--- a/SPX_Members.xlsx
+++ b/SPX_Members.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://wumail-my.sharepoint.com/personal/boodusami_widener_edu/Documents/Financial Data Science/Data/Bookdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="8_{141E2E33-8D72-448C-84F0-7D97EA696A75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{09F3816F-C22F-42B6-8250-64451373D69E}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{141E2E33-8D72-448C-84F0-7D97EA696A75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19310" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{C23CFBCA-5CD7-4B7D-8124-0D55BA7CA5E0}"/>
+    <workbookView xWindow="2496" yWindow="1092" windowWidth="19176" windowHeight="10056" xr2:uid="{C23CFBCA-5CD7-4B7D-8124-0D55BA7CA5E0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -3166,9 +3166,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="0.000"/>
-    <numFmt numFmtId="165" formatCode="0.0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -3199,12 +3198,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3511,7 +3507,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3521,17 +3517,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70E7F2B0-0F27-4A67-BF25-4CDD575B37D3}">
   <dimension ref="A1:M503"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="M1" sqref="A1:M1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="36.88671875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.21875" customWidth="1"/>
-    <col min="4" max="4" width="9.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="9" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="13" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
@@ -3545,10 +3540,10 @@
       <c r="C1" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>1025</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="F1" s="1" t="s">
@@ -3586,10 +3581,10 @@
       <c r="C2" t="s">
         <v>29</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="1">
         <v>156.47999999999999</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2" s="1">
         <v>10.522150846332723</v>
       </c>
       <c r="F2" s="1">
@@ -3627,10 +3622,10 @@
       <c r="C3" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="1">
         <v>17.574999999999999</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3" s="1">
         <v>-8.6019319085644081</v>
       </c>
       <c r="G3" s="1">
@@ -3662,10 +3657,10 @@
       <c r="C4" t="s">
         <v>39</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="1">
         <v>150</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="1">
         <v>5.7202193104571641</v>
       </c>
       <c r="F4" s="1">
@@ -3703,10 +3698,10 @@
       <c r="C5" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="1">
         <v>137.21</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" s="1">
         <v>17.226922104678266</v>
       </c>
       <c r="F5" s="1">
@@ -3744,10 +3739,10 @@
       <c r="C6" t="s">
         <v>29</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="1">
         <v>151.86000000000001</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6" s="1">
         <v>14.969148397868404</v>
       </c>
       <c r="F6" s="1">
@@ -3785,10 +3780,10 @@
       <c r="C7" t="s">
         <v>29</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="1">
         <v>164.29</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7" s="1">
         <v>10.291107028995672</v>
       </c>
       <c r="G7" s="1">
@@ -3823,10 +3818,10 @@
       <c r="C8" t="s">
         <v>29</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8" s="1">
         <v>113.08</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E8" s="1">
         <v>11.44171224043582</v>
       </c>
       <c r="F8" s="1">
@@ -3864,10 +3859,10 @@
       <c r="C9" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9" s="1">
         <v>63.98</v>
       </c>
-      <c r="E9" s="2">
+      <c r="E9" s="1">
         <v>13.899655315633751</v>
       </c>
       <c r="G9" s="1">
@@ -3902,10 +3897,10 @@
       <c r="C10" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D10" s="1">
         <v>285.10000000000002</v>
       </c>
-      <c r="E10" s="2">
+      <c r="E10" s="1">
         <v>10.4243456974769</v>
       </c>
       <c r="F10" s="1">
@@ -3943,10 +3938,10 @@
       <c r="C11" t="s">
         <v>19</v>
       </c>
-      <c r="D11" s="2">
+      <c r="D11" s="1">
         <v>345.76</v>
       </c>
-      <c r="E11" s="2">
+      <c r="E11" s="1">
         <v>20.423363067265822</v>
       </c>
       <c r="F11" s="1">
@@ -3984,10 +3979,10 @@
       <c r="C12" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="2">
+      <c r="D12" s="1">
         <v>168.62</v>
       </c>
-      <c r="E12" s="2">
+      <c r="E12" s="1">
         <v>9.4290119782086901</v>
       </c>
       <c r="F12" s="1">
@@ -4025,10 +4020,10 @@
       <c r="C13" t="s">
         <v>27</v>
       </c>
-      <c r="D13" s="2">
+      <c r="D13" s="1">
         <v>87.85</v>
       </c>
-      <c r="E13" s="2">
+      <c r="E13" s="1">
         <v>7.3484514768568321</v>
       </c>
       <c r="F13" s="1">
@@ -4066,10 +4061,10 @@
       <c r="C14" t="s">
         <v>19</v>
       </c>
-      <c r="D14" s="2">
+      <c r="D14" s="1">
         <v>237.8</v>
       </c>
-      <c r="E14" s="2">
+      <c r="E14" s="1">
         <v>7.3397542909434899</v>
       </c>
       <c r="F14" s="1">
@@ -4107,10 +4102,10 @@
       <c r="C15" t="s">
         <v>19</v>
       </c>
-      <c r="D15" s="2">
+      <c r="D15" s="1">
         <v>202.36</v>
       </c>
-      <c r="E15" s="2">
+      <c r="E15" s="1">
         <v>16.965476366524857</v>
       </c>
       <c r="G15" s="1">
@@ -4145,10 +4140,10 @@
       <c r="C16" t="s">
         <v>47</v>
       </c>
-      <c r="D16" s="2">
+      <c r="D16" s="1">
         <v>89.52</v>
       </c>
-      <c r="E16" s="2">
+      <c r="E16" s="1">
         <v>-7.8392675992844385E-2</v>
       </c>
       <c r="F16" s="1">
@@ -4186,10 +4181,10 @@
       <c r="C17" t="s">
         <v>47</v>
       </c>
-      <c r="D17" s="2">
+      <c r="D17" s="1">
         <v>95.02</v>
       </c>
-      <c r="E17" s="2">
+      <c r="E17" s="1">
         <v>0.13281191877441145</v>
       </c>
       <c r="F17" s="1">
@@ -4218,10 +4213,10 @@
       <c r="C18" t="s">
         <v>47</v>
       </c>
-      <c r="D18" s="2">
+      <c r="D18" s="1">
         <v>27.71</v>
       </c>
-      <c r="E18" s="2">
+      <c r="E18" s="1">
         <v>1.4359040672157874</v>
       </c>
       <c r="G18" s="1">
@@ -4256,10 +4251,10 @@
       <c r="C19" t="s">
         <v>14</v>
       </c>
-      <c r="D19" s="2">
+      <c r="D19" s="1">
         <v>72.34</v>
       </c>
-      <c r="E19" s="2">
+      <c r="E19" s="1">
         <v>19.079033536906344</v>
       </c>
       <c r="F19" s="1">
@@ -4297,10 +4292,10 @@
       <c r="C20" t="s">
         <v>14</v>
       </c>
-      <c r="D20" s="2">
+      <c r="D20" s="1">
         <v>63.43</v>
       </c>
-      <c r="E20" s="2">
+      <c r="E20" s="1">
         <v>4.8729340715430558</v>
       </c>
       <c r="G20" s="1">
@@ -4335,10 +4330,10 @@
       <c r="C21" t="s">
         <v>14</v>
       </c>
-      <c r="D21" s="2">
+      <c r="D21" s="1">
         <v>128.33000000000001</v>
       </c>
-      <c r="E21" s="2">
+      <c r="E21" s="1">
         <v>6.9780181189778689</v>
       </c>
       <c r="G21" s="1">
@@ -4373,10 +4368,10 @@
       <c r="C22" t="s">
         <v>14</v>
       </c>
-      <c r="D22" s="2">
+      <c r="D22" s="1">
         <v>195.24</v>
       </c>
-      <c r="E22" s="2">
+      <c r="E22" s="1">
         <v>4.8341584134245164</v>
       </c>
       <c r="F22" s="1">
@@ -4414,10 +4409,10 @@
       <c r="C23" t="s">
         <v>19</v>
       </c>
-      <c r="D23" s="2">
+      <c r="D23" s="1">
         <v>88.68</v>
       </c>
-      <c r="E23" s="2">
+      <c r="E23" s="1">
         <v>9.7257369603314778</v>
       </c>
       <c r="F23" s="1">
@@ -4455,10 +4450,10 @@
       <c r="C24" t="s">
         <v>12</v>
       </c>
-      <c r="D24" s="2">
+      <c r="D24" s="1">
         <v>245.03</v>
       </c>
-      <c r="E24" s="2">
+      <c r="E24" s="1">
         <v>3.8158953165227327</v>
       </c>
       <c r="G24" s="1">
@@ -4493,10 +4488,10 @@
       <c r="C25" t="s">
         <v>29</v>
       </c>
-      <c r="D25" s="2">
+      <c r="D25" s="1">
         <v>246.96</v>
       </c>
-      <c r="E25" s="2">
+      <c r="E25" s="1">
         <v>29.935852972240482</v>
       </c>
       <c r="F25" s="1">
@@ -4534,10 +4529,10 @@
       <c r="C26" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="2">
+      <c r="D26" s="1">
         <v>51.22</v>
       </c>
-      <c r="E26" s="2">
+      <c r="E26" s="1">
         <v>0.56887111293117965</v>
       </c>
       <c r="G26" s="1">
@@ -4572,10 +4567,10 @@
       <c r="C27" t="s">
         <v>14</v>
       </c>
-      <c r="D27" s="2">
+      <c r="D27" s="1">
         <v>134.55500000000001</v>
       </c>
-      <c r="E27" s="2">
+      <c r="E27" s="1">
         <v>11.333840097464766</v>
       </c>
       <c r="G27" s="1">
@@ -4610,10 +4605,10 @@
       <c r="C28" t="s">
         <v>21</v>
       </c>
-      <c r="D28" s="2">
+      <c r="D28" s="1">
         <v>113.13</v>
       </c>
-      <c r="E28" s="2">
+      <c r="E28" s="1">
         <v>6.425770537007125</v>
       </c>
       <c r="F28" s="1">
@@ -4648,10 +4643,10 @@
       <c r="C29" t="s">
         <v>19</v>
       </c>
-      <c r="D29" s="2">
+      <c r="D29" s="1">
         <v>111.14</v>
       </c>
-      <c r="E29" s="2">
+      <c r="E29" s="1">
         <v>16.664330184286769</v>
       </c>
       <c r="F29" s="1">
@@ -4689,10 +4684,10 @@
       <c r="C30" t="s">
         <v>12</v>
       </c>
-      <c r="D30" s="2">
+      <c r="D30" s="1">
         <v>12.16</v>
       </c>
-      <c r="E30" s="2">
+      <c r="E30" s="1">
         <v>4.1508424848302861</v>
       </c>
       <c r="G30" s="1">
@@ -4721,10 +4716,10 @@
       <c r="C31" t="s">
         <v>19</v>
       </c>
-      <c r="D31" s="2">
+      <c r="D31" s="1">
         <v>71.91</v>
       </c>
-      <c r="E31" s="2">
+      <c r="E31" s="1">
         <v>21.237549774778429</v>
       </c>
       <c r="F31" s="1">
@@ -4759,10 +4754,10 @@
       <c r="C32" t="s">
         <v>21</v>
       </c>
-      <c r="D32" s="2">
+      <c r="D32" s="1">
         <v>143.79</v>
       </c>
-      <c r="E32" s="2">
+      <c r="E32" s="1">
         <v>7.7828502976184044</v>
       </c>
       <c r="F32" s="1">
@@ -4800,10 +4795,10 @@
       <c r="C33" t="s">
         <v>29</v>
       </c>
-      <c r="D33" s="2">
+      <c r="D33" s="1">
         <v>269.45</v>
       </c>
-      <c r="E33" s="2">
+      <c r="E33" s="1">
         <v>8.197758105749875</v>
       </c>
       <c r="F33" s="1">
@@ -4841,10 +4836,10 @@
       <c r="C34" t="s">
         <v>14</v>
       </c>
-      <c r="D34" s="2">
+      <c r="D34" s="1">
         <v>335.9</v>
       </c>
-      <c r="E34" s="2">
+      <c r="E34" s="1">
         <v>9.9904763826230703</v>
       </c>
       <c r="G34" s="1">
@@ -4879,10 +4874,10 @@
       <c r="C35" t="s">
         <v>33</v>
       </c>
-      <c r="D35" s="2">
+      <c r="D35" s="1">
         <v>231.17</v>
       </c>
-      <c r="E35" s="2">
+      <c r="E35" s="1">
         <v>8.7754918770881254</v>
       </c>
       <c r="F35" s="1">
@@ -4920,10 +4915,10 @@
       <c r="C36" t="s">
         <v>39</v>
       </c>
-      <c r="D36" s="2">
+      <c r="D36" s="1">
         <v>97.63</v>
       </c>
-      <c r="E36" s="2">
+      <c r="E36" s="1">
         <v>26.477349626117007</v>
       </c>
       <c r="F36" s="1">
@@ -4961,10 +4956,10 @@
       <c r="C37" t="s">
         <v>19</v>
       </c>
-      <c r="D37" s="2">
+      <c r="D37" s="1">
         <v>116.95</v>
       </c>
-      <c r="E37" s="2">
+      <c r="E37" s="1">
         <v>18.56555001452427</v>
       </c>
       <c r="F37" s="1">
@@ -4999,10 +4994,10 @@
       <c r="C38" t="s">
         <v>19</v>
       </c>
-      <c r="D38" s="2">
+      <c r="D38" s="1">
         <v>255.64</v>
       </c>
-      <c r="E38" s="2">
+      <c r="E38" s="1">
         <v>14.075256401287618</v>
       </c>
       <c r="F38" s="1">
@@ -5040,10 +5035,10 @@
       <c r="C39" t="s">
         <v>14</v>
       </c>
-      <c r="D39" s="2">
+      <c r="D39" s="1">
         <v>316.67</v>
       </c>
-      <c r="E39" s="2">
+      <c r="E39" s="1">
         <v>9.1068881444612337</v>
       </c>
       <c r="G39" s="1">
@@ -5078,10 +5073,10 @@
       <c r="C40" t="s">
         <v>21</v>
       </c>
-      <c r="D40" s="2">
+      <c r="D40" s="1">
         <v>60.17</v>
       </c>
-      <c r="E40" s="2">
+      <c r="E40" s="1">
         <v>7.3419848682774846</v>
       </c>
       <c r="F40" s="1">
@@ -5119,10 +5114,10 @@
       <c r="C41" t="s">
         <v>25</v>
       </c>
-      <c r="D41" s="2">
+      <c r="D41" s="1">
         <v>45.68</v>
       </c>
-      <c r="E41" s="2">
+      <c r="E41" s="1">
         <v>8.9508759949543215</v>
       </c>
       <c r="G41" s="1">
@@ -5148,10 +5143,10 @@
       <c r="C42" t="s">
         <v>12</v>
       </c>
-      <c r="D42" s="2">
+      <c r="D42" s="1">
         <v>306.26</v>
       </c>
-      <c r="E42" s="2">
+      <c r="E42" s="1">
         <v>8.7778696172884363</v>
       </c>
       <c r="F42" s="1">
@@ -5189,10 +5184,10 @@
       <c r="C43" t="s">
         <v>19</v>
       </c>
-      <c r="D43" s="2">
+      <c r="D43" s="1">
         <v>80.91</v>
       </c>
-      <c r="E43" s="2">
+      <c r="E43" s="1">
         <v>12.277006930751622</v>
       </c>
       <c r="F43" s="1">
@@ -5230,10 +5225,10 @@
       <c r="C44" t="s">
         <v>39</v>
       </c>
-      <c r="D44" s="2">
+      <c r="D44" s="1">
         <v>104.13</v>
       </c>
-      <c r="E44" s="2">
+      <c r="E44" s="1">
         <v>5.1331750878028437</v>
       </c>
       <c r="F44" s="1">
@@ -5271,10 +5266,10 @@
       <c r="C45" t="s">
         <v>33</v>
       </c>
-      <c r="D45" s="2">
+      <c r="D45" s="1">
         <v>156.65</v>
       </c>
-      <c r="E45" s="2">
+      <c r="E45" s="1">
         <v>3.5075001106088743</v>
       </c>
       <c r="G45" s="1">
@@ -5309,10 +5304,10 @@
       <c r="C46" t="s">
         <v>47</v>
       </c>
-      <c r="D46" s="2">
+      <c r="D46" s="1">
         <v>113.7</v>
       </c>
-      <c r="E46" s="2">
+      <c r="E46" s="1">
         <v>3.2250428521633179</v>
       </c>
       <c r="F46" s="1">
@@ -5350,10 +5345,10 @@
       <c r="C47" t="s">
         <v>17</v>
       </c>
-      <c r="D47" s="2">
+      <c r="D47" s="1">
         <v>74.53</v>
       </c>
-      <c r="E47" s="2">
+      <c r="E47" s="1">
         <v>4.8755553794977535</v>
       </c>
       <c r="F47" s="1">
@@ -5391,10 +5386,10 @@
       <c r="C48" t="s">
         <v>33</v>
       </c>
-      <c r="D48" s="2">
+      <c r="D48" s="1">
         <v>170.31</v>
       </c>
-      <c r="E48" s="2">
+      <c r="E48" s="1">
         <v>1.9230019792686681</v>
       </c>
       <c r="F48" s="1">
@@ -5432,10 +5427,10 @@
       <c r="C49" t="s">
         <v>19</v>
       </c>
-      <c r="D49" s="2">
+      <c r="D49" s="1">
         <v>583.42999999999995</v>
       </c>
-      <c r="E49" s="2">
+      <c r="E49" s="1">
         <v>13.266580673417483</v>
       </c>
       <c r="F49" s="1">
@@ -5473,10 +5468,10 @@
       <c r="C50" t="s">
         <v>12</v>
       </c>
-      <c r="D50" s="2">
+      <c r="D50" s="1">
         <v>193.9</v>
       </c>
-      <c r="E50" s="2">
+      <c r="E50" s="1">
         <v>8.2262845303824541</v>
       </c>
       <c r="F50" s="1">
@@ -5514,10 +5509,10 @@
       <c r="C51" t="s">
         <v>47</v>
       </c>
-      <c r="D51" s="2">
+      <c r="D51" s="1">
         <v>158.46</v>
       </c>
-      <c r="E51" s="2">
+      <c r="E51" s="1">
         <v>3.0843695428574236</v>
       </c>
       <c r="F51" s="1">
@@ -5555,10 +5550,10 @@
       <c r="C52" t="s">
         <v>14</v>
       </c>
-      <c r="D52" s="2">
+      <c r="D52" s="1">
         <v>154.47</v>
       </c>
-      <c r="E52" s="2">
+      <c r="E52" s="1">
         <v>6.8090978410276337</v>
       </c>
       <c r="F52" s="1">
@@ -5596,10 +5591,10 @@
       <c r="C53" t="s">
         <v>39</v>
       </c>
-      <c r="D53" s="2">
+      <c r="D53" s="1">
         <v>2355.88</v>
       </c>
-      <c r="E53" s="2">
+      <c r="E53" s="1">
         <v>16.111034179473684</v>
       </c>
       <c r="F53" s="1">
@@ -5637,10 +5632,10 @@
       <c r="C54" t="s">
         <v>21</v>
       </c>
-      <c r="D54" s="2">
+      <c r="D54" s="1">
         <v>211.98</v>
       </c>
-      <c r="E54" s="2">
+      <c r="E54" s="1">
         <v>-6.3587660720058725</v>
       </c>
       <c r="G54" s="1">
@@ -5675,10 +5670,10 @@
       <c r="C55" t="s">
         <v>14</v>
       </c>
-      <c r="D55" s="2">
+      <c r="D55" s="1">
         <v>34.03</v>
       </c>
-      <c r="E55" s="2">
+      <c r="E55" s="1">
         <v>7.5943218709813465</v>
       </c>
       <c r="F55" s="1">
@@ -5716,10 +5711,10 @@
       <c r="C56" t="s">
         <v>12</v>
       </c>
-      <c r="D56" s="2">
+      <c r="D56" s="1">
         <v>57.3</v>
       </c>
-      <c r="E56" s="2">
+      <c r="E56" s="1">
         <v>8.1572106124750974</v>
       </c>
       <c r="F56" s="1">
@@ -5757,10 +5752,10 @@
       <c r="C57" t="s">
         <v>29</v>
       </c>
-      <c r="D57" s="2">
+      <c r="D57" s="1">
         <v>44.71</v>
       </c>
-      <c r="E57" s="2">
+      <c r="E57" s="1">
         <v>6.4698770108107651</v>
       </c>
       <c r="G57" s="1">
@@ -5795,10 +5790,10 @@
       <c r="C58" t="s">
         <v>39</v>
       </c>
-      <c r="D58" s="2">
+      <c r="D58" s="1">
         <v>46.45</v>
       </c>
-      <c r="E58" s="2">
+      <c r="E58" s="1">
         <v>-7.7539926650454394</v>
       </c>
       <c r="G58" s="1">
@@ -5833,10 +5828,10 @@
       <c r="C59" t="s">
         <v>39</v>
       </c>
-      <c r="D59" s="2">
+      <c r="D59" s="1">
         <v>85.76</v>
       </c>
-      <c r="E59" s="2">
+      <c r="E59" s="1">
         <v>11.134149479204147</v>
       </c>
       <c r="F59" s="1">
@@ -5874,10 +5869,10 @@
       <c r="C60" t="s">
         <v>29</v>
       </c>
-      <c r="D60" s="2">
+      <c r="D60" s="1">
         <v>255.02</v>
       </c>
-      <c r="E60" s="2">
+      <c r="E60" s="1">
         <v>3.6915309248696904</v>
       </c>
       <c r="G60" s="1">
@@ -5912,10 +5907,10 @@
       <c r="C61" t="s">
         <v>14</v>
       </c>
-      <c r="D61" s="2">
+      <c r="D61" s="1">
         <v>29.9</v>
       </c>
-      <c r="E61" s="2">
+      <c r="E61" s="1">
         <v>8.1607002056715228</v>
       </c>
       <c r="G61" s="1">
@@ -5950,10 +5945,10 @@
       <c r="C62" t="s">
         <v>27</v>
       </c>
-      <c r="D62" s="2">
+      <c r="D62" s="1">
         <v>67.7</v>
       </c>
-      <c r="E62" s="2">
+      <c r="E62" s="1">
         <v>10.691488595940978</v>
       </c>
       <c r="F62" s="1">
@@ -5991,10 +5986,10 @@
       <c r="C63" t="s">
         <v>29</v>
       </c>
-      <c r="D63" s="2">
+      <c r="D63" s="1">
         <v>289.60000000000002</v>
       </c>
-      <c r="E63" s="2">
+      <c r="E63" s="1">
         <v>7.0377372022018214</v>
       </c>
       <c r="F63" s="1">
@@ -6032,10 +6027,10 @@
       <c r="C64" t="s">
         <v>29</v>
       </c>
-      <c r="D64" s="2">
+      <c r="D64" s="1">
         <v>457</v>
       </c>
-      <c r="E64" s="2">
+      <c r="E64" s="1">
         <v>6.8781454403762154</v>
       </c>
       <c r="G64" s="1">
@@ -6070,10 +6065,10 @@
       <c r="C65" t="s">
         <v>14</v>
       </c>
-      <c r="D65" s="2">
+      <c r="D65" s="1">
         <v>49.68</v>
       </c>
-      <c r="E65" s="2">
+      <c r="E65" s="1">
         <v>8.9368679642444437</v>
       </c>
       <c r="F65" s="1">
@@ -6111,10 +6106,10 @@
       <c r="C66" t="s">
         <v>39</v>
       </c>
-      <c r="D66" s="2">
+      <c r="D66" s="1">
         <v>2360</v>
       </c>
-      <c r="E66" s="2">
+      <c r="E66" s="1">
         <v>4.227096158388477</v>
       </c>
       <c r="F66" s="1">
@@ -6152,10 +6147,10 @@
       <c r="C67" t="s">
         <v>25</v>
       </c>
-      <c r="D67" s="2">
+      <c r="D67" s="1">
         <v>31.99</v>
       </c>
-      <c r="E67" s="2">
+      <c r="E67" s="1">
         <v>-3.7641424919381827</v>
       </c>
       <c r="G67" s="1">
@@ -6181,10 +6176,10 @@
       <c r="C68" t="s">
         <v>14</v>
       </c>
-      <c r="D68" s="2">
+      <c r="D68" s="1">
         <v>754</v>
       </c>
-      <c r="E68" s="2">
+      <c r="E68" s="1">
         <v>7.1447142553916043</v>
       </c>
       <c r="F68" s="1">
@@ -6222,10 +6217,10 @@
       <c r="C69" t="s">
         <v>29</v>
       </c>
-      <c r="D69" s="2">
+      <c r="D69" s="1">
         <v>72.459999999999994</v>
       </c>
-      <c r="E69" s="2">
+      <c r="E69" s="1">
         <v>12.42941279946872</v>
       </c>
       <c r="F69" s="1">
@@ -6263,10 +6258,10 @@
       <c r="C70" t="s">
         <v>19</v>
       </c>
-      <c r="D70" s="2">
+      <c r="D70" s="1">
         <v>145.71</v>
       </c>
-      <c r="E70" s="2">
+      <c r="E70" s="1">
         <v>6.8614739399206703</v>
       </c>
       <c r="F70" s="1">
@@ -6304,10 +6299,10 @@
       <c r="C71" t="s">
         <v>14</v>
       </c>
-      <c r="D71" s="2">
+      <c r="D71" s="1">
         <v>314.86</v>
       </c>
-      <c r="E71" s="2">
+      <c r="E71" s="1">
         <v>11.557393402429849</v>
       </c>
       <c r="G71" s="1">
@@ -6342,10 +6337,10 @@
       <c r="C72" t="s">
         <v>14</v>
       </c>
-      <c r="D72" s="2">
+      <c r="D72" s="1">
         <v>61.26</v>
       </c>
-      <c r="E72" s="2">
+      <c r="E72" s="1">
         <v>11.245855898436474</v>
       </c>
       <c r="F72" s="1">
@@ -6383,10 +6378,10 @@
       <c r="C73" t="s">
         <v>29</v>
       </c>
-      <c r="D73" s="2">
+      <c r="D73" s="1">
         <v>45.95</v>
       </c>
-      <c r="E73" s="2">
+      <c r="E73" s="1">
         <v>6.2348261502428892</v>
       </c>
       <c r="G73" s="1">
@@ -6421,10 +6416,10 @@
       <c r="C74" t="s">
         <v>39</v>
       </c>
-      <c r="D74" s="2">
+      <c r="D74" s="1">
         <v>44.66</v>
       </c>
-      <c r="E74" s="2">
+      <c r="E74" s="1">
         <v>8.0504508072365191</v>
       </c>
       <c r="F74" s="1">
@@ -6462,10 +6457,10 @@
       <c r="C75" t="s">
         <v>33</v>
       </c>
-      <c r="D75" s="2">
+      <c r="D75" s="1">
         <v>71.77</v>
       </c>
-      <c r="E75" s="2">
+      <c r="E75" s="1">
         <v>2.2011816111715765</v>
       </c>
       <c r="F75" s="1">
@@ -6503,10 +6498,10 @@
       <c r="C76" t="s">
         <v>14</v>
       </c>
-      <c r="D76" s="2">
+      <c r="D76" s="1">
         <v>49.96</v>
       </c>
-      <c r="E76" s="2">
+      <c r="E76" s="1">
         <v>9.510332889398331</v>
       </c>
       <c r="G76" s="1">
@@ -6541,10 +6536,10 @@
       <c r="C77" t="s">
         <v>27</v>
       </c>
-      <c r="D77" s="2">
+      <c r="D77" s="1">
         <v>39.909999999999997</v>
       </c>
-      <c r="E77" s="2">
+      <c r="E77" s="1">
         <v>5.7953215777271527</v>
       </c>
       <c r="F77" s="1">
@@ -6582,10 +6577,10 @@
       <c r="C78" t="s">
         <v>29</v>
       </c>
-      <c r="D78" s="2">
+      <c r="D78" s="1">
         <v>76.239999999999995</v>
       </c>
-      <c r="E78" s="2">
+      <c r="E78" s="1">
         <v>9.6550394365000578</v>
       </c>
       <c r="G78" s="1">
@@ -6620,7 +6615,7 @@
       <c r="C79" t="s">
         <v>21</v>
       </c>
-      <c r="D79" s="2">
+      <c r="D79" s="1">
         <v>45.33</v>
       </c>
       <c r="H79" s="1">
@@ -6643,10 +6638,10 @@
       <c r="C80" t="s">
         <v>21</v>
       </c>
-      <c r="D80" s="2">
+      <c r="D80" s="1">
         <v>257.87</v>
       </c>
-      <c r="E80" s="2">
+      <c r="E80" s="1">
         <v>7.2744872921182369</v>
       </c>
       <c r="F80" s="1">
@@ -6684,10 +6679,10 @@
       <c r="C81" t="s">
         <v>14</v>
       </c>
-      <c r="D81" s="2">
+      <c r="D81" s="1">
         <v>223.92</v>
       </c>
-      <c r="E81" s="2">
+      <c r="E81" s="1">
         <v>6.4739889983399745</v>
       </c>
       <c r="G81" s="1">
@@ -6722,10 +6717,10 @@
       <c r="C82" t="s">
         <v>14</v>
       </c>
-      <c r="D82" s="2">
+      <c r="D82" s="1">
         <v>125.03</v>
       </c>
-      <c r="E82" s="2">
+      <c r="E82" s="1">
         <v>14.669160375560253</v>
       </c>
       <c r="F82" s="1">
@@ -6760,10 +6755,10 @@
       <c r="C83" t="s">
         <v>33</v>
       </c>
-      <c r="D83" s="2">
+      <c r="D83" s="1">
         <v>84.92</v>
       </c>
-      <c r="E83" s="2">
+      <c r="E83" s="1">
         <v>16.257680343789161</v>
       </c>
       <c r="F83" s="1">
@@ -6801,10 +6796,10 @@
       <c r="C84" t="s">
         <v>33</v>
       </c>
-      <c r="D84" s="2">
+      <c r="D84" s="1">
         <v>150.62</v>
       </c>
-      <c r="E84" s="2">
+      <c r="E84" s="1">
         <v>4.9594739611089844</v>
       </c>
       <c r="F84" s="1">
@@ -6842,10 +6837,10 @@
       <c r="C85" t="s">
         <v>39</v>
       </c>
-      <c r="D85" s="2">
+      <c r="D85" s="1">
         <v>11.06</v>
       </c>
-      <c r="E85" s="2">
+      <c r="E85" s="1">
         <v>-15.72133472584315</v>
       </c>
       <c r="G85" s="1">
@@ -6880,10 +6875,10 @@
       <c r="C86" t="s">
         <v>19</v>
       </c>
-      <c r="D86" s="2">
+      <c r="D86" s="1">
         <v>67.739999999999995</v>
       </c>
-      <c r="E86" s="2">
+      <c r="E86" s="1">
         <v>-8.8715616476978667</v>
       </c>
       <c r="G86" s="1">
@@ -6912,10 +6907,10 @@
       <c r="C87" t="s">
         <v>19</v>
       </c>
-      <c r="D87" s="2">
+      <c r="D87" s="1">
         <v>174.28</v>
       </c>
-      <c r="E87" s="2">
+      <c r="E87" s="1">
         <v>11.347482133005116</v>
       </c>
       <c r="F87" s="1">
@@ -6953,10 +6948,10 @@
       <c r="C88" t="s">
         <v>19</v>
       </c>
-      <c r="D88" s="2">
+      <c r="D88" s="1">
         <v>198.75</v>
       </c>
-      <c r="E88" s="2">
+      <c r="E88" s="1">
         <v>11.957437405419835</v>
       </c>
       <c r="F88" s="1">
@@ -6991,10 +6986,10 @@
       <c r="C89" t="s">
         <v>12</v>
       </c>
-      <c r="D89" s="2">
+      <c r="D89" s="1">
         <v>120.84</v>
       </c>
-      <c r="E89" s="2">
+      <c r="E89" s="1">
         <v>15.599782228852611</v>
       </c>
       <c r="F89" s="1">
@@ -7032,7 +7027,7 @@
       <c r="C90" t="s">
         <v>47</v>
       </c>
-      <c r="D90" s="2">
+      <c r="D90" s="1">
         <v>83.26</v>
       </c>
       <c r="H90" s="1">
@@ -7052,10 +7047,10 @@
       <c r="C91" t="s">
         <v>12</v>
       </c>
-      <c r="D91" s="2">
+      <c r="D91" s="1">
         <v>86.52</v>
       </c>
-      <c r="E91" s="2">
+      <c r="E91" s="1">
         <v>13.978319000727879</v>
       </c>
       <c r="G91" s="1">
@@ -7090,10 +7085,10 @@
       <c r="C92" t="s">
         <v>14</v>
       </c>
-      <c r="D92" s="2">
+      <c r="D92" s="1">
         <v>40.29</v>
       </c>
-      <c r="E92" s="2">
+      <c r="E92" s="1">
         <v>8.1932112328713345</v>
       </c>
       <c r="F92" s="1">
@@ -7128,10 +7123,10 @@
       <c r="C93" t="s">
         <v>27</v>
       </c>
-      <c r="D93" s="2">
+      <c r="D93" s="1">
         <v>84.51</v>
       </c>
-      <c r="E93" s="2">
+      <c r="E93" s="1">
         <v>9.3413309731379179</v>
       </c>
       <c r="F93" s="1">
@@ -7169,10 +7164,10 @@
       <c r="C94" t="s">
         <v>21</v>
       </c>
-      <c r="D94" s="2">
+      <c r="D94" s="1">
         <v>94.48</v>
       </c>
-      <c r="E94" s="2">
+      <c r="E94" s="1">
         <v>13.615940269482628</v>
       </c>
       <c r="F94" s="1">
@@ -7210,10 +7205,10 @@
       <c r="C95" t="s">
         <v>17</v>
       </c>
-      <c r="D95" s="2">
+      <c r="D95" s="1">
         <v>389.74</v>
       </c>
-      <c r="E95" s="2">
+      <c r="E95" s="1">
         <v>14.913853139293298</v>
       </c>
       <c r="F95" s="1">
@@ -7251,10 +7246,10 @@
       <c r="C96" t="s">
         <v>29</v>
       </c>
-      <c r="D96" s="2">
+      <c r="D96" s="1">
         <v>314.42</v>
       </c>
-      <c r="E96" s="2">
+      <c r="E96" s="1">
         <v>26.983201367192521</v>
       </c>
       <c r="F96" s="1">
@@ -7292,10 +7287,10 @@
       <c r="C97" t="s">
         <v>14</v>
       </c>
-      <c r="D97" s="2">
+      <c r="D97" s="1">
         <v>106.01</v>
       </c>
-      <c r="E97" s="2">
+      <c r="E97" s="1">
         <v>12.545957695431476</v>
       </c>
       <c r="G97" s="1">
@@ -7330,10 +7325,10 @@
       <c r="C98" t="s">
         <v>27</v>
       </c>
-      <c r="D98" s="2">
+      <c r="D98" s="1">
         <v>78.31</v>
       </c>
-      <c r="E98" s="2">
+      <c r="E98" s="1">
         <v>3.8859049042518468</v>
       </c>
       <c r="F98" s="1">
@@ -7371,10 +7366,10 @@
       <c r="C99" t="s">
         <v>27</v>
       </c>
-      <c r="D99" s="2">
+      <c r="D99" s="1">
         <v>146.79</v>
       </c>
-      <c r="E99" s="2">
+      <c r="E99" s="1">
         <v>4.501919412707589</v>
       </c>
       <c r="F99" s="1">
@@ -7412,10 +7407,10 @@
       <c r="C100" t="s">
         <v>14</v>
       </c>
-      <c r="D100" s="2">
+      <c r="D100" s="1">
         <v>67</v>
       </c>
-      <c r="E100" s="2">
+      <c r="E100" s="1">
         <v>5.4136741709302827</v>
       </c>
       <c r="F100" s="1">
@@ -7453,10 +7448,10 @@
       <c r="C101" t="s">
         <v>17</v>
       </c>
-      <c r="D101" s="2">
+      <c r="D101" s="1">
         <v>38.97</v>
       </c>
-      <c r="E101" s="2">
+      <c r="E101" s="1">
         <v>8.6696879299355878</v>
       </c>
       <c r="G101" s="1">
@@ -7491,10 +7486,10 @@
       <c r="C102" t="s">
         <v>14</v>
       </c>
-      <c r="D102" s="2">
+      <c r="D102" s="1">
         <v>175.74</v>
       </c>
-      <c r="E102" s="2">
+      <c r="E102" s="1">
         <v>4.2027233534659869</v>
       </c>
       <c r="F102" s="1">
@@ -7532,10 +7527,10 @@
       <c r="C103" t="s">
         <v>39</v>
       </c>
-      <c r="D103" s="2">
+      <c r="D103" s="1">
         <v>1558.69</v>
       </c>
-      <c r="E103" s="2">
+      <c r="E103" s="1">
         <v>14.993859716025559</v>
       </c>
       <c r="F103" s="1">
@@ -7573,10 +7568,10 @@
       <c r="C104" t="s">
         <v>21</v>
       </c>
-      <c r="D104" s="2">
+      <c r="D104" s="1">
         <v>249.86</v>
       </c>
-      <c r="E104" s="2">
+      <c r="E104" s="1">
         <v>9.9080162596102852</v>
       </c>
       <c r="F104" s="1">
@@ -7614,10 +7609,10 @@
       <c r="C105" t="s">
         <v>47</v>
       </c>
-      <c r="D105" s="2">
+      <c r="D105" s="1">
         <v>63.45</v>
       </c>
-      <c r="E105" s="2">
+      <c r="E105" s="1">
         <v>1.949397401033548</v>
       </c>
       <c r="F105" s="1">
@@ -7655,10 +7650,10 @@
       <c r="C106" t="s">
         <v>29</v>
       </c>
-      <c r="D106" s="2">
+      <c r="D106" s="1">
         <v>76.47</v>
       </c>
-      <c r="E106" s="2">
+      <c r="E106" s="1">
         <v>11.180285900564947</v>
       </c>
       <c r="F106" s="1">
@@ -7696,10 +7691,10 @@
       <c r="C107" t="s">
         <v>47</v>
       </c>
-      <c r="D107" s="2">
+      <c r="D107" s="1">
         <v>31.09</v>
       </c>
-      <c r="E107" s="2">
+      <c r="E107" s="1">
         <v>-4.2129737940515888</v>
       </c>
       <c r="F107" s="1">
@@ -7737,10 +7732,10 @@
       <c r="C108" t="s">
         <v>14</v>
       </c>
-      <c r="D108" s="2">
+      <c r="D108" s="1">
         <v>103.85</v>
       </c>
-      <c r="E108" s="2">
+      <c r="E108" s="1">
         <v>5.8403853123844662</v>
       </c>
       <c r="F108" s="1">
@@ -7778,10 +7773,10 @@
       <c r="C109" t="s">
         <v>29</v>
       </c>
-      <c r="D109" s="2">
+      <c r="D109" s="1">
         <v>345.94</v>
       </c>
-      <c r="E109" s="2">
+      <c r="E109" s="1">
         <v>8.9366042695941736</v>
       </c>
       <c r="F109" s="1">
@@ -7819,10 +7814,10 @@
       <c r="C110" t="s">
         <v>25</v>
       </c>
-      <c r="D110" s="2">
+      <c r="D110" s="1">
         <v>122</v>
       </c>
-      <c r="E110" s="2">
+      <c r="E110" s="1">
         <v>12.713622772045508</v>
       </c>
       <c r="G110" s="1">
@@ -7857,10 +7852,10 @@
       <c r="C111" t="s">
         <v>27</v>
       </c>
-      <c r="D111" s="2">
+      <c r="D111" s="1">
         <v>486.5</v>
       </c>
-      <c r="E111" s="2">
+      <c r="E111" s="1">
         <v>11.692996224769846</v>
       </c>
       <c r="F111" s="1">
@@ -7898,10 +7893,10 @@
       <c r="C112" t="s">
         <v>27</v>
       </c>
-      <c r="D112" s="2">
+      <c r="D112" s="1">
         <v>54.25</v>
       </c>
-      <c r="E112" s="2">
+      <c r="E112" s="1">
         <v>8.2489705233009367</v>
       </c>
       <c r="F112" s="1">
@@ -7939,10 +7934,10 @@
       <c r="C113" t="s">
         <v>21</v>
       </c>
-      <c r="D113" s="2">
+      <c r="D113" s="1">
         <v>63.66</v>
       </c>
-      <c r="E113" s="2">
+      <c r="E113" s="1">
         <v>18.420996384047349</v>
       </c>
       <c r="F113" s="1">
@@ -7980,10 +7975,10 @@
       <c r="C114" t="s">
         <v>33</v>
       </c>
-      <c r="D114" s="2">
+      <c r="D114" s="1">
         <v>117.92</v>
       </c>
-      <c r="E114" s="2">
+      <c r="E114" s="1">
         <v>2.7898586169283313</v>
       </c>
       <c r="F114" s="1">
@@ -8021,10 +8016,10 @@
       <c r="C115" t="s">
         <v>29</v>
       </c>
-      <c r="D115" s="2">
+      <c r="D115" s="1">
         <v>237.7</v>
       </c>
-      <c r="E115" s="2">
+      <c r="E115" s="1">
         <v>14.501888230949845</v>
       </c>
       <c r="F115" s="1">
@@ -8062,10 +8057,10 @@
       <c r="C116" t="s">
         <v>19</v>
       </c>
-      <c r="D116" s="2">
+      <c r="D116" s="1">
         <v>148.54</v>
       </c>
-      <c r="E116" s="2">
+      <c r="E116" s="1">
         <v>17.734122915142294</v>
       </c>
       <c r="G116" s="1">
@@ -8100,10 +8095,10 @@
       <c r="C117" t="s">
         <v>19</v>
       </c>
-      <c r="D117" s="2">
+      <c r="D117" s="1">
         <v>48.145000000000003</v>
       </c>
-      <c r="E117" s="2">
+      <c r="E117" s="1">
         <v>5.2302415042271733</v>
       </c>
       <c r="F117" s="1">
@@ -8141,10 +8136,10 @@
       <c r="C118" t="s">
         <v>21</v>
       </c>
-      <c r="D118" s="2">
+      <c r="D118" s="1">
         <v>80.14</v>
       </c>
-      <c r="E118" s="2">
+      <c r="E118" s="1">
         <v>13.739998222126481</v>
       </c>
       <c r="F118" s="1">
@@ -8182,10 +8177,10 @@
       <c r="C119" t="s">
         <v>21</v>
       </c>
-      <c r="D119" s="2">
+      <c r="D119" s="1">
         <v>32.54</v>
       </c>
-      <c r="E119" s="2">
+      <c r="E119" s="1">
         <v>7.3917211825944795</v>
       </c>
       <c r="F119" s="1">
@@ -8220,10 +8215,10 @@
       <c r="C120" t="s">
         <v>21</v>
       </c>
-      <c r="D120" s="2">
+      <c r="D120" s="1">
         <v>449.71</v>
       </c>
-      <c r="E120" s="2">
+      <c r="E120" s="1">
         <v>8.4629594125922516</v>
       </c>
       <c r="F120" s="1">
@@ -8261,10 +8256,10 @@
       <c r="C121" t="s">
         <v>29</v>
       </c>
-      <c r="D121" s="2">
+      <c r="D121" s="1">
         <v>48.49</v>
       </c>
-      <c r="E121" s="2">
+      <c r="E121" s="1">
         <v>10.555603915634659</v>
       </c>
       <c r="G121" s="1">
@@ -8296,10 +8291,10 @@
       <c r="C122" t="s">
         <v>25</v>
       </c>
-      <c r="D122" s="2">
+      <c r="D122" s="1">
         <v>25.31</v>
       </c>
-      <c r="E122" s="2">
+      <c r="E122" s="1">
         <v>22.070831633038157</v>
       </c>
       <c r="G122" s="1">
@@ -8334,10 +8329,10 @@
       <c r="C123" t="s">
         <v>19</v>
       </c>
-      <c r="D123" s="2">
+      <c r="D123" s="1">
         <v>63.05</v>
       </c>
-      <c r="E123" s="2">
+      <c r="E123" s="1">
         <v>9.5871793090001276</v>
       </c>
       <c r="F123" s="1">
@@ -8375,7 +8370,7 @@
       <c r="C124" t="s">
         <v>12</v>
       </c>
-      <c r="D124" s="2">
+      <c r="D124" s="1">
         <v>62.82</v>
       </c>
       <c r="H124" s="1">
@@ -8401,10 +8396,10 @@
       <c r="C125" t="s">
         <v>29</v>
       </c>
-      <c r="D125" s="2">
+      <c r="D125" s="1">
         <v>89.67</v>
       </c>
-      <c r="E125" s="2">
+      <c r="E125" s="1">
         <v>6.0030567882097374</v>
       </c>
       <c r="G125" s="1">
@@ -8439,10 +8434,10 @@
       <c r="C126" t="s">
         <v>25</v>
       </c>
-      <c r="D126" s="2">
+      <c r="D126" s="1">
         <v>181.35</v>
       </c>
-      <c r="E126" s="2">
+      <c r="E126" s="1">
         <v>8.0451433403145867</v>
       </c>
       <c r="G126" s="1">
@@ -8477,10 +8472,10 @@
       <c r="C127" t="s">
         <v>39</v>
       </c>
-      <c r="D127" s="2">
+      <c r="D127" s="1">
         <v>49.18</v>
       </c>
-      <c r="E127" s="2">
+      <c r="E127" s="1">
         <v>19.027368338504335</v>
       </c>
       <c r="G127" s="1">
@@ -8512,10 +8507,10 @@
       <c r="C128" t="s">
         <v>47</v>
       </c>
-      <c r="D128" s="2">
+      <c r="D128" s="1">
         <v>62.53</v>
       </c>
-      <c r="E128" s="2">
+      <c r="E128" s="1">
         <v>-1.9150661882228914</v>
       </c>
       <c r="F128" s="1">
@@ -8553,10 +8548,10 @@
       <c r="C129" t="s">
         <v>21</v>
       </c>
-      <c r="D129" s="2">
+      <c r="D129" s="1">
         <v>38.979999999999997</v>
       </c>
-      <c r="E129" s="2">
+      <c r="E129" s="1">
         <v>6.7709060728454507</v>
       </c>
       <c r="G129" s="1">
@@ -8591,10 +8586,10 @@
       <c r="C130" t="s">
         <v>12</v>
       </c>
-      <c r="D130" s="2">
+      <c r="D130" s="1">
         <v>74.989999999999995</v>
       </c>
-      <c r="E130" s="2">
+      <c r="E130" s="1">
         <v>-20.354409126843453</v>
       </c>
       <c r="G130" s="1">
@@ -8629,10 +8624,10 @@
       <c r="C131" t="s">
         <v>21</v>
       </c>
-      <c r="D131" s="2">
+      <c r="D131" s="1">
         <v>440.19</v>
       </c>
-      <c r="E131" s="2">
+      <c r="E131" s="1">
         <v>13.154940886229905</v>
       </c>
       <c r="F131" s="1">
@@ -8670,10 +8665,10 @@
       <c r="C132" t="s">
         <v>14</v>
       </c>
-      <c r="D132" s="2">
+      <c r="D132" s="1">
         <v>105.59</v>
       </c>
-      <c r="E132" s="2">
+      <c r="E132" s="1">
         <v>11.200457828749366</v>
       </c>
       <c r="F132" s="1">
@@ -8711,10 +8706,10 @@
       <c r="C133" t="s">
         <v>39</v>
       </c>
-      <c r="D133" s="2">
+      <c r="D133" s="1">
         <v>232.11</v>
       </c>
-      <c r="E133" s="2">
+      <c r="E133" s="1">
         <v>13.324739765955984</v>
       </c>
       <c r="F133" s="1">
@@ -8752,10 +8747,10 @@
       <c r="C134" t="s">
         <v>29</v>
       </c>
-      <c r="D134" s="2">
+      <c r="D134" s="1">
         <v>146.99</v>
       </c>
-      <c r="E134" s="2">
+      <c r="E134" s="1">
         <v>9.962851977903032</v>
       </c>
       <c r="F134" s="1">
@@ -8793,10 +8788,10 @@
       <c r="C135" t="s">
         <v>39</v>
       </c>
-      <c r="D135" s="2">
+      <c r="D135" s="1">
         <v>97.11</v>
       </c>
-      <c r="E135" s="2">
+      <c r="E135" s="1">
         <v>20.386619268600214</v>
       </c>
       <c r="F135" s="1">
@@ -8834,10 +8829,10 @@
       <c r="C136" t="s">
         <v>29</v>
       </c>
-      <c r="D136" s="2">
+      <c r="D136" s="1">
         <v>274.77999999999997</v>
       </c>
-      <c r="E136" s="2">
+      <c r="E136" s="1">
         <v>11.031757393100804</v>
       </c>
       <c r="F136" s="1">
@@ -8875,10 +8870,10 @@
       <c r="C137" t="s">
         <v>17</v>
       </c>
-      <c r="D137" s="2">
+      <c r="D137" s="1">
         <v>99.76</v>
       </c>
-      <c r="E137" s="2">
+      <c r="E137" s="1">
         <v>5.2434595784749405</v>
       </c>
       <c r="G137" s="1">
@@ -8913,10 +8908,10 @@
       <c r="C138" t="s">
         <v>17</v>
       </c>
-      <c r="D138" s="2">
+      <c r="D138" s="1">
         <v>14.65</v>
       </c>
-      <c r="E138" s="2">
+      <c r="E138" s="1">
         <v>0.77197652525096139</v>
       </c>
       <c r="F138" s="1">
@@ -8954,10 +8949,10 @@
       <c r="C139" t="s">
         <v>33</v>
       </c>
-      <c r="D139" s="2">
+      <c r="D139" s="1">
         <v>106.68</v>
       </c>
-      <c r="E139" s="2">
+      <c r="E139" s="1">
         <v>1.8737075175162099</v>
       </c>
       <c r="G139" s="1">
@@ -8992,10 +8987,10 @@
       <c r="C140" t="s">
         <v>39</v>
       </c>
-      <c r="D140" s="2">
+      <c r="D140" s="1">
         <v>148.46</v>
       </c>
-      <c r="E140" s="2">
+      <c r="E140" s="1">
         <v>5.611106299157731</v>
       </c>
       <c r="F140" s="1">
@@ -9033,10 +9028,10 @@
       <c r="C141" t="s">
         <v>21</v>
       </c>
-      <c r="D141" s="2">
+      <c r="D141" s="1">
         <v>144.66999999999999</v>
       </c>
-      <c r="E141" s="2">
+      <c r="E141" s="1">
         <v>4.6510059284979199</v>
       </c>
       <c r="F141" s="1">
@@ -9074,10 +9069,10 @@
       <c r="C142" t="s">
         <v>12</v>
       </c>
-      <c r="D142" s="2">
+      <c r="D142" s="1">
         <v>58.18</v>
       </c>
-      <c r="E142" s="2">
+      <c r="E142" s="1">
         <v>6.7813919732024885</v>
       </c>
       <c r="H142" s="1">
@@ -9103,10 +9098,10 @@
       <c r="C143" t="s">
         <v>39</v>
       </c>
-      <c r="D143" s="2">
+      <c r="D143" s="1">
         <v>347.32</v>
       </c>
-      <c r="E143" s="2">
+      <c r="E143" s="1">
         <v>18.173500963390232</v>
       </c>
       <c r="F143" s="1">
@@ -9144,10 +9139,10 @@
       <c r="C144" t="s">
         <v>39</v>
       </c>
-      <c r="D144" s="2">
+      <c r="D144" s="1">
         <v>149.69</v>
       </c>
-      <c r="E144" s="2">
+      <c r="E144" s="1">
         <v>5.4889715962914032</v>
       </c>
       <c r="F144" s="1">
@@ -9185,10 +9180,10 @@
       <c r="C145" t="s">
         <v>47</v>
       </c>
-      <c r="D145" s="2">
+      <c r="D145" s="1">
         <v>117.25</v>
       </c>
-      <c r="E145" s="2">
+      <c r="E145" s="1">
         <v>5.478035212445076</v>
       </c>
       <c r="F145" s="1">
@@ -9226,10 +9221,10 @@
       <c r="C146" t="s">
         <v>47</v>
       </c>
-      <c r="D146" s="2">
+      <c r="D146" s="1">
         <v>104.4</v>
       </c>
-      <c r="E146" s="2">
+      <c r="E146" s="1">
         <v>-0.16906161753670323</v>
       </c>
       <c r="F146" s="1">
@@ -9267,10 +9262,10 @@
       <c r="C147" t="s">
         <v>29</v>
       </c>
-      <c r="D147" s="2">
+      <c r="D147" s="1">
         <v>79.33</v>
       </c>
-      <c r="E147" s="2">
+      <c r="E147" s="1">
         <v>15.766475869189467</v>
       </c>
       <c r="G147" s="1">
@@ -9305,10 +9300,10 @@
       <c r="C148" t="s">
         <v>25</v>
       </c>
-      <c r="D148" s="2">
+      <c r="D148" s="1">
         <v>64.45</v>
       </c>
-      <c r="E148" s="2">
+      <c r="E148" s="1">
         <v>6.6876648131554139</v>
       </c>
       <c r="G148" s="1">
@@ -9343,10 +9338,10 @@
       <c r="C149" t="s">
         <v>19</v>
       </c>
-      <c r="D149" s="2">
+      <c r="D149" s="1">
         <v>29.17</v>
       </c>
-      <c r="E149" s="2">
+      <c r="E149" s="1">
         <v>3.7242766674676187</v>
       </c>
       <c r="G149" s="1">
@@ -9378,10 +9373,10 @@
       <c r="C150" t="s">
         <v>29</v>
       </c>
-      <c r="D150" s="2">
+      <c r="D150" s="1">
         <v>109.57</v>
       </c>
-      <c r="E150" s="2">
+      <c r="E150" s="1">
         <v>29.855274309125534</v>
       </c>
       <c r="G150" s="1">
@@ -9416,10 +9411,10 @@
       <c r="C151" t="s">
         <v>17</v>
       </c>
-      <c r="D151" s="2">
+      <c r="D151" s="1">
         <v>123.77</v>
       </c>
-      <c r="E151" s="2">
+      <c r="E151" s="1">
         <v>9.0119132245787483</v>
       </c>
       <c r="G151" s="1">
@@ -9454,10 +9449,10 @@
       <c r="C152" t="s">
         <v>39</v>
       </c>
-      <c r="D152" s="2">
+      <c r="D152" s="1">
         <v>47.13</v>
       </c>
-      <c r="E152" s="2">
+      <c r="E152" s="1">
         <v>14.259441855364186</v>
       </c>
       <c r="G152" s="1">
@@ -9492,10 +9487,10 @@
       <c r="C153" t="s">
         <v>12</v>
       </c>
-      <c r="D153" s="2">
+      <c r="D153" s="1">
         <v>153.19999999999999</v>
       </c>
-      <c r="E153" s="2">
+      <c r="E153" s="1">
         <v>-0.21986408361247545</v>
       </c>
       <c r="F153" s="1">
@@ -9533,10 +9528,10 @@
       <c r="C154" t="s">
         <v>47</v>
       </c>
-      <c r="D154" s="2">
+      <c r="D154" s="1">
         <v>95.39</v>
       </c>
-      <c r="E154" s="2">
+      <c r="E154" s="1">
         <v>-0.47349651107428947</v>
       </c>
       <c r="F154" s="1">
@@ -9574,10 +9569,10 @@
       <c r="C155" t="s">
         <v>21</v>
       </c>
-      <c r="D155" s="2">
+      <c r="D155" s="1">
         <v>219.09</v>
       </c>
-      <c r="E155" s="2">
+      <c r="E155" s="1">
         <v>8.9100166283471616</v>
       </c>
       <c r="F155" s="1">
@@ -9615,10 +9610,10 @@
       <c r="C156" t="s">
         <v>47</v>
       </c>
-      <c r="D156" s="2">
+      <c r="D156" s="1">
         <v>68.83</v>
       </c>
-      <c r="E156" s="2">
+      <c r="E156" s="1">
         <v>1.5010116399751583</v>
       </c>
       <c r="G156" s="1">
@@ -9653,10 +9648,10 @@
       <c r="C157" t="s">
         <v>27</v>
       </c>
-      <c r="D157" s="2">
+      <c r="D157" s="1">
         <v>267.25</v>
       </c>
-      <c r="E157" s="2">
+      <c r="E157" s="1">
         <v>8.8728334558154653</v>
       </c>
       <c r="F157" s="1">
@@ -9694,10 +9689,10 @@
       <c r="C158" t="s">
         <v>29</v>
       </c>
-      <c r="D158" s="2">
+      <c r="D158" s="1">
         <v>483.59</v>
       </c>
-      <c r="E158" s="2">
+      <c r="E158" s="1">
         <v>11.991428500188439</v>
       </c>
       <c r="F158" s="1">
@@ -9735,10 +9730,10 @@
       <c r="C159" t="s">
         <v>12</v>
       </c>
-      <c r="D159" s="2">
+      <c r="D159" s="1">
         <v>90</v>
       </c>
-      <c r="E159" s="2">
+      <c r="E159" s="1">
         <v>4.8942258006333006</v>
       </c>
       <c r="F159" s="1">
@@ -9776,10 +9771,10 @@
       <c r="C160" t="s">
         <v>21</v>
       </c>
-      <c r="D160" s="2">
+      <c r="D160" s="1">
         <v>91.03</v>
       </c>
-      <c r="E160" s="2">
+      <c r="E160" s="1">
         <v>6.8489373831266187</v>
       </c>
       <c r="F160" s="1">
@@ -9817,10 +9812,10 @@
       <c r="C161" t="s">
         <v>19</v>
       </c>
-      <c r="D161" s="2">
+      <c r="D161" s="1">
         <v>254.74</v>
       </c>
-      <c r="E161" s="2">
+      <c r="E161" s="1">
         <v>10.059623987223798</v>
       </c>
       <c r="G161" s="1">
@@ -9855,10 +9850,10 @@
       <c r="C162" t="s">
         <v>25</v>
       </c>
-      <c r="D162" s="2">
+      <c r="D162" s="1">
         <v>131.49</v>
       </c>
-      <c r="E162" s="2">
+      <c r="E162" s="1">
         <v>19.367233349568046</v>
       </c>
       <c r="G162" s="1">
@@ -9893,10 +9888,10 @@
       <c r="C163" t="s">
         <v>19</v>
       </c>
-      <c r="D163" s="2">
+      <c r="D163" s="1">
         <v>357.63</v>
       </c>
-      <c r="E163" s="2">
+      <c r="E163" s="1">
         <v>23.593531184071747</v>
       </c>
       <c r="F163" s="1">
@@ -9934,10 +9929,10 @@
       <c r="C164" t="s">
         <v>33</v>
       </c>
-      <c r="D164" s="2">
+      <c r="D164" s="1">
         <v>715.85</v>
       </c>
-      <c r="E164" s="2">
+      <c r="E164" s="1">
         <v>7.4886024558739939</v>
       </c>
       <c r="F164" s="1">
@@ -9975,10 +9970,10 @@
       <c r="C165" t="s">
         <v>33</v>
       </c>
-      <c r="D165" s="2">
+      <c r="D165" s="1">
         <v>61.56</v>
       </c>
-      <c r="E165" s="2">
+      <c r="E165" s="1">
         <v>-0.16552045083196854</v>
       </c>
       <c r="F165" s="1">
@@ -10016,10 +10011,10 @@
       <c r="C166" t="s">
         <v>25</v>
       </c>
-      <c r="D166" s="2">
+      <c r="D166" s="1">
         <v>34.659999999999997</v>
       </c>
-      <c r="E166" s="2">
+      <c r="E166" s="1">
         <v>4.7963264134266881</v>
       </c>
       <c r="G166" s="1">
@@ -10054,10 +10049,10 @@
       <c r="C167" t="s">
         <v>47</v>
       </c>
-      <c r="D167" s="2">
+      <c r="D167" s="1">
         <v>84.04</v>
       </c>
-      <c r="E167" s="2">
+      <c r="E167" s="1">
         <v>3.5806794270823783</v>
       </c>
       <c r="F167" s="1">
@@ -10095,10 +10090,10 @@
       <c r="C168" t="s">
         <v>33</v>
       </c>
-      <c r="D168" s="2">
+      <c r="D168" s="1">
         <v>220.08</v>
       </c>
-      <c r="E168" s="2">
+      <c r="E168" s="1">
         <v>2.300604901927672</v>
       </c>
       <c r="F168" s="1">
@@ -10136,10 +10131,10 @@
       <c r="C169" t="s">
         <v>21</v>
       </c>
-      <c r="D169" s="2">
+      <c r="D169" s="1">
         <v>162.70500000000001</v>
       </c>
-      <c r="E169" s="2">
+      <c r="E169" s="1">
         <v>2.5529167493942628</v>
       </c>
       <c r="F169" s="1">
@@ -10177,10 +10172,10 @@
       <c r="C170" t="s">
         <v>47</v>
       </c>
-      <c r="D170" s="2">
+      <c r="D170" s="1">
         <v>106.96</v>
       </c>
-      <c r="E170" s="2">
+      <c r="E170" s="1">
         <v>-0.73294475838366901</v>
       </c>
       <c r="F170" s="1">
@@ -10218,10 +10213,10 @@
       <c r="C171" t="s">
         <v>39</v>
       </c>
-      <c r="D171" s="2">
+      <c r="D171" s="1">
         <v>134.9</v>
       </c>
-      <c r="E171" s="2">
+      <c r="E171" s="1">
         <v>41.618544460423699</v>
       </c>
       <c r="G171" s="1">
@@ -10253,7 +10248,7 @@
       <c r="C172" t="s">
         <v>47</v>
       </c>
-      <c r="D172" s="2">
+      <c r="D172" s="1">
         <v>62.87</v>
       </c>
       <c r="H172" s="1">
@@ -10273,10 +10268,10 @@
       <c r="C173" t="s">
         <v>29</v>
       </c>
-      <c r="D173" s="2">
+      <c r="D173" s="1">
         <v>78.75</v>
       </c>
-      <c r="E173" s="2">
+      <c r="E173" s="1">
         <v>12.599313587414663</v>
       </c>
       <c r="F173" s="1">
@@ -10314,10 +10309,10 @@
       <c r="C174" t="s">
         <v>47</v>
       </c>
-      <c r="D174" s="2">
+      <c r="D174" s="1">
         <v>43.15</v>
       </c>
-      <c r="E174" s="2">
+      <c r="E174" s="1">
         <v>1.8699267391270924</v>
       </c>
       <c r="F174" s="1">
@@ -10349,10 +10344,10 @@
       <c r="C175" t="s">
         <v>21</v>
       </c>
-      <c r="D175" s="2">
+      <c r="D175" s="1">
         <v>108.24</v>
       </c>
-      <c r="E175" s="2">
+      <c r="E175" s="1">
         <v>23.766067261199343</v>
       </c>
       <c r="F175" s="1">
@@ -10390,10 +10385,10 @@
       <c r="C176" t="s">
         <v>39</v>
       </c>
-      <c r="D176" s="2">
+      <c r="D176" s="1">
         <v>108.65</v>
       </c>
-      <c r="E176" s="2">
+      <c r="E176" s="1">
         <v>-0.32037766535452095</v>
       </c>
       <c r="G176" s="1">
@@ -10428,10 +10423,10 @@
       <c r="C177" t="s">
         <v>33</v>
       </c>
-      <c r="D177" s="2">
+      <c r="D177" s="1">
         <v>153</v>
       </c>
-      <c r="E177" s="2">
+      <c r="E177" s="1">
         <v>8.3235439111096774</v>
       </c>
       <c r="F177" s="1">
@@ -10469,10 +10464,10 @@
       <c r="C178" t="s">
         <v>39</v>
       </c>
-      <c r="D178" s="2">
+      <c r="D178" s="1">
         <v>12.8</v>
       </c>
-      <c r="E178" s="2">
+      <c r="E178" s="1">
         <v>-2.2136337182104282</v>
       </c>
       <c r="G178" s="1">
@@ -10507,10 +10502,10 @@
       <c r="C179" t="s">
         <v>25</v>
       </c>
-      <c r="D179" s="2">
+      <c r="D179" s="1">
         <v>147.375</v>
       </c>
-      <c r="E179" s="2">
+      <c r="E179" s="1">
         <v>34.968632748133956</v>
       </c>
       <c r="G179" s="1">
@@ -10545,10 +10540,10 @@
       <c r="C180" t="s">
         <v>21</v>
       </c>
-      <c r="D180" s="2">
+      <c r="D180" s="1">
         <v>48.23</v>
       </c>
-      <c r="E180" s="2">
+      <c r="E180" s="1">
         <v>8.807081611925959</v>
       </c>
       <c r="F180" s="1">
@@ -10586,10 +10581,10 @@
       <c r="C181" t="s">
         <v>12</v>
       </c>
-      <c r="D181" s="2">
+      <c r="D181" s="1">
         <v>45.3</v>
       </c>
-      <c r="E181" s="2">
+      <c r="E181" s="1">
         <v>6.7299461396228555</v>
       </c>
       <c r="G181" s="1">
@@ -10624,10 +10619,10 @@
       <c r="C182" t="s">
         <v>14</v>
       </c>
-      <c r="D182" s="2">
+      <c r="D182" s="1">
         <v>429.52</v>
       </c>
-      <c r="E182" s="2">
+      <c r="E182" s="1">
         <v>9.4818487059116219</v>
       </c>
       <c r="F182" s="1">
@@ -10665,10 +10660,10 @@
       <c r="C183" t="s">
         <v>21</v>
       </c>
-      <c r="D183" s="2">
+      <c r="D183" s="1">
         <v>188.59</v>
       </c>
-      <c r="E183" s="2">
+      <c r="E183" s="1">
         <v>9.4127213689362286</v>
       </c>
       <c r="F183" s="1">
@@ -10706,10 +10701,10 @@
       <c r="C184" t="s">
         <v>47</v>
       </c>
-      <c r="D184" s="2">
+      <c r="D184" s="1">
         <v>42.954999999999998</v>
       </c>
-      <c r="E184" s="2">
+      <c r="E184" s="1">
         <v>-4.0509888273220547</v>
       </c>
       <c r="G184" s="1">
@@ -10744,10 +10739,10 @@
       <c r="C185" t="s">
         <v>19</v>
       </c>
-      <c r="D185" s="2">
+      <c r="D185" s="1">
         <v>148.13999999999999</v>
       </c>
-      <c r="E185" s="2">
+      <c r="E185" s="1">
         <v>6.5497630588123856</v>
       </c>
       <c r="F185" s="1">
@@ -10785,10 +10780,10 @@
       <c r="C186" t="s">
         <v>19</v>
       </c>
-      <c r="D186" s="2">
+      <c r="D186" s="1">
         <v>71.680000000000007</v>
       </c>
-      <c r="E186" s="2">
+      <c r="E186" s="1">
         <v>-3.620533430694628</v>
       </c>
       <c r="F186" s="1">
@@ -10826,10 +10821,10 @@
       <c r="C187" t="s">
         <v>19</v>
       </c>
-      <c r="D187" s="2">
+      <c r="D187" s="1">
         <v>104.72</v>
       </c>
-      <c r="E187" s="2">
+      <c r="E187" s="1">
         <v>14.406168694678033</v>
       </c>
       <c r="F187" s="1">
@@ -10867,10 +10862,10 @@
       <c r="C188" t="s">
         <v>14</v>
       </c>
-      <c r="D188" s="2">
+      <c r="D188" s="1">
         <v>33.35</v>
       </c>
-      <c r="E188" s="2">
+      <c r="E188" s="1">
         <v>5.4545565439037658</v>
       </c>
       <c r="F188" s="1">
@@ -10908,10 +10903,10 @@
       <c r="C189" t="s">
         <v>19</v>
       </c>
-      <c r="D189" s="2">
+      <c r="D189" s="1">
         <v>195.98</v>
       </c>
-      <c r="E189" s="2">
+      <c r="E189" s="1">
         <v>11.789597415095511</v>
       </c>
       <c r="F189" s="1">
@@ -10949,10 +10944,10 @@
       <c r="C190" t="s">
         <v>12</v>
       </c>
-      <c r="D190" s="2">
+      <c r="D190" s="1">
         <v>129.63</v>
       </c>
-      <c r="E190" s="2">
+      <c r="E190" s="1">
         <v>15.686633138165407</v>
       </c>
       <c r="F190" s="1">
@@ -10990,7 +10985,7 @@
       <c r="C191" t="s">
         <v>17</v>
       </c>
-      <c r="D191" s="2">
+      <c r="D191" s="1">
         <v>29.9</v>
       </c>
       <c r="F191" s="1">
@@ -11022,7 +11017,7 @@
       <c r="C192" t="s">
         <v>17</v>
       </c>
-      <c r="D192" s="2">
+      <c r="D192" s="1">
         <v>31.83</v>
       </c>
       <c r="F192" s="1">
@@ -11054,10 +11049,10 @@
       <c r="C193" t="s">
         <v>14</v>
       </c>
-      <c r="D193" s="2">
+      <c r="D193" s="1">
         <v>130.45500000000001</v>
       </c>
-      <c r="E193" s="2">
+      <c r="E193" s="1">
         <v>15.092619141487052</v>
       </c>
       <c r="F193" s="1">
@@ -11095,10 +11090,10 @@
       <c r="C194" t="s">
         <v>33</v>
       </c>
-      <c r="D194" s="2">
+      <c r="D194" s="1">
         <v>111.49</v>
       </c>
-      <c r="E194" s="2">
+      <c r="E194" s="1">
         <v>1.6929199630901115</v>
       </c>
       <c r="G194" s="1">
@@ -11133,10 +11128,10 @@
       <c r="C195" t="s">
         <v>19</v>
       </c>
-      <c r="D195" s="2">
+      <c r="D195" s="1">
         <v>180.63499999999999</v>
       </c>
-      <c r="E195" s="2">
+      <c r="E195" s="1">
         <v>-0.51931639980286048</v>
       </c>
       <c r="G195" s="1">
@@ -11171,10 +11166,10 @@
       <c r="C196" t="s">
         <v>19</v>
       </c>
-      <c r="D196" s="2">
+      <c r="D196" s="1">
         <v>50.46</v>
       </c>
-      <c r="E196" s="2">
+      <c r="E196" s="1">
         <v>22.616515658187318</v>
       </c>
       <c r="F196" s="1">
@@ -11212,10 +11207,10 @@
       <c r="C197" t="s">
         <v>21</v>
       </c>
-      <c r="D197" s="2">
+      <c r="D197" s="1">
         <v>67.239999999999995</v>
       </c>
-      <c r="E197" s="2">
+      <c r="E197" s="1">
         <v>-0.65249011320759331</v>
       </c>
       <c r="F197" s="1">
@@ -11250,10 +11245,10 @@
       <c r="C198" t="s">
         <v>21</v>
       </c>
-      <c r="D198" s="2">
+      <c r="D198" s="1">
         <v>241.11</v>
       </c>
-      <c r="E198" s="2">
+      <c r="E198" s="1">
         <v>6.4656602256132123</v>
       </c>
       <c r="F198" s="1">
@@ -11291,10 +11286,10 @@
       <c r="C199" t="s">
         <v>21</v>
       </c>
-      <c r="D199" s="2">
+      <c r="D199" s="1">
         <v>80.86</v>
       </c>
-      <c r="E199" s="2">
+      <c r="E199" s="1">
         <v>-8.6270431662653912</v>
       </c>
       <c r="G199" s="1">
@@ -11329,7 +11324,7 @@
       <c r="C200" t="s">
         <v>29</v>
       </c>
-      <c r="D200" s="2">
+      <c r="D200" s="1">
         <v>62.56</v>
       </c>
       <c r="H200" s="1">
@@ -11349,10 +11344,10 @@
       <c r="C201" t="s">
         <v>19</v>
       </c>
-      <c r="D201" s="2">
+      <c r="D201" s="1">
         <v>22.52</v>
       </c>
-      <c r="E201" s="2">
+      <c r="E201" s="1">
         <v>-5.8443684576878425</v>
       </c>
       <c r="G201" s="1">
@@ -11387,10 +11382,10 @@
       <c r="C202" t="s">
         <v>29</v>
       </c>
-      <c r="D202" s="2">
+      <c r="D202" s="1">
         <v>84.814999999999998</v>
       </c>
-      <c r="E202" s="2">
+      <c r="E202" s="1">
         <v>-0.85735898791062803</v>
       </c>
       <c r="G202" s="1">
@@ -11425,10 +11420,10 @@
       <c r="C203" t="s">
         <v>27</v>
       </c>
-      <c r="D203" s="2">
+      <c r="D203" s="1">
         <v>80.944999999999993</v>
       </c>
-      <c r="E203" s="2">
+      <c r="E203" s="1">
         <v>3.2799133450390983</v>
       </c>
       <c r="F203" s="1">
@@ -11466,10 +11461,10 @@
       <c r="C204" t="s">
         <v>14</v>
       </c>
-      <c r="D204" s="2">
+      <c r="D204" s="1">
         <v>120.39</v>
       </c>
-      <c r="E204" s="2">
+      <c r="E204" s="1">
         <v>8.8453424496532929</v>
       </c>
       <c r="F204" s="1">
@@ -11507,10 +11502,10 @@
       <c r="C205" t="s">
         <v>19</v>
       </c>
-      <c r="D205" s="2">
+      <c r="D205" s="1">
         <v>36.32</v>
       </c>
-      <c r="E205" s="2">
+      <c r="E205" s="1">
         <v>13.061232778467669</v>
       </c>
       <c r="F205" s="1">
@@ -11548,10 +11543,10 @@
       <c r="C206" t="s">
         <v>39</v>
       </c>
-      <c r="D206" s="2">
+      <c r="D206" s="1">
         <v>37.22</v>
       </c>
-      <c r="E206" s="2">
+      <c r="E206" s="1">
         <v>-2.0082097487250206</v>
       </c>
       <c r="G206" s="1">
@@ -11586,10 +11581,10 @@
       <c r="C207" t="s">
         <v>21</v>
       </c>
-      <c r="D207" s="2">
+      <c r="D207" s="1">
         <v>115.09</v>
       </c>
-      <c r="E207" s="2">
+      <c r="E207" s="1">
         <v>21.784156409058397</v>
       </c>
       <c r="F207" s="1">
@@ -11627,10 +11622,10 @@
       <c r="C208" t="s">
         <v>17</v>
       </c>
-      <c r="D208" s="2">
+      <c r="D208" s="1">
         <v>92.9</v>
       </c>
-      <c r="E208" s="2">
+      <c r="E208" s="1">
         <v>24.227047211816831</v>
       </c>
       <c r="F208" s="1">
@@ -11665,10 +11660,10 @@
       <c r="C209" t="s">
         <v>17</v>
       </c>
-      <c r="D209" s="2">
+      <c r="D209" s="1">
         <v>92.06</v>
       </c>
-      <c r="E209" s="2">
+      <c r="E209" s="1">
         <v>24.227047211816831</v>
       </c>
       <c r="F209" s="1">
@@ -11706,10 +11701,10 @@
       <c r="C210" t="s">
         <v>39</v>
       </c>
-      <c r="D210" s="2">
+      <c r="D210" s="1">
         <v>168.84</v>
       </c>
-      <c r="E210" s="2">
+      <c r="E210" s="1">
         <v>5.0338372288156519</v>
       </c>
       <c r="F210" s="1">
@@ -11747,10 +11742,10 @@
       <c r="C211" t="s">
         <v>19</v>
       </c>
-      <c r="D211" s="2">
+      <c r="D211" s="1">
         <v>112.68</v>
       </c>
-      <c r="E211" s="2">
+      <c r="E211" s="1">
         <v>5.8601158908826001</v>
       </c>
       <c r="F211" s="1">
@@ -11788,10 +11783,10 @@
       <c r="C212" t="s">
         <v>39</v>
       </c>
-      <c r="D212" s="2">
+      <c r="D212" s="1">
         <v>98.32</v>
       </c>
-      <c r="E212" s="2">
+      <c r="E212" s="1">
         <v>9.9566383512193379</v>
       </c>
       <c r="F212" s="1">
@@ -11823,10 +11818,10 @@
       <c r="C213" t="s">
         <v>14</v>
       </c>
-      <c r="D213" s="2">
+      <c r="D213" s="1">
         <v>349.15</v>
       </c>
-      <c r="E213" s="2">
+      <c r="E213" s="1">
         <v>12.802068237950248</v>
       </c>
       <c r="G213" s="1">
@@ -11861,10 +11856,10 @@
       <c r="C214" t="s">
         <v>21</v>
       </c>
-      <c r="D214" s="2">
+      <c r="D214" s="1">
         <v>573.02</v>
       </c>
-      <c r="E214" s="2">
+      <c r="E214" s="1">
         <v>8.385261641680497</v>
       </c>
       <c r="F214" s="1">
@@ -11902,10 +11897,10 @@
       <c r="C215" t="s">
         <v>25</v>
       </c>
-      <c r="D215" s="2">
+      <c r="D215" s="1">
         <v>43.3</v>
       </c>
-      <c r="E215" s="2">
+      <c r="E215" s="1">
         <v>-1.4562292144625233</v>
       </c>
       <c r="G215" s="1">
@@ -11940,10 +11935,10 @@
       <c r="C216" t="s">
         <v>39</v>
       </c>
-      <c r="D216" s="2">
+      <c r="D216" s="1">
         <v>65.25</v>
       </c>
-      <c r="E216" s="2">
+      <c r="E216" s="1">
         <v>3.0347222666206042</v>
       </c>
       <c r="F216" s="1">
@@ -11981,10 +11976,10 @@
       <c r="C217" t="s">
         <v>14</v>
       </c>
-      <c r="D217" s="2">
+      <c r="D217" s="1">
         <v>14.34</v>
       </c>
-      <c r="E217" s="2">
+      <c r="E217" s="1">
         <v>2.8656479014307346</v>
       </c>
       <c r="F217" s="1">
@@ -12022,10 +12017,10 @@
       <c r="C218" t="s">
         <v>29</v>
       </c>
-      <c r="D218" s="2">
+      <c r="D218" s="1">
         <v>258.68</v>
       </c>
-      <c r="E218" s="2">
+      <c r="E218" s="1">
         <v>10.933918836634081</v>
       </c>
       <c r="F218" s="1">
@@ -12063,10 +12058,10 @@
       <c r="C219" t="s">
         <v>39</v>
       </c>
-      <c r="D219" s="2">
+      <c r="D219" s="1">
         <v>331.17</v>
       </c>
-      <c r="E219" s="2">
+      <c r="E219" s="1">
         <v>13.254188058250559</v>
       </c>
       <c r="F219" s="1">
@@ -12104,10 +12099,10 @@
       <c r="C220" t="s">
         <v>25</v>
       </c>
-      <c r="D220" s="2">
+      <c r="D220" s="1">
         <v>154.5</v>
       </c>
-      <c r="E220" s="2">
+      <c r="E220" s="1">
         <v>9.6086076193122594</v>
       </c>
       <c r="G220" s="1">
@@ -12142,10 +12137,10 @@
       <c r="C221" t="s">
         <v>14</v>
       </c>
-      <c r="D221" s="2">
+      <c r="D221" s="1">
         <v>75.62</v>
       </c>
-      <c r="E221" s="2">
+      <c r="E221" s="1">
         <v>8.8254471811519473</v>
       </c>
       <c r="F221" s="1">
@@ -12183,10 +12178,10 @@
       <c r="C222" t="s">
         <v>21</v>
       </c>
-      <c r="D222" s="2">
+      <c r="D222" s="1">
         <v>221.61</v>
       </c>
-      <c r="E222" s="2">
+      <c r="E222" s="1">
         <v>9.3686195699466559</v>
       </c>
       <c r="F222" s="1">
@@ -12224,10 +12219,10 @@
       <c r="C223" t="s">
         <v>39</v>
       </c>
-      <c r="D223" s="2">
+      <c r="D223" s="1">
         <v>138.22</v>
       </c>
-      <c r="E223" s="2">
+      <c r="E223" s="1">
         <v>-19.126294572266332</v>
       </c>
       <c r="G223" s="1">
@@ -12259,10 +12254,10 @@
       <c r="C224" t="s">
         <v>29</v>
       </c>
-      <c r="D224" s="2">
+      <c r="D224" s="1">
         <v>79.34</v>
       </c>
-      <c r="E224" s="2">
+      <c r="E224" s="1">
         <v>12.078703845335138</v>
       </c>
       <c r="G224" s="1">
@@ -12297,10 +12292,10 @@
       <c r="C225" t="s">
         <v>21</v>
       </c>
-      <c r="D225" s="2">
+      <c r="D225" s="1">
         <v>210.39</v>
       </c>
-      <c r="E225" s="2">
+      <c r="E225" s="1">
         <v>-0.68783221864513466</v>
       </c>
       <c r="F225" s="1">
@@ -12329,10 +12324,10 @@
       <c r="C226" t="s">
         <v>19</v>
       </c>
-      <c r="D226" s="2">
+      <c r="D226" s="1">
         <v>16.305</v>
       </c>
-      <c r="E226" s="2">
+      <c r="E226" s="1">
         <v>4.5108784407660085</v>
       </c>
       <c r="G226" s="1">
@@ -12364,10 +12359,10 @@
       <c r="C227" t="s">
         <v>19</v>
       </c>
-      <c r="D227" s="2">
+      <c r="D227" s="1">
         <v>27.78</v>
       </c>
-      <c r="E227" s="2">
+      <c r="E227" s="1">
         <v>14.494737996653706</v>
       </c>
       <c r="G227" s="1">
@@ -12402,10 +12397,10 @@
       <c r="C228" t="s">
         <v>27</v>
       </c>
-      <c r="D228" s="2">
+      <c r="D228" s="1">
         <v>45.97</v>
       </c>
-      <c r="E228" s="2">
+      <c r="E228" s="1">
         <v>5.6732755916093058</v>
       </c>
       <c r="F228" s="1">
@@ -12443,10 +12438,10 @@
       <c r="C229" t="s">
         <v>29</v>
       </c>
-      <c r="D229" s="2">
+      <c r="D229" s="1">
         <v>80.83</v>
       </c>
-      <c r="E229" s="2">
+      <c r="E229" s="1">
         <v>19.852349864366793</v>
       </c>
       <c r="F229" s="1">
@@ -12484,10 +12479,10 @@
       <c r="C230" t="s">
         <v>33</v>
       </c>
-      <c r="D230" s="2">
+      <c r="D230" s="1">
         <v>17.309999999999999</v>
       </c>
-      <c r="E230" s="2">
+      <c r="E230" s="1">
         <v>-11.053471539145033</v>
       </c>
       <c r="G230" s="1">
@@ -12513,10 +12508,10 @@
       <c r="C231" t="s">
         <v>27</v>
       </c>
-      <c r="D231" s="2">
+      <c r="D231" s="1">
         <v>224.86</v>
       </c>
-      <c r="E231" s="2">
+      <c r="E231" s="1">
         <v>4.5469834736461934</v>
       </c>
       <c r="F231" s="1">
@@ -12554,10 +12549,10 @@
       <c r="C232" t="s">
         <v>29</v>
       </c>
-      <c r="D232" s="2">
+      <c r="D232" s="1">
         <v>491.27</v>
       </c>
-      <c r="E232" s="2">
+      <c r="E232" s="1">
         <v>12.135803218095308</v>
       </c>
       <c r="F232" s="1">
@@ -12595,10 +12590,10 @@
       <c r="C233" t="s">
         <v>21</v>
       </c>
-      <c r="D233" s="2">
+      <c r="D233" s="1">
         <v>40.78</v>
       </c>
-      <c r="E233" s="2">
+      <c r="E233" s="1">
         <v>-16.378184954495101</v>
       </c>
       <c r="F233" s="1">
@@ -12633,10 +12628,10 @@
       <c r="C234" t="s">
         <v>19</v>
       </c>
-      <c r="D234" s="2">
+      <c r="D234" s="1">
         <v>144.44</v>
       </c>
-      <c r="E234" s="2">
+      <c r="E234" s="1">
         <v>-5.2112973665674911</v>
       </c>
       <c r="G234" s="1">
@@ -12671,10 +12666,10 @@
       <c r="C235" t="s">
         <v>14</v>
       </c>
-      <c r="D235" s="2">
+      <c r="D235" s="1">
         <v>108.09</v>
       </c>
-      <c r="E235" s="2">
+      <c r="E235" s="1">
         <v>10.890646183910512</v>
       </c>
       <c r="G235" s="1">
@@ -12709,10 +12704,10 @@
       <c r="C236" t="s">
         <v>29</v>
       </c>
-      <c r="D236" s="2">
+      <c r="D236" s="1">
         <v>486.98</v>
       </c>
-      <c r="E236" s="2">
+      <c r="E236" s="1">
         <v>13.785547405990473</v>
       </c>
       <c r="F236" s="1">
@@ -12750,10 +12745,10 @@
       <c r="C237" t="s">
         <v>21</v>
       </c>
-      <c r="D237" s="2">
+      <c r="D237" s="1">
         <v>238.8</v>
       </c>
-      <c r="E237" s="2">
+      <c r="E237" s="1">
         <v>5.4691965094149531</v>
       </c>
       <c r="F237" s="1">
@@ -12791,10 +12786,10 @@
       <c r="C238" t="s">
         <v>12</v>
       </c>
-      <c r="D238" s="2">
+      <c r="D238" s="1">
         <v>117</v>
       </c>
-      <c r="E238" s="2">
+      <c r="E238" s="1">
         <v>4.1584197836352921</v>
       </c>
       <c r="G238" s="1">
@@ -12829,10 +12824,10 @@
       <c r="C239" t="s">
         <v>29</v>
       </c>
-      <c r="D239" s="2">
+      <c r="D239" s="1">
         <v>207.39</v>
       </c>
-      <c r="E239" s="2">
+      <c r="E239" s="1">
         <v>13.084942041183623</v>
       </c>
       <c r="G239" s="1">
@@ -12867,10 +12862,10 @@
       <c r="C240" t="s">
         <v>29</v>
       </c>
-      <c r="D240" s="2">
+      <c r="D240" s="1">
         <v>81.06</v>
       </c>
-      <c r="E240" s="2">
+      <c r="E240" s="1">
         <v>18.145257879353572</v>
       </c>
       <c r="G240" s="1">
@@ -12905,10 +12900,10 @@
       <c r="C241" t="s">
         <v>19</v>
       </c>
-      <c r="D241" s="2">
+      <c r="D241" s="1">
         <v>29.715</v>
       </c>
-      <c r="E241" s="2">
+      <c r="E241" s="1">
         <v>9.1696561090912176</v>
       </c>
       <c r="F241" s="1">
@@ -12946,10 +12941,10 @@
       <c r="C242" t="s">
         <v>19</v>
       </c>
-      <c r="D242" s="2">
+      <c r="D242" s="1">
         <v>392.11</v>
       </c>
-      <c r="E242" s="2">
+      <c r="E242" s="1">
         <v>17.587071304467727</v>
       </c>
       <c r="G242" s="1">
@@ -12984,7 +12979,7 @@
       <c r="C243" t="s">
         <v>33</v>
       </c>
-      <c r="D243" s="2">
+      <c r="D243" s="1">
         <v>31.8</v>
       </c>
       <c r="G243" s="1">
@@ -13016,10 +13011,10 @@
       <c r="C244" t="s">
         <v>12</v>
       </c>
-      <c r="D244" s="2">
+      <c r="D244" s="1">
         <v>37.64</v>
       </c>
-      <c r="E244" s="2">
+      <c r="E244" s="1">
         <v>0.79838568184420478</v>
       </c>
       <c r="F244" s="1">
@@ -13057,10 +13052,10 @@
       <c r="C245" t="s">
         <v>17</v>
       </c>
-      <c r="D245" s="2">
+      <c r="D245" s="1">
         <v>35.64</v>
       </c>
-      <c r="E245" s="2">
+      <c r="E245" s="1">
         <v>5.7318676625254916</v>
       </c>
       <c r="F245" s="1">
@@ -13098,10 +13093,10 @@
       <c r="C246" t="s">
         <v>29</v>
       </c>
-      <c r="D246" s="2">
+      <c r="D246" s="1">
         <v>222.51</v>
       </c>
-      <c r="E246" s="2">
+      <c r="E246" s="1">
         <v>9.6615317992025496</v>
       </c>
       <c r="F246" s="1">
@@ -13136,10 +13131,10 @@
       <c r="C247" t="s">
         <v>21</v>
       </c>
-      <c r="D247" s="2">
+      <c r="D247" s="1">
         <v>57.04</v>
       </c>
-      <c r="E247" s="2">
+      <c r="E247" s="1">
         <v>9.306521866559736</v>
       </c>
       <c r="F247" s="1">
@@ -13174,10 +13169,10 @@
       <c r="C248" t="s">
         <v>33</v>
       </c>
-      <c r="D248" s="2">
+      <c r="D248" s="1">
         <v>52.61</v>
       </c>
-      <c r="E248" s="2">
+      <c r="E248" s="1">
         <v>1.6984994032860801</v>
       </c>
       <c r="F248" s="1">
@@ -13215,10 +13210,10 @@
       <c r="C249" t="s">
         <v>29</v>
       </c>
-      <c r="D249" s="2">
+      <c r="D249" s="1">
         <v>259.97000000000003</v>
       </c>
-      <c r="E249" s="2">
+      <c r="E249" s="1">
         <v>15.368811497793033</v>
       </c>
       <c r="F249" s="1">
@@ -13256,10 +13251,10 @@
       <c r="C250" t="s">
         <v>19</v>
       </c>
-      <c r="D250" s="2">
+      <c r="D250" s="1">
         <v>335.32</v>
       </c>
-      <c r="E250" s="2">
+      <c r="E250" s="1">
         <v>13.464677496798538</v>
       </c>
       <c r="G250" s="1">
@@ -13294,10 +13289,10 @@
       <c r="C251" t="s">
         <v>21</v>
       </c>
-      <c r="D251" s="2">
+      <c r="D251" s="1">
         <v>232.91</v>
       </c>
-      <c r="E251" s="2">
+      <c r="E251" s="1">
         <v>3.6712212153065193</v>
       </c>
       <c r="F251" s="1">
@@ -13335,10 +13330,10 @@
       <c r="C252" t="s">
         <v>14</v>
       </c>
-      <c r="D252" s="2">
+      <c r="D252" s="1">
         <v>19.25</v>
       </c>
-      <c r="E252" s="2">
+      <c r="E252" s="1">
         <v>5.4667838482598041</v>
       </c>
       <c r="F252" s="1">
@@ -13376,10 +13371,10 @@
       <c r="C253" t="s">
         <v>21</v>
       </c>
-      <c r="D253" s="2">
+      <c r="D253" s="1">
         <v>124.5</v>
       </c>
-      <c r="E253" s="2">
+      <c r="E253" s="1">
         <v>16.94312422970803</v>
       </c>
       <c r="G253" s="1">
@@ -13414,10 +13409,10 @@
       <c r="C254" t="s">
         <v>21</v>
       </c>
-      <c r="D254" s="2">
+      <c r="D254" s="1">
         <v>180.54</v>
       </c>
-      <c r="E254" s="2">
+      <c r="E254" s="1">
         <v>16.572550694827591</v>
       </c>
       <c r="F254" s="1">
@@ -13455,10 +13450,10 @@
       <c r="C255" t="s">
         <v>21</v>
       </c>
-      <c r="D255" s="2">
+      <c r="D255" s="1">
         <v>67.930000000000007</v>
       </c>
-      <c r="E255" s="2">
+      <c r="E255" s="1">
         <v>8.2738146240215258</v>
       </c>
       <c r="F255" s="1">
@@ -13496,10 +13491,10 @@
       <c r="C256" t="s">
         <v>19</v>
       </c>
-      <c r="D256" s="2">
+      <c r="D256" s="1">
         <v>181.99</v>
       </c>
-      <c r="E256" s="2">
+      <c r="E256" s="1">
         <v>7.5879255887757013</v>
       </c>
       <c r="F256" s="1">
@@ -13537,10 +13532,10 @@
       <c r="C257" t="s">
         <v>29</v>
       </c>
-      <c r="D257" s="2">
+      <c r="D257" s="1">
         <v>171.56</v>
       </c>
-      <c r="E257" s="2">
+      <c r="E257" s="1">
         <v>6.2888529592832532</v>
       </c>
       <c r="F257" s="1">
@@ -13578,10 +13573,10 @@
       <c r="C258" t="s">
         <v>19</v>
       </c>
-      <c r="D258" s="2">
+      <c r="D258" s="1">
         <v>32.42</v>
       </c>
-      <c r="E258" s="2">
+      <c r="E258" s="1">
         <v>2.2298555354080207</v>
       </c>
       <c r="F258" s="1">
@@ -13619,10 +13614,10 @@
       <c r="C259" t="s">
         <v>14</v>
       </c>
-      <c r="D259" s="2">
+      <c r="D259" s="1">
         <v>139.6</v>
       </c>
-      <c r="E259" s="2">
+      <c r="E259" s="1">
         <v>10.022542995573126</v>
       </c>
       <c r="F259" s="1">
@@ -13660,10 +13655,10 @@
       <c r="C260" t="s">
         <v>27</v>
       </c>
-      <c r="D260" s="2">
+      <c r="D260" s="1">
         <v>69.3</v>
       </c>
-      <c r="E260" s="2">
+      <c r="E260" s="1">
         <v>2.3409868027388869</v>
       </c>
       <c r="F260" s="1">
@@ -13701,10 +13696,10 @@
       <c r="C261" t="s">
         <v>27</v>
       </c>
-      <c r="D261" s="2">
+      <c r="D261" s="1">
         <v>35.729999999999997</v>
       </c>
-      <c r="E261" s="2">
+      <c r="E261" s="1">
         <v>-23.740329480714294</v>
       </c>
       <c r="F261" s="1">
@@ -13733,10 +13728,10 @@
       <c r="C262" t="s">
         <v>14</v>
       </c>
-      <c r="D262" s="2">
+      <c r="D262" s="1">
         <v>17.72</v>
       </c>
-      <c r="E262" s="2">
+      <c r="E262" s="1">
         <v>6.5649802249552858</v>
       </c>
       <c r="F262" s="1">
@@ -13774,10 +13769,10 @@
       <c r="C263" t="s">
         <v>19</v>
       </c>
-      <c r="D263" s="2">
+      <c r="D263" s="1">
         <v>186.18</v>
       </c>
-      <c r="E263" s="2">
+      <c r="E263" s="1">
         <v>11.190825228296575</v>
       </c>
       <c r="G263" s="1">
@@ -13809,10 +13804,10 @@
       <c r="C264" t="s">
         <v>27</v>
       </c>
-      <c r="D264" s="2">
+      <c r="D264" s="1">
         <v>41.98</v>
       </c>
-      <c r="E264" s="2">
+      <c r="E264" s="1">
         <v>-0.31138797808613061</v>
       </c>
       <c r="F264" s="1">
@@ -13847,10 +13842,10 @@
       <c r="C265" t="s">
         <v>33</v>
       </c>
-      <c r="D265" s="2">
+      <c r="D265" s="1">
         <v>21.99</v>
       </c>
-      <c r="E265" s="2">
+      <c r="E265" s="1">
         <v>-0.7454886397525895</v>
       </c>
       <c r="G265" s="1">
@@ -13885,10 +13880,10 @@
       <c r="C266" t="s">
         <v>19</v>
       </c>
-      <c r="D266" s="2">
+      <c r="D266" s="1">
         <v>423.95</v>
       </c>
-      <c r="E266" s="2">
+      <c r="E266" s="1">
         <v>22.443223245675583</v>
       </c>
       <c r="F266" s="1">
@@ -13926,10 +13921,10 @@
       <c r="C267" t="s">
         <v>27</v>
       </c>
-      <c r="D267" s="2">
+      <c r="D267" s="1">
         <v>136.33000000000001</v>
       </c>
-      <c r="E267" s="2">
+      <c r="E267" s="1">
         <v>2.5234248174160534</v>
       </c>
       <c r="F267" s="1">
@@ -13967,10 +13962,10 @@
       <c r="C268" t="s">
         <v>25</v>
       </c>
-      <c r="D268" s="2">
+      <c r="D268" s="1">
         <v>18.82</v>
       </c>
-      <c r="E268" s="2">
+      <c r="E268" s="1">
         <v>4.5941958131798799</v>
       </c>
       <c r="F268" s="1">
@@ -14008,10 +14003,10 @@
       <c r="C269" t="s">
         <v>39</v>
       </c>
-      <c r="D269" s="2">
+      <c r="D269" s="1">
         <v>68.52</v>
       </c>
-      <c r="E269" s="2">
+      <c r="E269" s="1">
         <v>18.6863283210416</v>
       </c>
       <c r="F269" s="1">
@@ -14049,10 +14044,10 @@
       <c r="C270" t="s">
         <v>27</v>
       </c>
-      <c r="D270" s="2">
+      <c r="D270" s="1">
         <v>61.49</v>
       </c>
-      <c r="E270" s="2">
+      <c r="E270" s="1">
         <v>-1.5727580756241033</v>
       </c>
       <c r="F270" s="1">
@@ -14090,10 +14085,10 @@
       <c r="C271" t="s">
         <v>27</v>
       </c>
-      <c r="D271" s="2">
+      <c r="D271" s="1">
         <v>46.18</v>
       </c>
-      <c r="E271" s="2">
+      <c r="E271" s="1">
         <v>8.6443529502974172</v>
       </c>
       <c r="F271" s="1">
@@ -14131,10 +14126,10 @@
       <c r="C272" t="s">
         <v>14</v>
       </c>
-      <c r="D272" s="2">
+      <c r="D272" s="1">
         <v>59.13</v>
       </c>
-      <c r="E272" s="2">
+      <c r="E272" s="1">
         <v>7.7972662113875657</v>
       </c>
       <c r="F272" s="1">
@@ -14172,10 +14167,10 @@
       <c r="C273" t="s">
         <v>21</v>
       </c>
-      <c r="D273" s="2">
+      <c r="D273" s="1">
         <v>97.234999999999999</v>
       </c>
-      <c r="E273" s="2">
+      <c r="E273" s="1">
         <v>7.1280140007741188</v>
       </c>
       <c r="F273" s="1">
@@ -14213,10 +14208,10 @@
       <c r="C274" t="s">
         <v>39</v>
       </c>
-      <c r="D274" s="2">
+      <c r="D274" s="1">
         <v>100.8</v>
       </c>
-      <c r="E274" s="2">
+      <c r="E274" s="1">
         <v>16.852410085991032</v>
       </c>
       <c r="F274" s="1">
@@ -14254,10 +14249,10 @@
       <c r="C275" t="s">
         <v>29</v>
       </c>
-      <c r="D275" s="2">
+      <c r="D275" s="1">
         <v>255.24</v>
       </c>
-      <c r="E275" s="2">
+      <c r="E275" s="1">
         <v>12.333758203666223</v>
       </c>
       <c r="F275" s="1">
@@ -14295,10 +14290,10 @@
       <c r="C276" t="s">
         <v>21</v>
       </c>
-      <c r="D276" s="2">
+      <c r="D276" s="1">
         <v>194.25</v>
       </c>
-      <c r="E276" s="2">
+      <c r="E276" s="1">
         <v>12.827068050987966</v>
       </c>
       <c r="G276" s="1">
@@ -14333,7 +14328,7 @@
       <c r="C277" t="s">
         <v>12</v>
       </c>
-      <c r="D277" s="2">
+      <c r="D277" s="1">
         <v>333.02</v>
       </c>
       <c r="H277" s="1">
@@ -14365,10 +14360,10 @@
       <c r="C278" t="s">
         <v>39</v>
       </c>
-      <c r="D278" s="2">
+      <c r="D278" s="1">
         <v>57.9</v>
       </c>
-      <c r="E278" s="2">
+      <c r="E278" s="1">
         <v>9.5304724677717658</v>
       </c>
       <c r="F278" s="1">
@@ -14406,10 +14401,10 @@
       <c r="C279" t="s">
         <v>29</v>
       </c>
-      <c r="D279" s="2">
+      <c r="D279" s="1">
         <v>356.42</v>
       </c>
-      <c r="E279" s="2">
+      <c r="E279" s="1">
         <v>9.2601735463255341</v>
       </c>
       <c r="F279" s="1">
@@ -14447,10 +14442,10 @@
       <c r="C280" t="s">
         <v>21</v>
       </c>
-      <c r="D280" s="2">
+      <c r="D280" s="1">
         <v>445.93</v>
       </c>
-      <c r="E280" s="2">
+      <c r="E280" s="1">
         <v>8.9511594425183194</v>
       </c>
       <c r="F280" s="1">
@@ -14488,10 +14483,10 @@
       <c r="C281" t="s">
         <v>14</v>
       </c>
-      <c r="D281" s="2">
+      <c r="D281" s="1">
         <v>31.35</v>
       </c>
-      <c r="E281" s="2">
+      <c r="E281" s="1">
         <v>12.51362117182946</v>
       </c>
       <c r="G281" s="1">
@@ -14526,10 +14521,10 @@
       <c r="C282" t="s">
         <v>47</v>
       </c>
-      <c r="D282" s="2">
+      <c r="D282" s="1">
         <v>54.87</v>
       </c>
-      <c r="E282" s="2">
+      <c r="E282" s="1">
         <v>6.170329912746908E-2</v>
       </c>
       <c r="F282" s="1">
@@ -14561,10 +14556,10 @@
       <c r="C283" t="s">
         <v>39</v>
       </c>
-      <c r="D283" s="2">
+      <c r="D283" s="1">
         <v>212.04</v>
       </c>
-      <c r="E283" s="2">
+      <c r="E283" s="1">
         <v>13.357288442460513</v>
       </c>
       <c r="F283" s="1">
@@ -14602,10 +14597,10 @@
       <c r="C284" t="s">
         <v>19</v>
       </c>
-      <c r="D284" s="2">
+      <c r="D284" s="1">
         <v>478.29</v>
       </c>
-      <c r="E284" s="2">
+      <c r="E284" s="1">
         <v>20.042603724143369</v>
       </c>
       <c r="F284" s="1">
@@ -14643,10 +14638,10 @@
       <c r="C285" t="s">
         <v>17</v>
       </c>
-      <c r="D285" s="2">
+      <c r="D285" s="1">
         <v>5.5949999999999998</v>
       </c>
-      <c r="E285" s="2">
+      <c r="E285" s="1">
         <v>-10.512999292786141</v>
       </c>
       <c r="F285" s="1">
@@ -14684,10 +14679,10 @@
       <c r="C286" t="s">
         <v>21</v>
       </c>
-      <c r="D286" s="2">
+      <c r="D286" s="1">
         <v>37.33</v>
       </c>
-      <c r="E286" s="2">
+      <c r="E286" s="1">
         <v>-4.4624582015712182</v>
       </c>
       <c r="G286" s="1">
@@ -14722,10 +14717,10 @@
       <c r="C287" t="s">
         <v>39</v>
       </c>
-      <c r="D287" s="2">
+      <c r="D287" s="1">
         <v>55</v>
       </c>
-      <c r="E287" s="2">
+      <c r="E287" s="1">
         <v>-17.33002698440891</v>
       </c>
       <c r="G287" s="1">
@@ -14760,10 +14755,10 @@
       <c r="C288" t="s">
         <v>27</v>
       </c>
-      <c r="D288" s="2">
+      <c r="D288" s="1">
         <v>99.53</v>
       </c>
-      <c r="E288" s="2">
+      <c r="E288" s="1">
         <v>5.3740990803455402</v>
       </c>
       <c r="F288" s="1">
@@ -14798,10 +14793,10 @@
       <c r="C289" t="s">
         <v>12</v>
       </c>
-      <c r="D289" s="2">
+      <c r="D289" s="1">
         <v>92.91</v>
       </c>
-      <c r="E289" s="2">
+      <c r="E289" s="1">
         <v>14.695173523742655</v>
       </c>
       <c r="F289" s="1">
@@ -14839,10 +14834,10 @@
       <c r="C290" t="s">
         <v>17</v>
       </c>
-      <c r="D290" s="2">
+      <c r="D290" s="1">
         <v>76.37</v>
       </c>
-      <c r="E290" s="2">
+      <c r="E290" s="1">
         <v>-6.9367684670513015</v>
       </c>
       <c r="G290" s="1">
@@ -14877,10 +14872,10 @@
       <c r="C291" t="s">
         <v>19</v>
       </c>
-      <c r="D291" s="2">
+      <c r="D291" s="1">
         <v>375.59</v>
       </c>
-      <c r="E291" s="2">
+      <c r="E291" s="1">
         <v>14.260563334186527</v>
       </c>
       <c r="F291" s="1">
@@ -14918,10 +14913,10 @@
       <c r="C292" t="s">
         <v>33</v>
       </c>
-      <c r="D292" s="2">
+      <c r="D292" s="1">
         <v>161.54</v>
       </c>
-      <c r="E292" s="2">
+      <c r="E292" s="1">
         <v>1.5742388194646573</v>
       </c>
       <c r="F292" s="1">
@@ -14959,10 +14954,10 @@
       <c r="C293" t="s">
         <v>39</v>
       </c>
-      <c r="D293" s="2">
+      <c r="D293" s="1">
         <v>162.30000000000001</v>
       </c>
-      <c r="E293" s="2">
+      <c r="E293" s="1">
         <v>-6.3165127940948862</v>
       </c>
       <c r="F293" s="1">
@@ -14997,10 +14992,10 @@
       <c r="C294" t="s">
         <v>21</v>
       </c>
-      <c r="D294" s="2">
+      <c r="D294" s="1">
         <v>51.61</v>
       </c>
-      <c r="E294" s="2">
+      <c r="E294" s="1">
         <v>8.2962080381065562</v>
       </c>
       <c r="F294" s="1">
@@ -15038,10 +15033,10 @@
       <c r="C295" t="s">
         <v>39</v>
       </c>
-      <c r="D295" s="2">
+      <c r="D295" s="1">
         <v>273.83</v>
       </c>
-      <c r="E295" s="2">
+      <c r="E295" s="1">
         <v>1.547336660205878</v>
       </c>
       <c r="F295" s="1">
@@ -15079,10 +15074,10 @@
       <c r="C296" t="s">
         <v>19</v>
       </c>
-      <c r="D296" s="2">
+      <c r="D296" s="1">
         <v>75.41</v>
       </c>
-      <c r="E296" s="2">
+      <c r="E296" s="1">
         <v>9.5005930871006061</v>
       </c>
       <c r="F296" s="1">
@@ -15120,10 +15115,10 @@
       <c r="C297" t="s">
         <v>29</v>
       </c>
-      <c r="D297" s="2">
+      <c r="D297" s="1">
         <v>384.27</v>
       </c>
-      <c r="E297" s="2">
+      <c r="E297" s="1">
         <v>14.046386992408433</v>
       </c>
       <c r="G297" s="1">
@@ -15158,10 +15153,10 @@
       <c r="C298" t="s">
         <v>14</v>
       </c>
-      <c r="D298" s="2">
+      <c r="D298" s="1">
         <v>316.73</v>
       </c>
-      <c r="E298" s="2">
+      <c r="E298" s="1">
         <v>12.267881716143968</v>
       </c>
       <c r="F298" s="1">
@@ -15199,10 +15194,10 @@
       <c r="C299" t="s">
         <v>27</v>
       </c>
-      <c r="D299" s="2">
+      <c r="D299" s="1">
         <v>66.739999999999995</v>
       </c>
-      <c r="E299" s="2">
+      <c r="E299" s="1">
         <v>4.205398671674021</v>
       </c>
       <c r="F299" s="1">
@@ -15240,10 +15235,10 @@
       <c r="C300" t="s">
         <v>29</v>
       </c>
-      <c r="D300" s="2">
+      <c r="D300" s="1">
         <v>79.83</v>
       </c>
-      <c r="E300" s="2">
+      <c r="E300" s="1">
         <v>1.8411087443845453</v>
       </c>
       <c r="F300" s="1">
@@ -15281,10 +15276,10 @@
       <c r="C301" t="s">
         <v>14</v>
       </c>
-      <c r="D301" s="2">
+      <c r="D301" s="1">
         <v>71.239999999999995</v>
       </c>
-      <c r="E301" s="2">
+      <c r="E301" s="1">
         <v>8.3261707755657444</v>
       </c>
       <c r="G301" s="1">
@@ -15319,10 +15314,10 @@
       <c r="C302" t="s">
         <v>17</v>
       </c>
-      <c r="D302" s="2">
+      <c r="D302" s="1">
         <v>136.54</v>
       </c>
-      <c r="E302" s="2">
+      <c r="E302" s="1">
         <v>34.119334700804529</v>
       </c>
       <c r="F302" s="1">
@@ -15360,10 +15355,10 @@
       <c r="C303" t="s">
         <v>39</v>
       </c>
-      <c r="D303" s="2">
+      <c r="D303" s="1">
         <v>39.39</v>
       </c>
-      <c r="E303" s="2">
+      <c r="E303" s="1">
         <v>3.7824419862607206</v>
       </c>
       <c r="G303" s="1">
@@ -15398,10 +15393,10 @@
       <c r="C304" t="s">
         <v>39</v>
       </c>
-      <c r="D304" s="2">
+      <c r="D304" s="1">
         <v>112.29</v>
       </c>
-      <c r="E304" s="2">
+      <c r="E304" s="1">
         <v>6.1159400667095687</v>
       </c>
       <c r="G304" s="1">
@@ -15436,10 +15431,10 @@
       <c r="C305" t="s">
         <v>27</v>
       </c>
-      <c r="D305" s="2">
+      <c r="D305" s="1">
         <v>81.040000000000006</v>
       </c>
-      <c r="E305" s="2">
+      <c r="E305" s="1">
         <v>6.2894699568826651</v>
       </c>
       <c r="F305" s="1">
@@ -15477,10 +15472,10 @@
       <c r="C306" t="s">
         <v>14</v>
       </c>
-      <c r="D306" s="2">
+      <c r="D306" s="1">
         <v>329.62</v>
       </c>
-      <c r="E306" s="2">
+      <c r="E306" s="1">
         <v>13.30057320297513</v>
       </c>
       <c r="F306" s="1">
@@ -15518,10 +15513,10 @@
       <c r="C307" t="s">
         <v>12</v>
       </c>
-      <c r="D307" s="2">
+      <c r="D307" s="1">
         <v>355</v>
       </c>
-      <c r="E307" s="2">
+      <c r="E307" s="1">
         <v>7.6434450751041272</v>
       </c>
       <c r="F307" s="1">
@@ -15559,10 +15554,10 @@
       <c r="C308" t="s">
         <v>14</v>
       </c>
-      <c r="D308" s="2">
+      <c r="D308" s="1">
         <v>171.32</v>
       </c>
-      <c r="E308" s="2">
+      <c r="E308" s="1">
         <v>8.9595927194991987</v>
       </c>
       <c r="F308" s="1">
@@ -15600,10 +15595,10 @@
       <c r="C309" t="s">
         <v>21</v>
       </c>
-      <c r="D309" s="2">
+      <c r="D309" s="1">
         <v>126.93</v>
       </c>
-      <c r="E309" s="2">
+      <c r="E309" s="1">
         <v>4.1653273372894262</v>
       </c>
       <c r="F309" s="1">
@@ -15641,10 +15636,10 @@
       <c r="C310" t="s">
         <v>27</v>
       </c>
-      <c r="D310" s="2">
+      <c r="D310" s="1">
         <v>102.73</v>
       </c>
-      <c r="E310" s="2">
+      <c r="E310" s="1">
         <v>15.102592865352161</v>
       </c>
       <c r="F310" s="1">
@@ -15682,10 +15677,10 @@
       <c r="C311" t="s">
         <v>27</v>
       </c>
-      <c r="D311" s="2">
+      <c r="D311" s="1">
         <v>45.05</v>
       </c>
-      <c r="E311" s="2">
+      <c r="E311" s="1">
         <v>2.9249418421029683</v>
       </c>
       <c r="G311" s="1">
@@ -15720,10 +15715,10 @@
       <c r="C312" t="s">
         <v>12</v>
       </c>
-      <c r="D312" s="2">
+      <c r="D312" s="1">
         <v>47.81</v>
       </c>
-      <c r="E312" s="2">
+      <c r="E312" s="1">
         <v>9.8399534001993416</v>
       </c>
       <c r="G312" s="1">
@@ -15758,10 +15753,10 @@
       <c r="C313" t="s">
         <v>25</v>
       </c>
-      <c r="D313" s="2">
+      <c r="D313" s="1">
         <v>123.35</v>
       </c>
-      <c r="E313" s="2">
+      <c r="E313" s="1">
         <v>9.546532620073588</v>
       </c>
       <c r="G313" s="1">
@@ -15796,10 +15791,10 @@
       <c r="C314" t="s">
         <v>19</v>
       </c>
-      <c r="D314" s="2">
+      <c r="D314" s="1">
         <v>407.99</v>
       </c>
-      <c r="E314" s="2">
+      <c r="E314" s="1">
         <v>22.33976719565247</v>
       </c>
       <c r="F314" s="1">
@@ -15837,10 +15832,10 @@
       <c r="C315" t="s">
         <v>29</v>
       </c>
-      <c r="D315" s="2">
+      <c r="D315" s="1">
         <v>109.93</v>
       </c>
-      <c r="E315" s="2">
+      <c r="E315" s="1">
         <v>5.9906040655381076</v>
       </c>
       <c r="G315" s="1">
@@ -15875,10 +15870,10 @@
       <c r="C316" t="s">
         <v>29</v>
       </c>
-      <c r="D316" s="2">
+      <c r="D316" s="1">
         <v>204.93</v>
       </c>
-      <c r="E316" s="2">
+      <c r="E316" s="1">
         <v>63.810133515009348</v>
       </c>
       <c r="G316" s="1">
@@ -15907,10 +15902,10 @@
       <c r="C317" t="s">
         <v>25</v>
       </c>
-      <c r="D317" s="2">
+      <c r="D317" s="1">
         <v>27.16</v>
       </c>
-      <c r="E317" s="2">
+      <c r="E317" s="1">
         <v>12.640661586622581</v>
       </c>
       <c r="G317" s="1">
@@ -15945,10 +15940,10 @@
       <c r="C318" t="s">
         <v>14</v>
       </c>
-      <c r="D318" s="2">
+      <c r="D318" s="1">
         <v>96.93</v>
       </c>
-      <c r="E318" s="2">
+      <c r="E318" s="1">
         <v>9.7233021641255579</v>
       </c>
       <c r="F318" s="1">
@@ -15986,10 +15981,10 @@
       <c r="C319" t="s">
         <v>14</v>
       </c>
-      <c r="D319" s="2">
+      <c r="D319" s="1">
         <v>514.59</v>
       </c>
-      <c r="E319" s="2">
+      <c r="E319" s="1">
         <v>15.618966453101347</v>
       </c>
       <c r="F319" s="1">
@@ -16027,10 +16022,10 @@
       <c r="C320" t="s">
         <v>19</v>
       </c>
-      <c r="D320" s="2">
+      <c r="D320" s="1">
         <v>240.66</v>
       </c>
-      <c r="E320" s="2">
+      <c r="E320" s="1">
         <v>16.233586491480633</v>
       </c>
       <c r="F320" s="1">
@@ -16068,10 +16063,10 @@
       <c r="C321" t="s">
         <v>19</v>
       </c>
-      <c r="D321" s="2">
+      <c r="D321" s="1">
         <v>263.87</v>
       </c>
-      <c r="E321" s="2">
+      <c r="E321" s="1">
         <v>6.2873350777363335</v>
       </c>
       <c r="F321" s="1">
@@ -16109,10 +16104,10 @@
       <c r="C322" t="s">
         <v>14</v>
       </c>
-      <c r="D322" s="2">
+      <c r="D322" s="1">
         <v>148.9</v>
       </c>
-      <c r="E322" s="2">
+      <c r="E322" s="1">
         <v>5.3943911349677354</v>
       </c>
       <c r="F322" s="1">
@@ -16150,10 +16145,10 @@
       <c r="C323" t="s">
         <v>17</v>
       </c>
-      <c r="D323" s="2">
+      <c r="D323" s="1">
         <v>47.85</v>
       </c>
-      <c r="E323" s="2">
+      <c r="E323" s="1">
         <v>-22.668739332662913</v>
       </c>
       <c r="F323" s="1">
@@ -16182,10 +16177,10 @@
       <c r="C324" t="s">
         <v>29</v>
       </c>
-      <c r="D324" s="2">
+      <c r="D324" s="1">
         <v>1540</v>
       </c>
-      <c r="E324" s="2">
+      <c r="E324" s="1">
         <v>11.188179667414055</v>
       </c>
       <c r="F324" s="1">
@@ -16223,10 +16218,10 @@
       <c r="C325" t="s">
         <v>19</v>
       </c>
-      <c r="D325" s="2">
+      <c r="D325" s="1">
         <v>57.68</v>
       </c>
-      <c r="E325" s="2">
+      <c r="E325" s="1">
         <v>8.1889603968882341</v>
       </c>
       <c r="G325" s="1">
@@ -16261,10 +16256,10 @@
       <c r="C326" t="s">
         <v>39</v>
       </c>
-      <c r="D326" s="2">
+      <c r="D326" s="1">
         <v>16.23</v>
       </c>
-      <c r="E326" s="2">
+      <c r="E326" s="1">
         <v>-39.268197883703969</v>
       </c>
       <c r="G326" s="1">
@@ -16296,10 +16291,10 @@
       <c r="C327" t="s">
         <v>14</v>
       </c>
-      <c r="D327" s="2">
+      <c r="D327" s="1">
         <v>63.36</v>
       </c>
-      <c r="E327" s="2">
+      <c r="E327" s="1">
         <v>8.3912410805512483</v>
       </c>
       <c r="F327" s="1">
@@ -16337,10 +16332,10 @@
       <c r="C328" t="s">
         <v>21</v>
       </c>
-      <c r="D328" s="2">
+      <c r="D328" s="1">
         <v>243.05</v>
       </c>
-      <c r="E328" s="2">
+      <c r="E328" s="1">
         <v>4.5820435677066396</v>
       </c>
       <c r="F328" s="1">
@@ -16378,10 +16373,10 @@
       <c r="C329" t="s">
         <v>47</v>
       </c>
-      <c r="D329" s="2">
+      <c r="D329" s="1">
         <v>85.85</v>
       </c>
-      <c r="E329" s="2">
+      <c r="E329" s="1">
         <v>-3.299179039324418E-2</v>
       </c>
       <c r="F329" s="1">
@@ -16419,10 +16414,10 @@
       <c r="C330" t="s">
         <v>12</v>
       </c>
-      <c r="D330" s="2">
+      <c r="D330" s="1">
         <v>53.15</v>
       </c>
-      <c r="E330" s="2">
+      <c r="E330" s="1">
         <v>3.8524690507707682</v>
       </c>
       <c r="G330" s="1">
@@ -16457,10 +16452,10 @@
       <c r="C331" t="s">
         <v>17</v>
       </c>
-      <c r="D331" s="2">
+      <c r="D331" s="1">
         <v>324.13</v>
       </c>
-      <c r="E331" s="2">
+      <c r="E331" s="1">
         <v>26.616569839372929</v>
       </c>
       <c r="F331" s="1">
@@ -16498,10 +16493,10 @@
       <c r="C332" t="s">
         <v>47</v>
       </c>
-      <c r="D332" s="2">
+      <c r="D332" s="1">
         <v>27.7</v>
       </c>
-      <c r="E332" s="2">
+      <c r="E332" s="1">
         <v>-2.2671197171908242</v>
       </c>
       <c r="G332" s="1">
@@ -16536,10 +16531,10 @@
       <c r="C333" t="s">
         <v>39</v>
       </c>
-      <c r="D333" s="2">
+      <c r="D333" s="1">
         <v>128.18</v>
       </c>
-      <c r="E333" s="2">
+      <c r="E333" s="1">
         <v>7.383518216926821</v>
       </c>
       <c r="F333" s="1">
@@ -16577,10 +16572,10 @@
       <c r="C334" t="s">
         <v>21</v>
       </c>
-      <c r="D334" s="2">
+      <c r="D334" s="1">
         <v>452.32</v>
       </c>
-      <c r="E334" s="2">
+      <c r="E334" s="1">
         <v>10.008993842421777</v>
       </c>
       <c r="F334" s="1">
@@ -16618,10 +16613,10 @@
       <c r="C335" t="s">
         <v>19</v>
       </c>
-      <c r="D335" s="2">
+      <c r="D335" s="1">
         <v>420.38</v>
       </c>
-      <c r="E335" s="2">
+      <c r="E335" s="1">
         <v>28.633254510640469</v>
       </c>
       <c r="G335" s="1">
@@ -16656,10 +16651,10 @@
       <c r="C336" t="s">
         <v>47</v>
       </c>
-      <c r="D336" s="2">
+      <c r="D336" s="1">
         <v>32.35</v>
       </c>
-      <c r="E336" s="2">
+      <c r="E336" s="1">
         <v>27.058723501487414</v>
       </c>
       <c r="G336" s="1">
@@ -16694,10 +16689,10 @@
       <c r="C337" t="s">
         <v>21</v>
       </c>
-      <c r="D337" s="2">
+      <c r="D337" s="1">
         <v>256.89</v>
       </c>
-      <c r="E337" s="2">
+      <c r="E337" s="1">
         <v>6.0490148603975058</v>
       </c>
       <c r="F337" s="1">
@@ -16735,10 +16730,10 @@
       <c r="C338" t="s">
         <v>19</v>
       </c>
-      <c r="D338" s="2">
+      <c r="D338" s="1">
         <v>65.385000000000005</v>
       </c>
-      <c r="E338" s="2">
+      <c r="E338" s="1">
         <v>7.1394497690583147</v>
       </c>
       <c r="F338" s="1">
@@ -16776,10 +16771,10 @@
       <c r="C339" t="s">
         <v>14</v>
       </c>
-      <c r="D339" s="2">
+      <c r="D339" s="1">
         <v>99.02</v>
       </c>
-      <c r="E339" s="2">
+      <c r="E339" s="1">
         <v>6.6478765150027153</v>
       </c>
       <c r="F339" s="1">
@@ -16817,10 +16812,10 @@
       <c r="C340" t="s">
         <v>12</v>
       </c>
-      <c r="D340" s="2">
+      <c r="D340" s="1">
         <v>156.57</v>
       </c>
-      <c r="E340" s="2">
+      <c r="E340" s="1">
         <v>19.718867867282587</v>
       </c>
       <c r="F340" s="1">
@@ -16858,10 +16853,10 @@
       <c r="C341" t="s">
         <v>19</v>
       </c>
-      <c r="D341" s="2">
+      <c r="D341" s="1">
         <v>175.18</v>
       </c>
-      <c r="E341" s="2">
+      <c r="E341" s="1">
         <v>27.556494425065491</v>
       </c>
       <c r="F341" s="1">
@@ -16899,10 +16894,10 @@
       <c r="C342" t="s">
         <v>39</v>
       </c>
-      <c r="D342" s="2">
+      <c r="D342" s="1">
         <v>5038.8</v>
       </c>
-      <c r="E342" s="2">
+      <c r="E342" s="1">
         <v>10.554282732619068</v>
       </c>
       <c r="F342" s="1">
@@ -16940,10 +16935,10 @@
       <c r="C343" t="s">
         <v>39</v>
       </c>
-      <c r="D343" s="2">
+      <c r="D343" s="1">
         <v>15.61</v>
       </c>
-      <c r="E343" s="2">
+      <c r="E343" s="1">
         <v>-4.5852971079772935</v>
       </c>
       <c r="G343" s="1">
@@ -16972,10 +16967,10 @@
       <c r="C344" t="s">
         <v>17</v>
       </c>
-      <c r="D344" s="2">
+      <c r="D344" s="1">
         <v>19.73</v>
       </c>
-      <c r="E344" s="2">
+      <c r="E344" s="1">
         <v>4.7044968294035261</v>
       </c>
       <c r="G344" s="1">
@@ -17007,10 +17002,10 @@
       <c r="C345" t="s">
         <v>17</v>
       </c>
-      <c r="D345" s="2">
+      <c r="D345" s="1">
         <v>19.335000000000001</v>
       </c>
-      <c r="E345" s="2">
+      <c r="E345" s="1">
         <v>4.7044968294035261</v>
       </c>
       <c r="G345" s="1">
@@ -17042,10 +17037,10 @@
       <c r="C346" t="s">
         <v>19</v>
       </c>
-      <c r="D346" s="2">
+      <c r="D346" s="1">
         <v>172.6</v>
       </c>
-      <c r="E346" s="2">
+      <c r="E346" s="1">
         <v>7.810361498448759</v>
       </c>
       <c r="G346" s="1">
@@ -17080,10 +17075,10 @@
       <c r="C347" t="s">
         <v>33</v>
       </c>
-      <c r="D347" s="2">
+      <c r="D347" s="1">
         <v>67.069999999999993</v>
       </c>
-      <c r="E347" s="2">
+      <c r="E347" s="1">
         <v>3.02004554665396</v>
       </c>
       <c r="F347" s="1">
@@ -17121,10 +17116,10 @@
       <c r="C348" t="s">
         <v>21</v>
       </c>
-      <c r="D348" s="2">
+      <c r="D348" s="1">
         <v>316.52999999999997</v>
       </c>
-      <c r="E348" s="2">
+      <c r="E348" s="1">
         <v>13.626339969520473</v>
       </c>
       <c r="F348" s="1">
@@ -17162,7 +17157,7 @@
       <c r="C349" t="s">
         <v>29</v>
       </c>
-      <c r="D349" s="2">
+      <c r="D349" s="1">
         <v>32.229999999999997</v>
       </c>
       <c r="H349" s="1">
@@ -17185,10 +17180,10 @@
       <c r="C350" t="s">
         <v>25</v>
       </c>
-      <c r="D350" s="2">
+      <c r="D350" s="1">
         <v>70.86</v>
       </c>
-      <c r="E350" s="2">
+      <c r="E350" s="1">
         <v>-2.5929469791786675</v>
       </c>
       <c r="F350" s="1">
@@ -17226,10 +17221,10 @@
       <c r="C351" t="s">
         <v>17</v>
       </c>
-      <c r="D351" s="2">
+      <c r="D351" s="1">
         <v>83.43</v>
       </c>
-      <c r="E351" s="2">
+      <c r="E351" s="1">
         <v>0.57217486653022842</v>
       </c>
       <c r="F351" s="1">
@@ -17267,10 +17262,10 @@
       <c r="C352" t="s">
         <v>19</v>
       </c>
-      <c r="D352" s="2">
+      <c r="D352" s="1">
         <v>67.45</v>
       </c>
-      <c r="E352" s="2">
+      <c r="E352" s="1">
         <v>10.966958279182659</v>
       </c>
       <c r="G352" s="1">
@@ -17305,10 +17300,10 @@
       <c r="C353" t="s">
         <v>19</v>
       </c>
-      <c r="D353" s="2">
+      <c r="D353" s="1">
         <v>88.04</v>
       </c>
-      <c r="E353" s="2">
+      <c r="E353" s="1">
         <v>11.384185508315326</v>
       </c>
       <c r="G353" s="1">
@@ -17340,10 +17335,10 @@
       <c r="C354" t="s">
         <v>39</v>
       </c>
-      <c r="D354" s="2">
+      <c r="D354" s="1">
         <v>808.61</v>
       </c>
-      <c r="E354" s="2">
+      <c r="E354" s="1">
         <v>16.50495745578413</v>
       </c>
       <c r="F354" s="1">
@@ -17381,7 +17376,7 @@
       <c r="C355" t="s">
         <v>21</v>
       </c>
-      <c r="D355" s="2">
+      <c r="D355" s="1">
         <v>83.17</v>
       </c>
       <c r="H355" s="1">
@@ -17404,10 +17399,10 @@
       <c r="C356" t="s">
         <v>25</v>
       </c>
-      <c r="D356" s="2">
+      <c r="D356" s="1">
         <v>65.58</v>
       </c>
-      <c r="E356" s="2">
+      <c r="E356" s="1">
         <v>16.012003890519932</v>
       </c>
       <c r="G356" s="1">
@@ -17442,10 +17437,10 @@
       <c r="C357" t="s">
         <v>17</v>
       </c>
-      <c r="D357" s="2">
+      <c r="D357" s="1">
         <v>20.7</v>
       </c>
-      <c r="E357" s="2">
+      <c r="E357" s="1">
         <v>8.5037869111823419</v>
       </c>
       <c r="F357" s="1">
@@ -17477,10 +17472,10 @@
       <c r="C358" t="s">
         <v>19</v>
       </c>
-      <c r="D358" s="2">
+      <c r="D358" s="1">
         <v>314.36</v>
       </c>
-      <c r="E358" s="2">
+      <c r="E358" s="1">
         <v>26.099507858359061</v>
       </c>
       <c r="F358" s="1">
@@ -17515,10 +17510,10 @@
       <c r="C359" t="s">
         <v>19</v>
       </c>
-      <c r="D359" s="2">
+      <c r="D359" s="1">
         <v>119.14</v>
       </c>
-      <c r="E359" s="2">
+      <c r="E359" s="1">
         <v>7.865198494447978</v>
       </c>
       <c r="F359" s="1">
@@ -17556,10 +17551,10 @@
       <c r="C360" t="s">
         <v>21</v>
       </c>
-      <c r="D360" s="2">
+      <c r="D360" s="1">
         <v>102.07</v>
       </c>
-      <c r="E360" s="2">
+      <c r="E360" s="1">
         <v>6.8701571905645187</v>
       </c>
       <c r="F360" s="1">
@@ -17597,10 +17592,10 @@
       <c r="C361" t="s">
         <v>47</v>
       </c>
-      <c r="D361" s="2">
+      <c r="D361" s="1">
         <v>15.87</v>
       </c>
-      <c r="E361" s="2">
+      <c r="E361" s="1">
         <v>-21.730832157398726</v>
       </c>
       <c r="G361" s="1">
@@ -17635,10 +17630,10 @@
       <c r="C362" t="s">
         <v>33</v>
       </c>
-      <c r="D362" s="2">
+      <c r="D362" s="1">
         <v>27.14</v>
       </c>
-      <c r="E362" s="2">
+      <c r="E362" s="1">
         <v>-5.0440605613848888</v>
       </c>
       <c r="G362" s="1">
@@ -17673,10 +17668,10 @@
       <c r="C363" t="s">
         <v>47</v>
       </c>
-      <c r="D363" s="2">
+      <c r="D363" s="1">
         <v>62.89</v>
       </c>
-      <c r="E363" s="2">
+      <c r="E363" s="1">
         <v>1.4584131746622431</v>
       </c>
       <c r="G363" s="1">
@@ -17711,10 +17706,10 @@
       <c r="C364" t="s">
         <v>27</v>
       </c>
-      <c r="D364" s="2">
+      <c r="D364" s="1">
         <v>175.53</v>
       </c>
-      <c r="E364" s="2">
+      <c r="E364" s="1">
         <v>5.6732389323455701</v>
       </c>
       <c r="F364" s="1">
@@ -17749,10 +17744,10 @@
       <c r="C365" t="s">
         <v>29</v>
       </c>
-      <c r="D365" s="2">
+      <c r="D365" s="1">
         <v>45.8</v>
       </c>
-      <c r="E365" s="2">
+      <c r="E365" s="1">
         <v>10.839641159552826</v>
       </c>
       <c r="F365" s="1">
@@ -17790,10 +17785,10 @@
       <c r="C366" t="s">
         <v>14</v>
       </c>
-      <c r="D366" s="2">
+      <c r="D366" s="1">
         <v>89.47</v>
       </c>
-      <c r="E366" s="2">
+      <c r="E366" s="1">
         <v>4.363010790664279</v>
       </c>
       <c r="F366" s="1">
@@ -17828,10 +17823,10 @@
       <c r="C367" t="s">
         <v>27</v>
       </c>
-      <c r="D367" s="2">
+      <c r="D367" s="1">
         <v>149.75</v>
       </c>
-      <c r="E367" s="2">
+      <c r="E367" s="1">
         <v>5.4413099638583873</v>
       </c>
       <c r="F367" s="1">
@@ -17869,10 +17864,10 @@
       <c r="C368" t="s">
         <v>14</v>
       </c>
-      <c r="D368" s="2">
+      <c r="D368" s="1">
         <v>130.54</v>
       </c>
-      <c r="E368" s="2">
+      <c r="E368" s="1">
         <v>15.29792035721842</v>
       </c>
       <c r="F368" s="1">
@@ -17910,10 +17905,10 @@
       <c r="C369" t="s">
         <v>21</v>
       </c>
-      <c r="D369" s="2">
+      <c r="D369" s="1">
         <v>315.7</v>
       </c>
-      <c r="E369" s="2">
+      <c r="E369" s="1">
         <v>6.4708165961470998</v>
       </c>
       <c r="F369" s="1">
@@ -17951,10 +17946,10 @@
       <c r="C370" t="s">
         <v>39</v>
       </c>
-      <c r="D370" s="2">
+      <c r="D370" s="1">
         <v>51.74</v>
       </c>
-      <c r="E370" s="2">
+      <c r="E370" s="1">
         <v>18.908646692715394</v>
       </c>
       <c r="F370" s="1">
@@ -17992,10 +17987,10 @@
       <c r="C371" t="s">
         <v>12</v>
       </c>
-      <c r="D371" s="2">
+      <c r="D371" s="1">
         <v>134.16999999999999</v>
       </c>
-      <c r="E371" s="2">
+      <c r="E371" s="1">
         <v>5.8545899701351267</v>
       </c>
       <c r="F371" s="1">
@@ -18033,10 +18028,10 @@
       <c r="C372" t="s">
         <v>29</v>
       </c>
-      <c r="D372" s="2">
+      <c r="D372" s="1">
         <v>132.47999999999999</v>
       </c>
-      <c r="E372" s="2">
+      <c r="E372" s="1">
         <v>17.684721934394677</v>
       </c>
       <c r="F372" s="1">
@@ -18074,10 +18069,10 @@
       <c r="C373" t="s">
         <v>33</v>
       </c>
-      <c r="D373" s="2">
+      <c r="D373" s="1">
         <v>121.42</v>
       </c>
-      <c r="E373" s="2">
+      <c r="E373" s="1">
         <v>9.0240491030075365</v>
       </c>
       <c r="F373" s="1">
@@ -18115,10 +18110,10 @@
       <c r="C374" t="s">
         <v>27</v>
       </c>
-      <c r="D374" s="2">
+      <c r="D374" s="1">
         <v>101.14</v>
       </c>
-      <c r="E374" s="2">
+      <c r="E374" s="1">
         <v>3.2179399393615027</v>
       </c>
       <c r="F374" s="1">
@@ -18156,7 +18151,7 @@
       <c r="C375" t="s">
         <v>14</v>
       </c>
-      <c r="D375" s="2">
+      <c r="D375" s="1">
         <v>152.66</v>
       </c>
       <c r="F375" s="1">
@@ -18194,10 +18189,10 @@
       <c r="C376" t="s">
         <v>21</v>
       </c>
-      <c r="D376" s="2">
+      <c r="D376" s="1">
         <v>50.85</v>
       </c>
-      <c r="E376" s="2">
+      <c r="E376" s="1">
         <v>-3.3839527424192939</v>
       </c>
       <c r="F376" s="1">
@@ -18235,10 +18230,10 @@
       <c r="C377" t="s">
         <v>47</v>
       </c>
-      <c r="D377" s="2">
+      <c r="D377" s="1">
         <v>75</v>
       </c>
-      <c r="E377" s="2">
+      <c r="E377" s="1">
         <v>1.4147241327601812</v>
       </c>
       <c r="F377" s="1">
@@ -18276,10 +18271,10 @@
       <c r="C378" t="s">
         <v>39</v>
       </c>
-      <c r="D378" s="2">
+      <c r="D378" s="1">
         <v>358.55</v>
       </c>
-      <c r="E378" s="2">
+      <c r="E378" s="1">
         <v>16.531885118193969</v>
       </c>
       <c r="F378" s="1">
@@ -18317,10 +18312,10 @@
       <c r="C379" t="s">
         <v>12</v>
       </c>
-      <c r="D379" s="2">
+      <c r="D379" s="1">
         <v>131.06</v>
       </c>
-      <c r="E379" s="2">
+      <c r="E379" s="1">
         <v>5.6485956080643884</v>
       </c>
       <c r="F379" s="1">
@@ -18358,10 +18353,10 @@
       <c r="C380" t="s">
         <v>47</v>
       </c>
-      <c r="D380" s="2">
+      <c r="D380" s="1">
         <v>30.56</v>
       </c>
-      <c r="E380" s="2">
+      <c r="E380" s="1">
         <v>-7.3337407686267504</v>
       </c>
       <c r="F380" s="1">
@@ -18399,10 +18394,10 @@
       <c r="C381" t="s">
         <v>14</v>
       </c>
-      <c r="D381" s="2">
+      <c r="D381" s="1">
         <v>100.38</v>
       </c>
-      <c r="E381" s="2">
+      <c r="E381" s="1">
         <v>6.4324002455643514</v>
       </c>
       <c r="G381" s="1">
@@ -18437,10 +18432,10 @@
       <c r="C382" t="s">
         <v>33</v>
       </c>
-      <c r="D382" s="2">
+      <c r="D382" s="1">
         <v>291.14999999999998</v>
       </c>
-      <c r="E382" s="2">
+      <c r="E382" s="1">
         <v>5.7183253404489154</v>
       </c>
       <c r="F382" s="1">
@@ -18478,10 +18473,10 @@
       <c r="C383" t="s">
         <v>25</v>
       </c>
-      <c r="D383" s="2">
+      <c r="D383" s="1">
         <v>103.5</v>
       </c>
-      <c r="E383" s="2">
+      <c r="E383" s="1">
         <v>13.517551003270857</v>
       </c>
       <c r="G383" s="1">
@@ -18516,10 +18511,10 @@
       <c r="C384" t="s">
         <v>19</v>
       </c>
-      <c r="D384" s="2">
+      <c r="D384" s="1">
         <v>131.24</v>
       </c>
-      <c r="E384" s="2">
+      <c r="E384" s="1">
         <v>10.362383584561673</v>
       </c>
       <c r="F384" s="1">
@@ -18557,10 +18552,10 @@
       <c r="C385" t="s">
         <v>21</v>
       </c>
-      <c r="D385" s="2">
+      <c r="D385" s="1">
         <v>149.16999999999999</v>
       </c>
-      <c r="E385" s="2">
+      <c r="E385" s="1">
         <v>13.635056608735741</v>
       </c>
       <c r="F385" s="1">
@@ -18598,10 +18593,10 @@
       <c r="C386" t="s">
         <v>25</v>
       </c>
-      <c r="D386" s="2">
+      <c r="D386" s="1">
         <v>241.46</v>
       </c>
-      <c r="E386" s="2">
+      <c r="E386" s="1">
         <v>20.919251799882765</v>
       </c>
       <c r="G386" s="1">
@@ -18636,10 +18631,10 @@
       <c r="C387" t="s">
         <v>19</v>
       </c>
-      <c r="D387" s="2">
+      <c r="D387" s="1">
         <v>79.760000000000005</v>
       </c>
-      <c r="E387" s="2">
+      <c r="E387" s="1">
         <v>19.252939022371109</v>
       </c>
       <c r="F387" s="1">
@@ -18674,10 +18669,10 @@
       <c r="C388" t="s">
         <v>19</v>
       </c>
-      <c r="D388" s="2">
+      <c r="D388" s="1">
         <v>122</v>
       </c>
-      <c r="E388" s="2">
+      <c r="E388" s="1">
         <v>21.131945172388789</v>
       </c>
       <c r="G388" s="1">
@@ -18712,10 +18707,10 @@
       <c r="C389" t="s">
         <v>19</v>
       </c>
-      <c r="D389" s="2">
+      <c r="D389" s="1">
         <v>102.7</v>
       </c>
-      <c r="E389" s="2">
+      <c r="E389" s="1">
         <v>12.062035473920641</v>
       </c>
       <c r="F389" s="1">
@@ -18750,10 +18745,10 @@
       <c r="C390" t="s">
         <v>39</v>
       </c>
-      <c r="D390" s="2">
+      <c r="D390" s="1">
         <v>64.78</v>
       </c>
-      <c r="E390" s="2">
+      <c r="E390" s="1">
         <v>-31.191304306745238</v>
       </c>
       <c r="G390" s="1">
@@ -18788,10 +18783,10 @@
       <c r="C391" t="s">
         <v>14</v>
       </c>
-      <c r="D391" s="2">
+      <c r="D391" s="1">
         <v>344.67</v>
       </c>
-      <c r="E391" s="2">
+      <c r="E391" s="1">
         <v>16.604736638962937</v>
       </c>
       <c r="G391" s="1">
@@ -18826,10 +18821,10 @@
       <c r="C392" t="s">
         <v>33</v>
       </c>
-      <c r="D392" s="2">
+      <c r="D392" s="1">
         <v>66.14</v>
       </c>
-      <c r="E392" s="2">
+      <c r="E392" s="1">
         <v>2.3768248695943406</v>
       </c>
       <c r="F392" s="1">
@@ -18861,10 +18856,10 @@
       <c r="C393" t="s">
         <v>29</v>
       </c>
-      <c r="D393" s="2">
+      <c r="D393" s="1">
         <v>725.95</v>
       </c>
-      <c r="E393" s="2">
+      <c r="E393" s="1">
         <v>26.780453187172192</v>
       </c>
       <c r="F393" s="1">
@@ -18902,10 +18897,10 @@
       <c r="C394" t="s">
         <v>14</v>
       </c>
-      <c r="D394" s="2">
+      <c r="D394" s="1">
         <v>22.11</v>
       </c>
-      <c r="E394" s="2">
+      <c r="E394" s="1">
         <v>8.2810716144988916</v>
       </c>
       <c r="F394" s="1">
@@ -18943,10 +18938,10 @@
       <c r="C395" t="s">
         <v>21</v>
       </c>
-      <c r="D395" s="2">
+      <c r="D395" s="1">
         <v>77.5</v>
       </c>
-      <c r="E395" s="2">
+      <c r="E395" s="1">
         <v>7.3507384420306909</v>
       </c>
       <c r="F395" s="1">
@@ -18984,10 +18979,10 @@
       <c r="C396" t="s">
         <v>14</v>
       </c>
-      <c r="D396" s="2">
+      <c r="D396" s="1">
         <v>117</v>
       </c>
-      <c r="E396" s="2">
+      <c r="E396" s="1">
         <v>12.156915338353279</v>
       </c>
       <c r="F396" s="1">
@@ -19025,10 +19020,10 @@
       <c r="C397" t="s">
         <v>39</v>
       </c>
-      <c r="D397" s="2">
+      <c r="D397" s="1">
         <v>120.29</v>
       </c>
-      <c r="E397" s="2">
+      <c r="E397" s="1">
         <v>1.1516017064042705</v>
       </c>
       <c r="G397" s="1">
@@ -19063,10 +19058,10 @@
       <c r="C398" t="s">
         <v>29</v>
       </c>
-      <c r="D398" s="2">
+      <c r="D398" s="1">
         <v>230</v>
       </c>
-      <c r="E398" s="2">
+      <c r="E398" s="1">
         <v>10.873967193780153</v>
       </c>
       <c r="F398" s="1">
@@ -19104,10 +19099,10 @@
       <c r="C399" t="s">
         <v>21</v>
       </c>
-      <c r="D399" s="2">
+      <c r="D399" s="1">
         <v>282.94</v>
       </c>
-      <c r="E399" s="2">
+      <c r="E399" s="1">
         <v>6.3774006581097886</v>
       </c>
       <c r="F399" s="1">
@@ -19145,10 +19140,10 @@
       <c r="C400" t="s">
         <v>21</v>
       </c>
-      <c r="D400" s="2">
+      <c r="D400" s="1">
         <v>37.47</v>
       </c>
-      <c r="E400" s="2">
+      <c r="E400" s="1">
         <v>8.9852198725576926</v>
       </c>
       <c r="F400" s="1">
@@ -19186,10 +19181,10 @@
       <c r="C401" t="s">
         <v>19</v>
       </c>
-      <c r="D401" s="2">
+      <c r="D401" s="1">
         <v>445.06</v>
       </c>
-      <c r="E401" s="2">
+      <c r="E401" s="1">
         <v>7.9580111739246284</v>
       </c>
       <c r="F401" s="1">
@@ -19227,10 +19222,10 @@
       <c r="C402" t="s">
         <v>39</v>
       </c>
-      <c r="D402" s="2">
+      <c r="D402" s="1">
         <v>120</v>
       </c>
-      <c r="E402" s="2">
+      <c r="E402" s="1">
         <v>10.401193672643739</v>
       </c>
       <c r="F402" s="1">
@@ -19268,10 +19263,10 @@
       <c r="C403" t="s">
         <v>21</v>
       </c>
-      <c r="D403" s="2">
+      <c r="D403" s="1">
         <v>126.05</v>
       </c>
-      <c r="E403" s="2">
+      <c r="E403" s="1">
         <v>5.2981080417863868</v>
       </c>
       <c r="F403" s="1">
@@ -19309,10 +19304,10 @@
       <c r="C404" t="s">
         <v>21</v>
       </c>
-      <c r="D404" s="2">
+      <c r="D404" s="1">
         <v>98.13</v>
       </c>
-      <c r="E404" s="2">
+      <c r="E404" s="1">
         <v>-9.3274070045864637</v>
       </c>
       <c r="F404" s="1">
@@ -19350,10 +19345,10 @@
       <c r="C405" t="s">
         <v>33</v>
       </c>
-      <c r="D405" s="2">
+      <c r="D405" s="1">
         <v>302.06</v>
       </c>
-      <c r="E405" s="2">
+      <c r="E405" s="1">
         <v>9.9831008721411827</v>
       </c>
       <c r="F405" s="1">
@@ -19391,10 +19386,10 @@
       <c r="C406" t="s">
         <v>14</v>
       </c>
-      <c r="D406" s="2">
+      <c r="D406" s="1">
         <v>117.75</v>
       </c>
-      <c r="E406" s="2">
+      <c r="E406" s="1">
         <v>16.407866102714163</v>
       </c>
       <c r="F406" s="1">
@@ -19432,10 +19427,10 @@
       <c r="C407" t="s">
         <v>39</v>
       </c>
-      <c r="D407" s="2">
+      <c r="D407" s="1">
         <v>107.17</v>
       </c>
-      <c r="E407" s="2">
+      <c r="E407" s="1">
         <v>12.606519021953289</v>
       </c>
       <c r="F407" s="1">
@@ -19473,10 +19468,10 @@
       <c r="C408" t="s">
         <v>14</v>
       </c>
-      <c r="D408" s="2">
+      <c r="D408" s="1">
         <v>80.400000000000006</v>
       </c>
-      <c r="E408" s="2">
+      <c r="E408" s="1">
         <v>10.48061418275401</v>
       </c>
       <c r="F408" s="1">
@@ -19514,10 +19509,10 @@
       <c r="C409" t="s">
         <v>19</v>
       </c>
-      <c r="D409" s="2">
+      <c r="D409" s="1">
         <v>323.39999999999998</v>
       </c>
-      <c r="E409" s="2">
+      <c r="E409" s="1">
         <v>25.796143957474737</v>
       </c>
       <c r="F409" s="1">
@@ -19552,10 +19547,10 @@
       <c r="C410" t="s">
         <v>12</v>
       </c>
-      <c r="D410" s="2">
+      <c r="D410" s="1">
         <v>54.11</v>
       </c>
-      <c r="E410" s="2">
+      <c r="E410" s="1">
         <v>11.090818835010264</v>
       </c>
       <c r="F410" s="1">
@@ -19593,10 +19588,10 @@
       <c r="C411" t="s">
         <v>12</v>
       </c>
-      <c r="D411" s="2">
+      <c r="D411" s="1">
         <v>249.3</v>
       </c>
-      <c r="E411" s="2">
+      <c r="E411" s="1">
         <v>12.042756387055986</v>
       </c>
       <c r="F411" s="1">
@@ -19634,10 +19629,10 @@
       <c r="C412" t="s">
         <v>14</v>
       </c>
-      <c r="D412" s="2">
+      <c r="D412" s="1">
         <v>257</v>
       </c>
-      <c r="E412" s="2">
+      <c r="E412" s="1">
         <v>27.736906095550928</v>
       </c>
       <c r="F412" s="1">
@@ -19675,10 +19670,10 @@
       <c r="C413" t="s">
         <v>27</v>
       </c>
-      <c r="D413" s="2">
+      <c r="D413" s="1">
         <v>153.685</v>
       </c>
-      <c r="E413" s="2">
+      <c r="E413" s="1">
         <v>3.0140074646665127</v>
       </c>
       <c r="F413" s="1">
@@ -19716,10 +19711,10 @@
       <c r="C414" t="s">
         <v>25</v>
       </c>
-      <c r="D414" s="2">
+      <c r="D414" s="1">
         <v>59.31</v>
       </c>
-      <c r="E414" s="2">
+      <c r="E414" s="1">
         <v>-4.3847450273414079</v>
       </c>
       <c r="G414" s="1">
@@ -19754,10 +19749,10 @@
       <c r="C415" t="s">
         <v>21</v>
       </c>
-      <c r="D415" s="2">
+      <c r="D415" s="1">
         <v>246.14</v>
       </c>
-      <c r="E415" s="2">
+      <c r="E415" s="1">
         <v>5.9703138036527381</v>
       </c>
       <c r="F415" s="1">
@@ -19795,10 +19790,10 @@
       <c r="C416" t="s">
         <v>19</v>
       </c>
-      <c r="D416" s="2">
+      <c r="D416" s="1">
         <v>340.64</v>
       </c>
-      <c r="E416" s="2">
+      <c r="E416" s="1">
         <v>12.894474322136841</v>
       </c>
       <c r="G416" s="1">
@@ -19833,10 +19828,10 @@
       <c r="C417" t="s">
         <v>47</v>
       </c>
-      <c r="D417" s="2">
+      <c r="D417" s="1">
         <v>70.02</v>
       </c>
-      <c r="E417" s="2">
+      <c r="E417" s="1">
         <v>0.81174587971653001</v>
       </c>
       <c r="F417" s="1">
@@ -19874,10 +19869,10 @@
       <c r="C418" t="s">
         <v>33</v>
       </c>
-      <c r="D418" s="2">
+      <c r="D418" s="1">
         <v>125.86</v>
       </c>
-      <c r="E418" s="2">
+      <c r="E418" s="1">
         <v>-2.1752080000199681</v>
       </c>
       <c r="F418" s="1">
@@ -19915,10 +19910,10 @@
       <c r="C419" t="s">
         <v>14</v>
       </c>
-      <c r="D419" s="2">
+      <c r="D419" s="1">
         <v>369.17</v>
       </c>
-      <c r="E419" s="2">
+      <c r="E419" s="1">
         <v>9.8498233084114428</v>
       </c>
       <c r="F419" s="1">
@@ -19956,10 +19951,10 @@
       <c r="C420" t="s">
         <v>47</v>
       </c>
-      <c r="D420" s="2">
+      <c r="D420" s="1">
         <v>161.93</v>
       </c>
-      <c r="E420" s="2">
+      <c r="E420" s="1">
         <v>0.26594631861507345</v>
       </c>
       <c r="G420" s="1">
@@ -19994,10 +19989,10 @@
       <c r="C421" t="s">
         <v>29</v>
       </c>
-      <c r="D421" s="2">
+      <c r="D421" s="1">
         <v>199.93</v>
       </c>
-      <c r="E421" s="2">
+      <c r="E421" s="1">
         <v>8.9890837322287087</v>
       </c>
       <c r="G421" s="1">
@@ -20032,10 +20027,10 @@
       <c r="C422" t="s">
         <v>12</v>
       </c>
-      <c r="D422" s="2">
+      <c r="D422" s="1">
         <v>110.91500000000001</v>
       </c>
-      <c r="E422" s="2">
+      <c r="E422" s="1">
         <v>22.961487753294762</v>
       </c>
       <c r="F422" s="1">
@@ -20073,10 +20068,10 @@
       <c r="C423" t="s">
         <v>14</v>
       </c>
-      <c r="D423" s="2">
+      <c r="D423" s="1">
         <v>82.57</v>
       </c>
-      <c r="E423" s="2">
+      <c r="E423" s="1">
         <v>4.6648396878122389</v>
       </c>
       <c r="F423" s="1">
@@ -20114,10 +20109,10 @@
       <c r="C424" t="s">
         <v>19</v>
       </c>
-      <c r="D424" s="2">
+      <c r="D424" s="1">
         <v>59.42</v>
       </c>
-      <c r="E424" s="2">
+      <c r="E424" s="1">
         <v>7.8126596694242822</v>
       </c>
       <c r="F424" s="1">
@@ -20155,10 +20150,10 @@
       <c r="C425" t="s">
         <v>27</v>
       </c>
-      <c r="D425" s="2">
+      <c r="D425" s="1">
         <v>221.5</v>
       </c>
-      <c r="E425" s="2">
+      <c r="E425" s="1">
         <v>4.6906125743764626</v>
       </c>
       <c r="F425" s="1">
@@ -20196,10 +20191,10 @@
       <c r="C426" t="s">
         <v>21</v>
       </c>
-      <c r="D426" s="2">
+      <c r="D426" s="1">
         <v>90</v>
       </c>
-      <c r="E426" s="2">
+      <c r="E426" s="1">
         <v>4.3817233259398902</v>
       </c>
       <c r="F426" s="1">
@@ -20237,10 +20232,10 @@
       <c r="C427" t="s">
         <v>19</v>
       </c>
-      <c r="D427" s="2">
+      <c r="D427" s="1">
         <v>103.65</v>
       </c>
-      <c r="E427" s="2">
+      <c r="E427" s="1">
         <v>11.260043062769798</v>
       </c>
       <c r="F427" s="1">
@@ -20278,10 +20273,10 @@
       <c r="C428" t="s">
         <v>14</v>
       </c>
-      <c r="D428" s="2">
+      <c r="D428" s="1">
         <v>33.880000000000003</v>
       </c>
-      <c r="E428" s="2">
+      <c r="E428" s="1">
         <v>8.8752030089520382</v>
       </c>
       <c r="F428" s="1">
@@ -20316,10 +20311,10 @@
       <c r="C429" t="s">
         <v>29</v>
       </c>
-      <c r="D429" s="2">
+      <c r="D429" s="1">
         <v>252.14</v>
       </c>
-      <c r="E429" s="2">
+      <c r="E429" s="1">
         <v>8.4330010677842857</v>
       </c>
       <c r="F429" s="1">
@@ -20357,10 +20352,10 @@
       <c r="C430" t="s">
         <v>27</v>
       </c>
-      <c r="D430" s="2">
+      <c r="D430" s="1">
         <v>80.12</v>
       </c>
-      <c r="E430" s="2">
+      <c r="E430" s="1">
         <v>5.6992515916951536</v>
       </c>
       <c r="F430" s="1">
@@ -20398,10 +20393,10 @@
       <c r="C431" t="s">
         <v>17</v>
       </c>
-      <c r="D431" s="2">
+      <c r="D431" s="1">
         <v>19.29</v>
       </c>
-      <c r="E431" s="2">
+      <c r="E431" s="1">
         <v>-2.3659437039285525</v>
       </c>
       <c r="F431" s="1">
@@ -20439,10 +20434,10 @@
       <c r="C432" t="s">
         <v>27</v>
       </c>
-      <c r="D432" s="2">
+      <c r="D432" s="1">
         <v>50.21</v>
       </c>
-      <c r="E432" s="2">
+      <c r="E432" s="1">
         <v>15.49372318783564</v>
       </c>
       <c r="G432" s="1">
@@ -20477,10 +20472,10 @@
       <c r="C433" t="s">
         <v>21</v>
       </c>
-      <c r="D433" s="2">
+      <c r="D433" s="1">
         <v>685.35</v>
       </c>
-      <c r="E433" s="2">
+      <c r="E433" s="1">
         <v>8.1296998281795929</v>
       </c>
       <c r="F433" s="1">
@@ -20518,10 +20513,10 @@
       <c r="C434" t="s">
         <v>19</v>
       </c>
-      <c r="D434" s="2">
+      <c r="D434" s="1">
         <v>419.17</v>
       </c>
-      <c r="E434" s="2">
+      <c r="E434" s="1">
         <v>11.44381838116475</v>
       </c>
       <c r="F434" s="1">
@@ -20559,10 +20554,10 @@
       <c r="C435" t="s">
         <v>29</v>
       </c>
-      <c r="D435" s="2">
+      <c r="D435" s="1">
         <v>80.41</v>
       </c>
-      <c r="E435" s="2">
+      <c r="E435" s="1">
         <v>13.31570786154046</v>
       </c>
       <c r="F435" s="1">
@@ -20600,10 +20595,10 @@
       <c r="C436" t="s">
         <v>19</v>
       </c>
-      <c r="D436" s="2">
+      <c r="D436" s="1">
         <v>125</v>
       </c>
-      <c r="E436" s="2">
+      <c r="E436" s="1">
         <v>7.9881931619014468</v>
       </c>
       <c r="F436" s="1">
@@ -20641,10 +20636,10 @@
       <c r="C437" t="s">
         <v>19</v>
       </c>
-      <c r="D437" s="2">
+      <c r="D437" s="1">
         <v>97.45</v>
       </c>
-      <c r="E437" s="2">
+      <c r="E437" s="1">
         <v>20.999035298178814</v>
       </c>
       <c r="F437" s="1">
@@ -20676,10 +20671,10 @@
       <c r="C438" t="s">
         <v>14</v>
       </c>
-      <c r="D438" s="2">
+      <c r="D438" s="1">
         <v>46.43</v>
       </c>
-      <c r="E438" s="2">
+      <c r="E438" s="1">
         <v>3.7647453053284874</v>
       </c>
       <c r="F438" s="1">
@@ -20717,10 +20712,10 @@
       <c r="C439" t="s">
         <v>29</v>
       </c>
-      <c r="D439" s="2">
+      <c r="D439" s="1">
         <v>241.4</v>
       </c>
-      <c r="E439" s="2">
+      <c r="E439" s="1">
         <v>6.8557599109116074</v>
       </c>
       <c r="F439" s="1">
@@ -20758,10 +20753,10 @@
       <c r="C440" t="s">
         <v>39</v>
       </c>
-      <c r="D440" s="2">
+      <c r="D440" s="1">
         <v>164.1</v>
       </c>
-      <c r="E440" s="2">
+      <c r="E440" s="1">
         <v>12.537751470438451</v>
       </c>
       <c r="F440" s="1">
@@ -20799,10 +20794,10 @@
       <c r="C441" t="s">
         <v>39</v>
       </c>
-      <c r="D441" s="2">
+      <c r="D441" s="1">
         <v>81.760000000000005</v>
       </c>
-      <c r="E441" s="2">
+      <c r="E441" s="1">
         <v>9.8391661347497781</v>
       </c>
       <c r="F441" s="1">
@@ -20840,10 +20835,10 @@
       <c r="C442" t="s">
         <v>29</v>
       </c>
-      <c r="D442" s="2">
+      <c r="D442" s="1">
         <v>592.62</v>
       </c>
-      <c r="E442" s="2">
+      <c r="E442" s="1">
         <v>16.556107222321991</v>
       </c>
       <c r="F442" s="1">
@@ -20881,10 +20876,10 @@
       <c r="C443" t="s">
         <v>17</v>
       </c>
-      <c r="D443" s="2">
+      <c r="D443" s="1">
         <v>145.71</v>
       </c>
-      <c r="E443" s="2">
+      <c r="E443" s="1">
         <v>7.142959624075651</v>
       </c>
       <c r="F443" s="1">
@@ -20919,10 +20914,10 @@
       <c r="C444" t="s">
         <v>39</v>
       </c>
-      <c r="D444" s="2">
+      <c r="D444" s="1">
         <v>43.72</v>
       </c>
-      <c r="E444" s="2">
+      <c r="E444" s="1">
         <v>9.596203652479085</v>
       </c>
       <c r="G444" s="1">
@@ -20957,10 +20952,10 @@
       <c r="C445" t="s">
         <v>25</v>
       </c>
-      <c r="D445" s="2">
+      <c r="D445" s="1">
         <v>75.849999999999994</v>
       </c>
-      <c r="E445" s="2">
+      <c r="E445" s="1">
         <v>11.339744864694467</v>
       </c>
       <c r="G445" s="1">
@@ -20995,10 +20990,10 @@
       <c r="C446" t="s">
         <v>19</v>
       </c>
-      <c r="D446" s="2">
+      <c r="D446" s="1">
         <v>55.86</v>
       </c>
-      <c r="E446" s="2">
+      <c r="E446" s="1">
         <v>9.0695926517878398</v>
       </c>
       <c r="F446" s="1">
@@ -21036,10 +21031,10 @@
       <c r="C447" t="s">
         <v>14</v>
       </c>
-      <c r="D447" s="2">
+      <c r="D447" s="1">
         <v>119.27</v>
       </c>
-      <c r="E447" s="2">
+      <c r="E447" s="1">
         <v>14.502968356445024</v>
       </c>
       <c r="F447" s="1">
@@ -21077,10 +21072,10 @@
       <c r="C448" t="s">
         <v>14</v>
       </c>
-      <c r="D448" s="2">
+      <c r="D448" s="1">
         <v>184.24</v>
       </c>
-      <c r="E448" s="2">
+      <c r="E448" s="1">
         <v>7.8794417555024809</v>
       </c>
       <c r="F448" s="1">
@@ -21118,10 +21113,10 @@
       <c r="C449" t="s">
         <v>39</v>
       </c>
-      <c r="D449" s="2">
+      <c r="D449" s="1">
         <v>219.52</v>
       </c>
-      <c r="E449" s="2">
+      <c r="E449" s="1">
         <v>16.803834689723686</v>
       </c>
       <c r="F449" s="1">
@@ -21159,10 +21154,10 @@
       <c r="C450" t="s">
         <v>39</v>
       </c>
-      <c r="D450" s="2">
+      <c r="D450" s="1">
         <v>134.86000000000001</v>
       </c>
-      <c r="E450" s="2">
+      <c r="E450" s="1">
         <v>41.250902335130782</v>
       </c>
       <c r="G450" s="1">
@@ -21197,10 +21192,10 @@
       <c r="C451" t="s">
         <v>27</v>
       </c>
-      <c r="D451" s="2">
+      <c r="D451" s="1">
         <v>65.41</v>
       </c>
-      <c r="E451" s="2">
+      <c r="E451" s="1">
         <v>2.7460069040482926</v>
       </c>
       <c r="F451" s="1">
@@ -21238,10 +21233,10 @@
       <c r="C452" t="s">
         <v>21</v>
       </c>
-      <c r="D452" s="2">
+      <c r="D452" s="1">
         <v>179.74</v>
       </c>
-      <c r="E452" s="2">
+      <c r="E452" s="1">
         <v>2.2822055520264284</v>
       </c>
       <c r="F452" s="1">
@@ -21279,10 +21274,10 @@
       <c r="C453" t="s">
         <v>17</v>
       </c>
-      <c r="D453" s="2">
+      <c r="D453" s="1">
         <v>104.89</v>
       </c>
-      <c r="E453" s="2">
+      <c r="E453" s="1">
         <v>8.9877974062647858</v>
       </c>
       <c r="G453" s="1">
@@ -21317,10 +21312,10 @@
       <c r="C454" t="s">
         <v>19</v>
       </c>
-      <c r="D454" s="2">
+      <c r="D454" s="1">
         <v>176.44</v>
       </c>
-      <c r="E454" s="2">
+      <c r="E454" s="1">
         <v>8.315940069639872</v>
       </c>
       <c r="F454" s="1">
@@ -21358,10 +21353,10 @@
       <c r="C455" t="s">
         <v>21</v>
       </c>
-      <c r="D455" s="2">
+      <c r="D455" s="1">
         <v>69.36</v>
       </c>
-      <c r="E455" s="2">
+      <c r="E455" s="1">
         <v>1.6456038629358849</v>
       </c>
       <c r="F455" s="1">
@@ -21399,10 +21394,10 @@
       <c r="C456" t="s">
         <v>19</v>
       </c>
-      <c r="D456" s="2">
+      <c r="D456" s="1">
         <v>321.25</v>
       </c>
-      <c r="E456" s="2">
+      <c r="E456" s="1">
         <v>13.447662369733337</v>
       </c>
       <c r="F456" s="1">
@@ -21440,10 +21435,10 @@
       <c r="C457" t="s">
         <v>21</v>
       </c>
-      <c r="D457" s="2">
+      <c r="D457" s="1">
         <v>52.3</v>
       </c>
-      <c r="E457" s="2">
+      <c r="E457" s="1">
         <v>1.7577260148945673</v>
       </c>
       <c r="G457" s="1">
@@ -21472,10 +21467,10 @@
       <c r="C458" t="s">
         <v>33</v>
       </c>
-      <c r="D458" s="2">
+      <c r="D458" s="1">
         <v>40.479999999999997</v>
       </c>
-      <c r="E458" s="2">
+      <c r="E458" s="1">
         <v>3.5106216534069867</v>
       </c>
       <c r="G458" s="1">
@@ -21510,10 +21505,10 @@
       <c r="C459" t="s">
         <v>29</v>
       </c>
-      <c r="D459" s="2">
+      <c r="D459" s="1">
         <v>146.75</v>
       </c>
-      <c r="E459" s="2">
+      <c r="E459" s="1">
         <v>8.804876326642507</v>
       </c>
       <c r="F459" s="1">
@@ -21551,10 +21546,10 @@
       <c r="C460" t="s">
         <v>39</v>
       </c>
-      <c r="D460" s="2">
+      <c r="D460" s="1">
         <v>497.96</v>
       </c>
-      <c r="E460" s="2">
+      <c r="E460" s="1">
         <v>15.326672330624902</v>
       </c>
       <c r="F460" s="1">
@@ -21592,10 +21587,10 @@
       <c r="C461" t="s">
         <v>29</v>
       </c>
-      <c r="D461" s="2">
+      <c r="D461" s="1">
         <v>488.74</v>
       </c>
-      <c r="E461" s="2">
+      <c r="E461" s="1">
         <v>10.335486114815229</v>
       </c>
       <c r="F461" s="1">
@@ -21633,10 +21628,10 @@
       <c r="C462" t="s">
         <v>21</v>
       </c>
-      <c r="D462" s="2">
+      <c r="D462" s="1">
         <v>213.58</v>
       </c>
-      <c r="E462" s="2">
+      <c r="E462" s="1">
         <v>6.8403443338127534</v>
       </c>
       <c r="F462" s="1">
@@ -21674,10 +21669,10 @@
       <c r="C463" t="s">
         <v>21</v>
       </c>
-      <c r="D463" s="2">
+      <c r="D463" s="1">
         <v>179.34</v>
       </c>
-      <c r="E463" s="2">
+      <c r="E463" s="1">
         <v>10.044616394610673</v>
       </c>
       <c r="F463" s="1">
@@ -21715,10 +21710,10 @@
       <c r="C464" t="s">
         <v>21</v>
       </c>
-      <c r="D464" s="2">
+      <c r="D464" s="1">
         <v>391.25</v>
       </c>
-      <c r="E464" s="2">
+      <c r="E464" s="1">
         <v>15.227294798686163</v>
       </c>
       <c r="F464" s="1">
@@ -21756,10 +21751,10 @@
       <c r="C465" t="s">
         <v>14</v>
       </c>
-      <c r="D465" s="2">
+      <c r="D465" s="1">
         <v>46.87</v>
       </c>
-      <c r="E465" s="2">
+      <c r="E465" s="1">
         <v>4.0600519813805969</v>
       </c>
       <c r="F465" s="1">
@@ -21797,10 +21792,10 @@
       <c r="C466" t="s">
         <v>19</v>
       </c>
-      <c r="D466" s="2">
+      <c r="D466" s="1">
         <v>224.57</v>
       </c>
-      <c r="E466" s="2">
+      <c r="E466" s="1">
         <v>12.001195517549789</v>
       </c>
       <c r="F466" s="1">
@@ -21838,10 +21833,10 @@
       <c r="C467" t="s">
         <v>39</v>
       </c>
-      <c r="D467" s="2">
+      <c r="D467" s="1">
         <v>30.8</v>
       </c>
-      <c r="E467" s="2">
+      <c r="E467" s="1">
         <v>0.50567985683351857</v>
       </c>
       <c r="G467" s="1">
@@ -21876,7 +21871,7 @@
       <c r="C468" t="s">
         <v>33</v>
       </c>
-      <c r="D468" s="2">
+      <c r="D468" s="1">
         <v>33.795000000000002</v>
       </c>
       <c r="H468" s="1">
@@ -21902,10 +21897,10 @@
       <c r="C469" t="s">
         <v>25</v>
       </c>
-      <c r="D469" s="2">
+      <c r="D469" s="1">
         <v>139.26</v>
       </c>
-      <c r="E469" s="2">
+      <c r="E469" s="1">
         <v>11.278849837628924</v>
       </c>
       <c r="G469" s="1">
@@ -21940,10 +21935,10 @@
       <c r="C470" t="s">
         <v>12</v>
       </c>
-      <c r="D470" s="2">
+      <c r="D470" s="1">
         <v>182.37</v>
       </c>
-      <c r="E470" s="2">
+      <c r="E470" s="1">
         <v>9.1626620218064438</v>
       </c>
       <c r="F470" s="1">
@@ -21981,10 +21976,10 @@
       <c r="C471" t="s">
         <v>21</v>
       </c>
-      <c r="D471" s="2">
+      <c r="D471" s="1">
         <v>181.95</v>
       </c>
-      <c r="E471" s="2">
+      <c r="E471" s="1">
         <v>9.3348495797402684</v>
       </c>
       <c r="F471" s="1">
@@ -22022,10 +22017,10 @@
       <c r="C472" t="s">
         <v>19</v>
       </c>
-      <c r="D472" s="2">
+      <c r="D472" s="1">
         <v>215.19</v>
       </c>
-      <c r="E472" s="2">
+      <c r="E472" s="1">
         <v>2.1147051159153607</v>
       </c>
       <c r="F472" s="1">
@@ -22063,10 +22058,10 @@
       <c r="C473" t="s">
         <v>29</v>
       </c>
-      <c r="D473" s="2">
+      <c r="D473" s="1">
         <v>311.07</v>
       </c>
-      <c r="E473" s="2">
+      <c r="E473" s="1">
         <v>33.403520050566904</v>
       </c>
       <c r="G473" s="1">
@@ -22101,10 +22096,10 @@
       <c r="C474" t="s">
         <v>33</v>
       </c>
-      <c r="D474" s="2">
+      <c r="D474" s="1">
         <v>49.36</v>
       </c>
-      <c r="E474" s="2">
+      <c r="E474" s="1">
         <v>2.1186648783078077E-2</v>
       </c>
       <c r="F474" s="1">
@@ -22142,10 +22137,10 @@
       <c r="C475" t="s">
         <v>29</v>
       </c>
-      <c r="D475" s="2">
+      <c r="D475" s="1">
         <v>11.73</v>
       </c>
-      <c r="E475" s="2">
+      <c r="E475" s="1">
         <v>-7.2800822074704179</v>
       </c>
       <c r="F475" s="1">
@@ -22183,10 +22178,10 @@
       <c r="C476" t="s">
         <v>17</v>
       </c>
-      <c r="D476" s="2">
+      <c r="D476" s="1">
         <v>40.630000000000003</v>
       </c>
-      <c r="E476" s="2">
+      <c r="E476" s="1">
         <v>0.84948977193985975</v>
       </c>
       <c r="F476" s="1">
@@ -22224,10 +22219,10 @@
       <c r="C477" t="s">
         <v>21</v>
       </c>
-      <c r="D477" s="2">
+      <c r="D477" s="1">
         <v>103.23</v>
       </c>
-      <c r="E477" s="2">
+      <c r="E477" s="1">
         <v>5.1371635464611654</v>
       </c>
       <c r="F477" s="1">
@@ -22265,10 +22260,10 @@
       <c r="C478" t="s">
         <v>29</v>
       </c>
-      <c r="D478" s="2">
+      <c r="D478" s="1">
         <v>332.99</v>
       </c>
-      <c r="E478" s="2">
+      <c r="E478" s="1">
         <v>11.017104342458239</v>
       </c>
       <c r="F478" s="1">
@@ -22306,10 +22301,10 @@
       <c r="C479" t="s">
         <v>27</v>
       </c>
-      <c r="D479" s="2">
+      <c r="D479" s="1">
         <v>36.26</v>
       </c>
-      <c r="E479" s="2">
+      <c r="E479" s="1">
         <v>6.8709878496235444</v>
       </c>
       <c r="G479" s="1">
@@ -22341,10 +22336,10 @@
       <c r="C480" t="s">
         <v>17</v>
       </c>
-      <c r="D480" s="2">
+      <c r="D480" s="1">
         <v>13.17</v>
       </c>
-      <c r="E480" s="2">
+      <c r="E480" s="1">
         <v>8.3878422083946358</v>
       </c>
       <c r="G480" s="1">
@@ -22367,10 +22362,10 @@
       <c r="C481" t="s">
         <v>19</v>
       </c>
-      <c r="D481" s="2">
+      <c r="D481" s="1">
         <v>38.07</v>
       </c>
-      <c r="E481" s="2">
+      <c r="E481" s="1">
         <v>-1.8993314706789888</v>
       </c>
       <c r="G481" s="1">
@@ -22405,10 +22400,10 @@
       <c r="C482" t="s">
         <v>47</v>
       </c>
-      <c r="D482" s="2">
+      <c r="D482" s="1">
         <v>95.05</v>
       </c>
-      <c r="E482" s="2">
+      <c r="E482" s="1">
         <v>2.1755766183477521</v>
       </c>
       <c r="F482" s="1">
@@ -22446,10 +22441,10 @@
       <c r="C483" t="s">
         <v>33</v>
       </c>
-      <c r="D483" s="2">
+      <c r="D483" s="1">
         <v>72.459999999999994</v>
       </c>
-      <c r="E483" s="2">
+      <c r="E483" s="1">
         <v>-1.3601178811855741</v>
       </c>
       <c r="G483" s="1">
@@ -22484,10 +22479,10 @@
       <c r="C484" t="s">
         <v>14</v>
       </c>
-      <c r="D484" s="2">
+      <c r="D484" s="1">
         <v>43.89</v>
       </c>
-      <c r="E484" s="2">
+      <c r="E484" s="1">
         <v>2.0361202382272792</v>
       </c>
       <c r="F484" s="1">
@@ -22525,10 +22520,10 @@
       <c r="C485" t="s">
         <v>39</v>
       </c>
-      <c r="D485" s="2">
+      <c r="D485" s="1">
         <v>154</v>
       </c>
-      <c r="E485" s="2">
+      <c r="E485" s="1">
         <v>5.3936243429797637</v>
       </c>
       <c r="F485" s="1">
@@ -22566,10 +22561,10 @@
       <c r="C486" t="s">
         <v>21</v>
       </c>
-      <c r="D486" s="2">
+      <c r="D486" s="1">
         <v>154.78</v>
       </c>
-      <c r="E486" s="2">
+      <c r="E486" s="1">
         <v>6.8075228294981249</v>
       </c>
       <c r="F486" s="1">
@@ -22607,10 +22602,10 @@
       <c r="C487" t="s">
         <v>25</v>
       </c>
-      <c r="D487" s="2">
+      <c r="D487" s="1">
         <v>32.79</v>
       </c>
-      <c r="E487" s="2">
+      <c r="E487" s="1">
         <v>-2.6265469196847691</v>
       </c>
       <c r="F487" s="1">
@@ -22648,10 +22643,10 @@
       <c r="C488" t="s">
         <v>27</v>
       </c>
-      <c r="D488" s="2">
+      <c r="D488" s="1">
         <v>143.88</v>
       </c>
-      <c r="E488" s="2">
+      <c r="E488" s="1">
         <v>5.5373884988617617</v>
       </c>
       <c r="G488" s="1">
@@ -22686,10 +22681,10 @@
       <c r="C489" t="s">
         <v>14</v>
       </c>
-      <c r="D489" s="2">
+      <c r="D489" s="1">
         <v>71.709999999999994</v>
       </c>
-      <c r="E489" s="2">
+      <c r="E489" s="1">
         <v>4.2070250455144231</v>
       </c>
       <c r="F489" s="1">
@@ -22727,10 +22722,10 @@
       <c r="C490" t="s">
         <v>12</v>
       </c>
-      <c r="D490" s="2">
+      <c r="D490" s="1">
         <v>37.32</v>
       </c>
-      <c r="E490" s="2">
+      <c r="E490" s="1">
         <v>6.8114687682445219</v>
       </c>
       <c r="G490" s="1">
@@ -22762,10 +22757,10 @@
       <c r="C491" t="s">
         <v>29</v>
       </c>
-      <c r="D491" s="2">
+      <c r="D491" s="1">
         <v>253.04</v>
       </c>
-      <c r="E491" s="2">
+      <c r="E491" s="1">
         <v>13.075621833926832</v>
       </c>
       <c r="F491" s="1">
@@ -22803,10 +22798,10 @@
       <c r="C492" t="s">
         <v>14</v>
       </c>
-      <c r="D492" s="2">
+      <c r="D492" s="1">
         <v>254.12</v>
       </c>
-      <c r="E492" s="2">
+      <c r="E492" s="1">
         <v>4.0756061854974934</v>
       </c>
       <c r="G492" s="1">
@@ -22838,10 +22833,10 @@
       <c r="C493" t="s">
         <v>33</v>
       </c>
-      <c r="D493" s="2">
+      <c r="D493" s="1">
         <v>31.61</v>
       </c>
-      <c r="E493" s="2">
+      <c r="E493" s="1">
         <v>8.9701657737847995</v>
       </c>
       <c r="F493" s="1">
@@ -22879,10 +22874,10 @@
       <c r="C494" t="s">
         <v>39</v>
       </c>
-      <c r="D494" s="2">
+      <c r="D494" s="1">
         <v>98.98</v>
       </c>
-      <c r="E494" s="2">
+      <c r="E494" s="1">
         <v>-5.5545888140424822</v>
       </c>
       <c r="G494" s="1">
@@ -22917,10 +22912,10 @@
       <c r="C495" t="s">
         <v>47</v>
       </c>
-      <c r="D495" s="2">
+      <c r="D495" s="1">
         <v>71</v>
       </c>
-      <c r="E495" s="2">
+      <c r="E495" s="1">
         <v>2.6899917287915631</v>
       </c>
       <c r="F495" s="1">
@@ -22955,10 +22950,10 @@
       <c r="C496" t="s">
         <v>25</v>
       </c>
-      <c r="D496" s="2">
+      <c r="D496" s="1">
         <v>113.39</v>
       </c>
-      <c r="E496" s="2">
+      <c r="E496" s="1">
         <v>6.1467454796954479</v>
       </c>
       <c r="G496" s="1">
@@ -22993,10 +22988,10 @@
       <c r="C497" t="s">
         <v>29</v>
       </c>
-      <c r="D497" s="2">
+      <c r="D497" s="1">
         <v>37.090000000000003</v>
       </c>
-      <c r="E497" s="2">
+      <c r="E497" s="1">
         <v>2.5278076091848511</v>
       </c>
       <c r="G497" s="1">
@@ -23031,10 +23026,10 @@
       <c r="C498" t="s">
         <v>21</v>
       </c>
-      <c r="D498" s="2">
+      <c r="D498" s="1">
         <v>116.19</v>
       </c>
-      <c r="E498" s="2">
+      <c r="E498" s="1">
         <v>6.486355547994993</v>
       </c>
       <c r="F498" s="1">
@@ -23072,10 +23067,10 @@
       <c r="C499" t="s">
         <v>39</v>
       </c>
-      <c r="D499" s="2">
+      <c r="D499" s="1">
         <v>131.08000000000001</v>
       </c>
-      <c r="E499" s="2">
+      <c r="E499" s="1">
         <v>6.5636631945773516</v>
       </c>
       <c r="F499" s="1">
@@ -23113,10 +23108,10 @@
       <c r="C500" t="s">
         <v>29</v>
       </c>
-      <c r="D500" s="2">
+      <c r="D500" s="1">
         <v>123.19</v>
       </c>
-      <c r="E500" s="2">
+      <c r="E500" s="1">
         <v>-0.40826714834255595</v>
       </c>
       <c r="F500" s="1">
@@ -23154,10 +23149,10 @@
       <c r="C501" t="s">
         <v>19</v>
       </c>
-      <c r="D501" s="2">
+      <c r="D501" s="1">
         <v>295.8</v>
       </c>
-      <c r="E501" s="2">
+      <c r="E501" s="1">
         <v>8.7265369852844277</v>
       </c>
       <c r="G501" s="1">
@@ -23192,10 +23187,10 @@
       <c r="C502" t="s">
         <v>14</v>
       </c>
-      <c r="D502" s="2">
+      <c r="D502" s="1">
         <v>49.79</v>
       </c>
-      <c r="E502" s="2">
+      <c r="E502" s="1">
         <v>8.9179399619927491</v>
       </c>
       <c r="F502" s="1">
@@ -23233,10 +23228,10 @@
       <c r="C503" t="s">
         <v>29</v>
       </c>
-      <c r="D503" s="2">
+      <c r="D503" s="1">
         <v>161.03</v>
       </c>
-      <c r="E503" s="2">
+      <c r="E503" s="1">
         <v>10.701118339758665</v>
       </c>
       <c r="F503" s="1">
